--- a/1_Dataset_creation/Counts.xlsx
+++ b/1_Dataset_creation/Counts.xlsx
@@ -69,33 +69,33 @@
     <t>Myroides odoratimimus</t>
   </si>
   <si>
+    <t>Capnocytophaga canimorsus</t>
+  </si>
+  <si>
     <t>Aequorivita sp002364215</t>
   </si>
   <si>
-    <t>Capnocytophaga canimorsus</t>
-  </si>
-  <si>
     <t>Myroides sp.</t>
   </si>
   <si>
     <t>Leeuwenhoekiella blandensis</t>
   </si>
   <si>
+    <t>UBA6231 sp002784145</t>
+  </si>
+  <si>
+    <t>Zunongwangia profunda</t>
+  </si>
+  <si>
+    <t>Elizabethkingia bruuniana</t>
+  </si>
+  <si>
+    <t>Maribacter dokdonensis</t>
+  </si>
+  <si>
     <t>Flavobacterium columnare_A</t>
   </si>
   <si>
-    <t>Elizabethkingia bruuniana</t>
-  </si>
-  <si>
-    <t>UBA6231 sp002784145</t>
-  </si>
-  <si>
-    <t>Maribacter dokdonensis</t>
-  </si>
-  <si>
-    <t>Zunongwangia profunda</t>
-  </si>
-  <si>
     <t>Muricauda sp.</t>
   </si>
   <si>
@@ -108,3393 +108,3393 @@
     <t>Euzebyella marina</t>
   </si>
   <si>
+    <t>Leeuwenhoekiella palythoae</t>
+  </si>
+  <si>
     <t>Flavobacterium sp003968755</t>
   </si>
   <si>
-    <t>Leeuwenhoekiella palythoae</t>
+    <t>Flavobacterium columnare</t>
+  </si>
+  <si>
+    <t>Polaribacter sp.</t>
+  </si>
+  <si>
+    <t>Aequorivita vladivostokensis</t>
+  </si>
+  <si>
+    <t>Mesonia sp002413625</t>
   </si>
   <si>
     <t>SHLJ01 sp.</t>
   </si>
   <si>
-    <t>Aequorivita vladivostokensis</t>
-  </si>
-  <si>
-    <t>Polaribacter sp.</t>
-  </si>
-  <si>
-    <t>Flavobacterium columnare</t>
-  </si>
-  <si>
     <t>Polaribacter sp001873065</t>
   </si>
   <si>
-    <t>Mesonia sp002413625</t>
-  </si>
-  <si>
     <t>Marinirhabdus sp002375495</t>
   </si>
   <si>
+    <t>Xanthomarina gelatinilytica</t>
+  </si>
+  <si>
+    <t>Chryseobacterium mucoviscidosis</t>
+  </si>
+  <si>
+    <t>Capnocytophaga sputigena</t>
+  </si>
+  <si>
+    <t>CG2-30-34-30 sp001873105</t>
+  </si>
+  <si>
     <t>Cellulophaga baltica</t>
   </si>
   <si>
+    <t>CG1-02-35-72 sp002793215</t>
+  </si>
+  <si>
+    <t>Flavobacterium johnsoniae</t>
+  </si>
+  <si>
     <t>Flavobacterium columnare_C</t>
   </si>
   <si>
+    <t>Empedobacter brevis</t>
+  </si>
+  <si>
     <t>Muriicola sp.</t>
   </si>
   <si>
-    <t>Capnocytophaga sputigena</t>
-  </si>
-  <si>
-    <t>CG1-02-35-72 sp002793215</t>
-  </si>
-  <si>
-    <t>Chryseobacterium mucoviscidosis</t>
-  </si>
-  <si>
-    <t>Flavobacterium johnsoniae</t>
-  </si>
-  <si>
-    <t>CG2-30-34-30 sp001873105</t>
-  </si>
-  <si>
-    <t>Xanthomarina gelatinilytica</t>
-  </si>
-  <si>
-    <t>Empedobacter brevis</t>
+    <t>Arenibacter algicola</t>
+  </si>
+  <si>
+    <t>Cellulophaga lytica</t>
+  </si>
+  <si>
+    <t>Algibacter lectus</t>
+  </si>
+  <si>
+    <t>Kaistella sp002477665</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp002413745</t>
+  </si>
+  <si>
+    <t>UBA724 sp002723075</t>
+  </si>
+  <si>
+    <t>Capnocytophaga leadbetteri</t>
   </si>
   <si>
     <t>Croceibacter atlanticus</t>
   </si>
   <si>
-    <t>UBA724 sp002723075</t>
-  </si>
-  <si>
-    <t>Kaistella sp002477665</t>
-  </si>
-  <si>
-    <t>Algibacter lectus</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002413745</t>
-  </si>
-  <si>
-    <t>Cellulophaga lytica</t>
+    <t>UBA11891 sp.</t>
   </si>
   <si>
     <t>Chryseobacterium indologenes_B</t>
   </si>
   <si>
-    <t>Capnocytophaga leadbetteri</t>
-  </si>
-  <si>
-    <t>UBA11891 sp.</t>
-  </si>
-  <si>
-    <t>Arenibacter algicola</t>
+    <t>Muricauda_A lutaonensis</t>
+  </si>
+  <si>
+    <t>Nonlabens tegetincola</t>
+  </si>
+  <si>
+    <t>Tenacibaculum sp.</t>
   </si>
   <si>
     <t>Flavobacterium sp007097285</t>
   </si>
   <si>
+    <t>Capnocytophaga cynodegmi</t>
+  </si>
+  <si>
+    <t>MS024-2A sp.</t>
+  </si>
+  <si>
     <t>Leeuwenhoekiella sp002708845</t>
   </si>
   <si>
-    <t>Muricauda_A lutaonensis</t>
-  </si>
-  <si>
-    <t>Capnocytophaga cynodegmi</t>
+    <t>Nonlabens ulvanivorans</t>
+  </si>
+  <si>
+    <t>RR4-38 sp.</t>
   </si>
   <si>
     <t>Maribacter sp.</t>
   </si>
   <si>
+    <t>Uncl. Weeksellaceae sp.</t>
+  </si>
+  <si>
+    <t>Bergeyella zoohelcum</t>
+  </si>
+  <si>
+    <t>Tenacibaculum mesophilum</t>
+  </si>
+  <si>
+    <t>Chryseobacterium indoltheticum</t>
+  </si>
+  <si>
+    <t>Flavobacterium branchiophilum</t>
+  </si>
+  <si>
+    <t>Chryseobacterium carnipullorum</t>
+  </si>
+  <si>
+    <t>MS024-2A sp002292265</t>
+  </si>
+  <si>
     <t>Marixanthomonas sp002360635</t>
   </si>
   <si>
-    <t>Tenacibaculum mesophilum</t>
-  </si>
-  <si>
-    <t>MS024-2A sp002292265</t>
-  </si>
-  <si>
-    <t>Nonlabens tegetincola</t>
-  </si>
-  <si>
-    <t>Uncl. Weeksellaceae sp.</t>
-  </si>
-  <si>
-    <t>Nonlabens ulvanivorans</t>
-  </si>
-  <si>
-    <t>RR4-38 sp.</t>
+    <t>Chryseobacterium gleum</t>
   </si>
   <si>
     <t>Elizabethkingia ursingii</t>
   </si>
   <si>
-    <t>Flavobacterium branchiophilum</t>
-  </si>
-  <si>
-    <t>Chryseobacterium carnipullorum</t>
-  </si>
-  <si>
-    <t>Bergeyella zoohelcum</t>
-  </si>
-  <si>
-    <t>Chryseobacterium gleum</t>
-  </si>
-  <si>
-    <t>Tenacibaculum sp.</t>
-  </si>
-  <si>
-    <t>Chryseobacterium indoltheticum</t>
+    <t>Flavobacterium sp002210235</t>
+  </si>
+  <si>
+    <t>Myroides odoratus</t>
+  </si>
+  <si>
+    <t>Chryseobacterium rhizosphaerae</t>
+  </si>
+  <si>
+    <t>Weeksella virosa</t>
+  </si>
+  <si>
+    <t>SHLJ01 sp004283005</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp003182335</t>
+  </si>
+  <si>
+    <t>Aquimarina sp900312745</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp003217415</t>
+  </si>
+  <si>
+    <t>Aquimarina sp.</t>
+  </si>
+  <si>
+    <t>Chryseobacterium cucumeris</t>
+  </si>
+  <si>
+    <t>Mesonia sp.</t>
+  </si>
+  <si>
+    <t>Flavobacterium hibernum</t>
+  </si>
+  <si>
+    <t>Olleya sp000518525</t>
+  </si>
+  <si>
+    <t>Capnocytophaga granulosa</t>
+  </si>
+  <si>
+    <t>Croceivirga sp.</t>
+  </si>
+  <si>
+    <t>Tenacibaculum discolor</t>
+  </si>
+  <si>
+    <t>Flavobacterium anhuiense</t>
+  </si>
+  <si>
+    <t>Chryseobacterium shandongense</t>
+  </si>
+  <si>
+    <t>Jejuia pallidilutea</t>
+  </si>
+  <si>
+    <t>Epilithonimonas sp002391865</t>
+  </si>
+  <si>
+    <t>Chryseobacterium arthrosphaerae</t>
+  </si>
+  <si>
+    <t>Planobacterium sp002441475</t>
+  </si>
+  <si>
+    <t>Myroides marinus</t>
+  </si>
+  <si>
+    <t>Flavobacterium tructae</t>
+  </si>
+  <si>
+    <t>BACL21 sp002384055</t>
+  </si>
+  <si>
+    <t>Flavobacterium chungangense</t>
+  </si>
+  <si>
+    <t>Lutibacter sp.</t>
+  </si>
+  <si>
+    <t>Flavobacterium piscis</t>
+  </si>
+  <si>
+    <t>UBA7428 sp.</t>
+  </si>
+  <si>
+    <t>UBA4166 sp002379985</t>
   </si>
   <si>
     <t>Cloacibacterium normanense</t>
   </si>
   <si>
-    <t>Croceivirga sp.</t>
-  </si>
-  <si>
-    <t>Aquimarina sp900312745</t>
-  </si>
-  <si>
-    <t>Lutibacter sp.</t>
-  </si>
-  <si>
-    <t>Flavobacterium hibernum</t>
-  </si>
-  <si>
-    <t>Planobacterium sp002441475</t>
-  </si>
-  <si>
-    <t>MS024-2A sp.</t>
-  </si>
-  <si>
-    <t>SHLJ01 sp004283005</t>
-  </si>
-  <si>
-    <t>Mesonia sp.</t>
-  </si>
-  <si>
-    <t>UBA7428 sp.</t>
-  </si>
-  <si>
-    <t>BACL21 sp002384055</t>
-  </si>
-  <si>
-    <t>Chryseobacterium rhizosphaerae</t>
-  </si>
-  <si>
-    <t>Flavobacterium tructae</t>
-  </si>
-  <si>
-    <t>Epilithonimonas sp002391865</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp003217415</t>
-  </si>
-  <si>
-    <t>Weeksella virosa</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp003182335</t>
-  </si>
-  <si>
-    <t>Myroides odoratus</t>
-  </si>
-  <si>
-    <t>UBA4166 sp002379985</t>
-  </si>
-  <si>
-    <t>Flavobacterium chungangense</t>
-  </si>
-  <si>
     <t>Kaistella carnis</t>
   </si>
   <si>
-    <t>Chryseobacterium arthrosphaerae</t>
-  </si>
-  <si>
-    <t>Olleya sp000518525</t>
-  </si>
-  <si>
-    <t>Jejuia pallidilutea</t>
-  </si>
-  <si>
-    <t>Flavobacterium piscis</t>
-  </si>
-  <si>
-    <t>Chryseobacterium cucumeris</t>
-  </si>
-  <si>
-    <t>Myroides marinus</t>
-  </si>
-  <si>
-    <t>Chryseobacterium shandongense</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002210235</t>
-  </si>
-  <si>
-    <t>Flavobacterium anhuiense</t>
-  </si>
-  <si>
-    <t>Tenacibaculum discolor</t>
-  </si>
-  <si>
-    <t>Capnocytophaga granulosa</t>
-  </si>
-  <si>
-    <t>Aquimarina sp.</t>
+    <t>Meridianimaribacter flavus</t>
+  </si>
+  <si>
+    <t>Chryseobacterium gambrini</t>
+  </si>
+  <si>
+    <t>Kaistella haifense</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp003449615</t>
+  </si>
+  <si>
+    <t>Algibacter_B sp.</t>
+  </si>
+  <si>
+    <t>Epilithonimonas hominis</t>
+  </si>
+  <si>
+    <t>Croceitalea sp.</t>
+  </si>
+  <si>
+    <t>Polaribacter sp900106075</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp000744495</t>
+  </si>
+  <si>
+    <t>Dokdonia donghaensis</t>
+  </si>
+  <si>
+    <t>Flavobacterium nitrogenifigens</t>
+  </si>
+  <si>
+    <t>Mesoflavibacter zeaxanthinifaciens</t>
+  </si>
+  <si>
+    <t>Flavobacterium succinicans</t>
   </si>
   <si>
     <t>Chryseobacterium sp900128945</t>
   </si>
   <si>
+    <t>Ornithobacterium sp.</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp000813005</t>
+  </si>
+  <si>
+    <t>Capnocytophaga haemolytica</t>
+  </si>
+  <si>
+    <t>Aquimarina latercula</t>
+  </si>
+  <si>
+    <t>Muricauda sp002711825</t>
+  </si>
+  <si>
+    <t>Kaistella sp002205795</t>
+  </si>
+  <si>
+    <t>Salegentibacter mishustinae</t>
+  </si>
+  <si>
+    <t>UBA3537 sp002684355</t>
+  </si>
+  <si>
+    <t>Flavobacterium aquatile</t>
+  </si>
+  <si>
+    <t>Flavobacterium cauense</t>
+  </si>
+  <si>
+    <t>Kaistella antarcticum</t>
+  </si>
+  <si>
+    <t>Chryseobacterium viscerum</t>
+  </si>
+  <si>
+    <t>Epilithonimonas bovis</t>
+  </si>
+  <si>
+    <t>Maribacter_A sp.</t>
+  </si>
+  <si>
+    <t>BACL21 sp.</t>
+  </si>
+  <si>
+    <t>Aquimarina aggregata</t>
+  </si>
+  <si>
+    <t>MAG-121220-bin8 sp.</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp003201365</t>
+  </si>
+  <si>
+    <t>Planobacterium sp.</t>
+  </si>
+  <si>
+    <t>Flavobacterium pectinovorum</t>
+  </si>
+  <si>
+    <t>Polaribacter sp002340765</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp001898245</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp001800905</t>
+  </si>
+  <si>
     <t>Aequorivita sp006346335</t>
   </si>
   <si>
+    <t>Chryseobacterium flavum</t>
+  </si>
+  <si>
+    <t>Ornithobacterium rhinotracheale</t>
+  </si>
+  <si>
+    <t>SCGC-AAA160-P02 sp.</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp000169355</t>
+  </si>
+  <si>
     <t>Planobacterium taklimakanense</t>
   </si>
   <si>
+    <t>Chryseobacterium lactis</t>
+  </si>
+  <si>
+    <t>MED-G14 sp002697465</t>
+  </si>
+  <si>
+    <t>UBA3537 sp002725015</t>
+  </si>
+  <si>
+    <t>Kaistella sp.</t>
+  </si>
+  <si>
+    <t>Chryseobacterium scophthalmum</t>
+  </si>
+  <si>
+    <t>Tenacibaculum dicentrarchi</t>
+  </si>
+  <si>
+    <t>Gelidibacter sp.</t>
+  </si>
+  <si>
+    <t>Psychroserpens sp.</t>
+  </si>
+  <si>
+    <t>MS024-2A sp000173095</t>
+  </si>
+  <si>
+    <t>Eudoraea sp.</t>
+  </si>
+  <si>
+    <t>UBA7446 sp002478685</t>
+  </si>
+  <si>
+    <t>Chryseobacterium oranimense</t>
+  </si>
+  <si>
+    <t>Salegentibacter agarivorans</t>
+  </si>
+  <si>
+    <t>Chryseobacterium balustinum</t>
+  </si>
+  <si>
+    <t>Salegentibacter salarius</t>
+  </si>
+  <si>
+    <t>Gramella flava</t>
+  </si>
+  <si>
+    <t>Riemerella sp.</t>
+  </si>
+  <si>
+    <t>Algibacter sp.</t>
+  </si>
+  <si>
+    <t>Chryseobacterium piscium</t>
+  </si>
+  <si>
+    <t>Flavobacterium glycines</t>
+  </si>
+  <si>
+    <t>Chryseobacterium formosense</t>
+  </si>
+  <si>
+    <t>Flavobacterium columnare_D</t>
+  </si>
+  <si>
+    <t>Chryseobacterium gallinarum</t>
+  </si>
+  <si>
     <t>SMXJ01 sp.</t>
   </si>
   <si>
-    <t>Eudoraea sp.</t>
-  </si>
-  <si>
-    <t>Flavobacterium cauense</t>
-  </si>
-  <si>
-    <t>Chryseobacterium gambrini</t>
-  </si>
-  <si>
-    <t>Chryseobacterium formosense</t>
-  </si>
-  <si>
-    <t>Muricauda sp002711825</t>
-  </si>
-  <si>
-    <t>Maribacter_A sp.</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp003449615</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp000744495</t>
+    <t>Polaribacter reichenbachii</t>
+  </si>
+  <si>
+    <t>Kaistella jeonii</t>
   </si>
   <si>
     <t>Chryseobacterium geocarposphaerae</t>
   </si>
   <si>
-    <t>Gelidibacter sp.</t>
-  </si>
-  <si>
-    <t>Flavobacterium columnare_D</t>
-  </si>
-  <si>
-    <t>Salegentibacter mishustinae</t>
-  </si>
-  <si>
-    <t>Gramella flava</t>
-  </si>
-  <si>
-    <t>Psychroserpens sp.</t>
-  </si>
-  <si>
-    <t>MS024-2A sp000173095</t>
-  </si>
-  <si>
-    <t>Epilithonimonas hominis</t>
-  </si>
-  <si>
-    <t>Kaistella sp002205795</t>
-  </si>
-  <si>
-    <t>Dokdonia donghaensis</t>
-  </si>
-  <si>
-    <t>Salegentibacter salarius</t>
-  </si>
-  <si>
-    <t>Kaistella haifense</t>
-  </si>
-  <si>
-    <t>Chryseobacterium gallinarum</t>
-  </si>
-  <si>
-    <t>Flavobacterium succinicans</t>
-  </si>
-  <si>
-    <t>Kaistella jeonii</t>
-  </si>
-  <si>
-    <t>Polaribacter reichenbachii</t>
-  </si>
-  <si>
-    <t>Chryseobacterium piscium</t>
-  </si>
-  <si>
-    <t>UBA7446 sp002478685</t>
-  </si>
-  <si>
     <t>Chryseobacterium joostei</t>
   </si>
   <si>
-    <t>Flavobacterium glycines</t>
-  </si>
-  <si>
-    <t>Kaistella antarcticum</t>
-  </si>
-  <si>
-    <t>Capnocytophaga haemolytica</t>
-  </si>
-  <si>
-    <t>Polaribacter sp900106075</t>
-  </si>
-  <si>
-    <t>Croceitalea sp.</t>
-  </si>
-  <si>
-    <t>Aquimarina latercula</t>
-  </si>
-  <si>
-    <t>Meridianimaribacter flavus</t>
-  </si>
-  <si>
-    <t>SCGC-AAA160-P02 sp.</t>
-  </si>
-  <si>
-    <t>MAG-121220-bin8 sp.</t>
-  </si>
-  <si>
-    <t>Planobacterium sp.</t>
-  </si>
-  <si>
-    <t>Salegentibacter agarivorans</t>
-  </si>
-  <si>
-    <t>Ornithobacterium rhinotracheale</t>
-  </si>
-  <si>
-    <t>BACL21 sp.</t>
-  </si>
-  <si>
-    <t>Riemerella sp.</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp000813005</t>
-  </si>
-  <si>
-    <t>Chryseobacterium lactis</t>
-  </si>
-  <si>
-    <t>UBA3537 sp002725015</t>
-  </si>
-  <si>
-    <t>Aquimarina aggregata</t>
-  </si>
-  <si>
-    <t>Tenacibaculum dicentrarchi</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp001800905</t>
-  </si>
-  <si>
-    <t>Kaistella sp.</t>
-  </si>
-  <si>
-    <t>Algibacter sp.</t>
-  </si>
-  <si>
-    <t>Epilithonimonas bovis</t>
-  </si>
-  <si>
-    <t>UBA3537 sp002684355</t>
-  </si>
-  <si>
-    <t>Mesoflavibacter zeaxanthinifaciens</t>
-  </si>
-  <si>
-    <t>Algibacter_B sp.</t>
-  </si>
-  <si>
-    <t>Chryseobacterium viscerum</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp003201365</t>
-  </si>
-  <si>
-    <t>Flavobacterium nitrogenifigens</t>
-  </si>
-  <si>
-    <t>Flavobacterium pectinovorum</t>
-  </si>
-  <si>
-    <t>Chryseobacterium scophthalmum</t>
-  </si>
-  <si>
-    <t>Flavobacterium aquatile</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp001898245</t>
-  </si>
-  <si>
-    <t>Chryseobacterium balustinum</t>
-  </si>
-  <si>
-    <t>MED-G14 sp002697465</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp000169355</t>
-  </si>
-  <si>
-    <t>Ornithobacterium sp.</t>
-  </si>
-  <si>
-    <t>Chryseobacterium flavum</t>
-  </si>
-  <si>
-    <t>Chryseobacterium oranimense</t>
-  </si>
-  <si>
-    <t>Polaribacter sp002340765</t>
+    <t>Kaistella sp003860505</t>
+  </si>
+  <si>
+    <t>Aequorivita sp002375695</t>
+  </si>
+  <si>
+    <t>Chryseobacterium nematophagum_A</t>
+  </si>
+  <si>
+    <t>MED-G13 sp002691265</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp007097365</t>
+  </si>
+  <si>
+    <t>BACL21 sp002694465</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp004349315</t>
+  </si>
+  <si>
+    <t>Flavobacterium gilvum</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp002482945</t>
+  </si>
+  <si>
+    <t>Flavobacterium plurextorum</t>
+  </si>
+  <si>
+    <t>Muricauda sp003057865</t>
+  </si>
+  <si>
+    <t>Leeuwenhoekiella sp004104115</t>
+  </si>
+  <si>
+    <t>BACL21 sp002440705</t>
+  </si>
+  <si>
+    <t>Lutibacter oceani</t>
+  </si>
+  <si>
+    <t>Flavobacterium aquidurense</t>
+  </si>
+  <si>
+    <t>Kaistella sp002453895</t>
+  </si>
+  <si>
+    <t>Croceivirga sp005144745</t>
+  </si>
+  <si>
+    <t>Tenacibaculum finnmarkense</t>
+  </si>
+  <si>
+    <t>Flavobacterium reichenbachii</t>
+  </si>
+  <si>
+    <t>MED-G11 sp002729755</t>
+  </si>
+  <si>
+    <t>Epilithonimonas hungaricum</t>
+  </si>
+  <si>
+    <t>Capnocytophaga sp002209445</t>
+  </si>
+  <si>
+    <t>Apibacter adventoris</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp003314435</t>
+  </si>
+  <si>
+    <t>MAG-120531 sp002378585</t>
+  </si>
+  <si>
+    <t>Ornithobacterium hominis</t>
+  </si>
+  <si>
+    <t>Chryseobacterium vrystaatense</t>
+  </si>
+  <si>
+    <t>Kaistella sp002454815</t>
+  </si>
+  <si>
+    <t>Muricauda sp003584165</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp002786385</t>
+  </si>
+  <si>
+    <t>UBA7446 sp002470745</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp900129795</t>
+  </si>
+  <si>
+    <t>Olleya sp002323495</t>
+  </si>
+  <si>
+    <t>Cellulophaga algicola</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp004122145</t>
+  </si>
+  <si>
+    <t>Flavobacterium oncorhynchi</t>
+  </si>
+  <si>
+    <t>Cloacibacterium sp002422665</t>
+  </si>
+  <si>
+    <t>GCA-2747105 sp.</t>
+  </si>
+  <si>
+    <t>Chryseobacterium culicis_A</t>
+  </si>
+  <si>
+    <t>Gramella sp.</t>
+  </si>
+  <si>
+    <t>Altibacter sp002696485</t>
+  </si>
+  <si>
+    <t>UBA8316 sp002390455</t>
+  </si>
+  <si>
+    <t>Flavobacterium frigidimaris</t>
+  </si>
+  <si>
+    <t>Algoriella xinjiangensis</t>
+  </si>
+  <si>
+    <t>Maribacter sp002742365</t>
+  </si>
+  <si>
+    <t>Winogradskyella pacifica</t>
+  </si>
+  <si>
+    <t>UBA7446 sp002862705</t>
+  </si>
+  <si>
+    <t>Oceanihabitans sediminis</t>
+  </si>
+  <si>
+    <t>Polaribacter sejongensis</t>
+  </si>
+  <si>
+    <t>Lutibacter sp002733285</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp003242135</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp004339525</t>
+  </si>
+  <si>
+    <t>Aequorivita soesokkakensis</t>
+  </si>
+  <si>
+    <t>Polaribacter dokdonensis</t>
+  </si>
+  <si>
+    <t>Apibacter mensalis</t>
+  </si>
+  <si>
+    <t>Chryseobacterium bernardetii</t>
+  </si>
+  <si>
+    <t>Winogradskyella sp002163855</t>
+  </si>
+  <si>
+    <t>Chryseobacterium piperi</t>
+  </si>
+  <si>
+    <t>Tenacibaculum sp900105985</t>
+  </si>
+  <si>
+    <t>Muricauda olearia</t>
+  </si>
+  <si>
+    <t>Mariniflexile sp002848895</t>
+  </si>
+  <si>
+    <t>Robertkochia marina</t>
+  </si>
+  <si>
+    <t>Kaistella sp002426785</t>
+  </si>
+  <si>
+    <t>Flavobacterium commune</t>
+  </si>
+  <si>
+    <t>Mesonia algae</t>
+  </si>
+  <si>
+    <t>Tenacibaculum dicentrarchi_C</t>
+  </si>
+  <si>
+    <t>Chryseobacterium rhizoplanae</t>
+  </si>
+  <si>
+    <t>Aequorivita antarctica</t>
+  </si>
+  <si>
+    <t>Kaistella koreense</t>
+  </si>
+  <si>
+    <t>Muricauda sp002699205</t>
+  </si>
+  <si>
+    <t>Psychroflexus halocasei</t>
+  </si>
+  <si>
+    <t>Mariniflexile sp002426835</t>
+  </si>
+  <si>
+    <t>Aquimarina sp900299535</t>
+  </si>
+  <si>
+    <t>MED-G11 sp002457075</t>
+  </si>
+  <si>
+    <t>UBA7949 sp003511845</t>
+  </si>
+  <si>
+    <t>Flavobacterium saliperosum</t>
+  </si>
+  <si>
+    <t>Arenitalea lutea</t>
+  </si>
+  <si>
+    <t>Polaribacter sp002005425</t>
+  </si>
+  <si>
+    <t>Moheibacter sp.</t>
+  </si>
+  <si>
+    <t>Tenacibaculum ovolyticum</t>
+  </si>
+  <si>
+    <t>Chryseobacterium piscicola</t>
+  </si>
+  <si>
+    <t>Maribacter stanieri</t>
+  </si>
+  <si>
+    <t>AU392 sp003443635</t>
+  </si>
+  <si>
+    <t>Algorimicrobium echini</t>
+  </si>
+  <si>
+    <t>Muricauda sp003584135</t>
+  </si>
+  <si>
+    <t>Zobellia uliginosa_A</t>
+  </si>
+  <si>
+    <t>Algorimicrobium sp001678685</t>
+  </si>
+  <si>
+    <t>Muricauda zhangzhouensis</t>
+  </si>
+  <si>
+    <t>Chryseobacterium nematophagum_B</t>
+  </si>
+  <si>
+    <t>MED-G11 sp.</t>
+  </si>
+  <si>
+    <t>Capnocytophaga sp.</t>
+  </si>
+  <si>
+    <t>Mangrovimonas sp001280515</t>
+  </si>
+  <si>
+    <t>Zobellia galactanivorans</t>
+  </si>
+  <si>
+    <t>Tamlana_A agarivorans</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp900156935</t>
+  </si>
+  <si>
+    <t>Muricauda taeanensis</t>
+  </si>
+  <si>
+    <t>Chryseobacterium daecheongense</t>
+  </si>
+  <si>
+    <t>Flavobacterium suncheonense</t>
+  </si>
+  <si>
+    <t>MED-G14 sp004321735</t>
+  </si>
+  <si>
+    <t>Chryseobacterium contaminans</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp004634195</t>
+  </si>
+  <si>
+    <t>MAG-121220-bin8 sp004214185</t>
+  </si>
+  <si>
+    <t>Flavobacterium arcticum</t>
+  </si>
+  <si>
+    <t>MS024-2A sp002384715</t>
+  </si>
+  <si>
+    <t>Kordia sp.</t>
+  </si>
+  <si>
+    <t>Flavobacterium psychrophilum_A</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp004119455</t>
+  </si>
+  <si>
+    <t>Lacinutrix venerupis</t>
+  </si>
+  <si>
+    <t>MAG-120531 sp.</t>
+  </si>
+  <si>
+    <t>Nonlabens dokdonensis</t>
+  </si>
+  <si>
+    <t>Flavobacterium chilense</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp001429295</t>
+  </si>
+  <si>
+    <t>Gillisia sp.</t>
+  </si>
+  <si>
+    <t>BACL21 sp002335345</t>
+  </si>
+  <si>
+    <t>Flavobacterium enshiense</t>
+  </si>
+  <si>
+    <t>Aquimarina sp003443675</t>
+  </si>
+  <si>
+    <t>Seonamhaeicola sp.</t>
+  </si>
+  <si>
+    <t>UBA8316 sp002364535</t>
+  </si>
+  <si>
+    <t>Chryseobacterium taihuense</t>
+  </si>
+  <si>
+    <t>TMED96 sp002171475</t>
+  </si>
+  <si>
+    <t>Mesoflavibacter sp003008475</t>
+  </si>
+  <si>
+    <t>Polaribacter vadi</t>
+  </si>
+  <si>
+    <t>Muricauda sp002452975</t>
+  </si>
+  <si>
+    <t>Bergeyella_A cardium</t>
+  </si>
+  <si>
+    <t>Arenibacter palladensis</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp001677955</t>
+  </si>
+  <si>
+    <t>Chryseobacterium lathyri</t>
+  </si>
+  <si>
+    <t>Capnocytophaga gingivalis</t>
+  </si>
+  <si>
+    <t>Wenyingzhuangia sp.</t>
   </si>
   <si>
     <t>Flavobacterium rivuli</t>
   </si>
   <si>
-    <t>MAG-121220-bin8 sp004214185</t>
-  </si>
-  <si>
-    <t>Capnocytophaga gingivalis</t>
-  </si>
-  <si>
-    <t>Tamlana_A agarivorans</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp001677955</t>
-  </si>
-  <si>
-    <t>Muricauda sp003584165</t>
+    <t>Chryseobacterium sp001456155</t>
+  </si>
+  <si>
+    <t>Gelidibacter algens</t>
+  </si>
+  <si>
+    <t>Olleya marilimosa</t>
+  </si>
+  <si>
+    <t>Salinimicrobium catena</t>
+  </si>
+  <si>
+    <t>Epilithonimonas caeni</t>
+  </si>
+  <si>
+    <t>Aequorivita lipolytica</t>
+  </si>
+  <si>
+    <t>HC6-5 sp.</t>
+  </si>
+  <si>
+    <t>Gillisia sp900104765</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp003096795</t>
+  </si>
+  <si>
+    <t>Flavobacterium circumlabens</t>
+  </si>
+  <si>
+    <t>Aequorivita sp002715485</t>
+  </si>
+  <si>
+    <t>Chryseobacterium hispalense</t>
+  </si>
+  <si>
+    <t>Aquimarina sp900299525</t>
+  </si>
+  <si>
+    <t>UBA11891 sp003533785</t>
+  </si>
+  <si>
+    <t>Pricia sp.</t>
+  </si>
+  <si>
+    <t>Chryseobacterium shigense</t>
+  </si>
+  <si>
+    <t>Flavobacterium flevense</t>
+  </si>
+  <si>
+    <t>Salegentibacter salinarum</t>
+  </si>
+  <si>
+    <t>Chryseobacterium nakagawai</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp000799255</t>
+  </si>
+  <si>
+    <t>Arenibacter sp002150785</t>
+  </si>
+  <si>
+    <t>Gramella echinicola</t>
+  </si>
+  <si>
+    <t>Muricauda sp001683915</t>
+  </si>
+  <si>
+    <t>Dokdonia sp000212355</t>
+  </si>
+  <si>
+    <t>Maribacter aurantiacus</t>
+  </si>
+  <si>
+    <t>Tenacibaculum litoreum</t>
+  </si>
+  <si>
+    <t>Marinirhabdus sp002707745</t>
+  </si>
+  <si>
+    <t>Chryseobacterium jejuense</t>
+  </si>
+  <si>
+    <t>GCA-002723295 sp002690805</t>
+  </si>
+  <si>
+    <t>Bergeyella_A sp002484105</t>
   </si>
   <si>
     <t>Maribacter sedimenticola</t>
   </si>
   <si>
-    <t>Dokdonia sp000212355</t>
+    <t>Flavobacterium sp004349145</t>
+  </si>
+  <si>
+    <t>Gillisia sp000424645</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp003385515</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp002352205</t>
+  </si>
+  <si>
+    <t>Polaribacter glomeratus</t>
+  </si>
+  <si>
+    <t>UBA8316 sp002711215</t>
+  </si>
+  <si>
+    <t>Aquimarina sp900312735</t>
+  </si>
+  <si>
+    <t>Flavobacterium fryxellicola</t>
+  </si>
+  <si>
+    <t>Leeuwenhoekiella marinoflava</t>
+  </si>
+  <si>
+    <t>Maribacter litoralis</t>
+  </si>
+  <si>
+    <t>Flavobacterium akiainvivens</t>
+  </si>
+  <si>
+    <t>UBA724 sp002430545</t>
+  </si>
+  <si>
+    <t>Flavobacterium hydatis</t>
+  </si>
+  <si>
+    <t>Chryseobacterium culicis</t>
+  </si>
+  <si>
+    <t>TPBH4 sp001280435</t>
+  </si>
+  <si>
+    <t>Flavobacterium haoranii</t>
   </si>
   <si>
     <t>UBA7446 sp002313325</t>
   </si>
   <si>
-    <t>HC6-5 sp.</t>
-  </si>
-  <si>
-    <t>Muricauda sp003057865</t>
+    <t>Flavobacterium glaciei</t>
+  </si>
+  <si>
+    <t>Nonlabens ulvanivorans_A</t>
+  </si>
+  <si>
+    <t>Winogradskyella sediminis</t>
+  </si>
+  <si>
+    <t>Epilithonimonas halperniae</t>
+  </si>
+  <si>
+    <t>Hanstruepera crassostreae</t>
+  </si>
+  <si>
+    <t>Nonlabens xylanidelens</t>
+  </si>
+  <si>
+    <t>Tenacibaculum lutimaris</t>
+  </si>
+  <si>
+    <t>Maribacter sp001913155</t>
+  </si>
+  <si>
+    <t>Psychroflexus gondwanensis</t>
   </si>
   <si>
     <t>Winogradskyella sp002722255</t>
   </si>
   <si>
-    <t>Aequorivita lipolytica</t>
-  </si>
-  <si>
-    <t>Winogradskyella sediminis</t>
-  </si>
-  <si>
-    <t>MED-G14 sp004321735</t>
+    <t>Flavobacterium sp003688345</t>
+  </si>
+  <si>
+    <t>UBA3478 sp002381155</t>
+  </si>
+  <si>
+    <t>Myroides profundi</t>
+  </si>
+  <si>
+    <t>KYPW7 sp003852705</t>
+  </si>
+  <si>
+    <t>Marinirhabdus sp002337605</t>
+  </si>
+  <si>
+    <t>Gelidibacter sp003550275</t>
+  </si>
+  <si>
+    <t>Arenibacter sp.</t>
+  </si>
+  <si>
+    <t>Aequorivita viscosa</t>
+  </si>
+  <si>
+    <t>Flavobacterium cheniae</t>
+  </si>
+  <si>
+    <t>Apibacter sp004014855</t>
+  </si>
+  <si>
+    <t>Olleya namhaensis</t>
+  </si>
+  <si>
+    <t>Salegentibacter salegens</t>
+  </si>
+  <si>
+    <t>MAG-121220-bin8 sp002700465</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp003497625</t>
+  </si>
+  <si>
+    <t>Zhouia amylolytica</t>
+  </si>
+  <si>
+    <t>Formosa algae</t>
+  </si>
+  <si>
+    <t>Flavobacterium noncentrifugens</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp002754315</t>
+  </si>
+  <si>
+    <t>Flavobacterium araucananum</t>
+  </si>
+  <si>
+    <t>Bizionia sp.</t>
+  </si>
+  <si>
+    <t>Flavobacterium subsaxonicum</t>
+  </si>
+  <si>
+    <t>Flavobacterium endophyticum</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp006491645</t>
+  </si>
+  <si>
+    <t>Chryseobacterium aquifrigidense</t>
+  </si>
+  <si>
+    <t>Chryseobacterium aquaticum</t>
+  </si>
+  <si>
+    <t>GCA-2733415 sp.</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp001429765</t>
+  </si>
+  <si>
+    <t>Elizabethkingia occulta</t>
+  </si>
+  <si>
+    <t>Psychroserpens burtonensis</t>
+  </si>
+  <si>
+    <t>Leeuwenhoekiella nanhaiensis</t>
+  </si>
+  <si>
+    <t>MAG-121220-bin8 sp002705485</t>
   </si>
   <si>
     <t>Polaribacter sp002471825</t>
   </si>
   <si>
-    <t>Zobellia galactanivorans</t>
-  </si>
-  <si>
-    <t>Olleya sp002323495</t>
-  </si>
-  <si>
-    <t>Algorimicrobium sp001678685</t>
-  </si>
-  <si>
-    <t>Gramella sp.</t>
-  </si>
-  <si>
-    <t>UBA8316 sp002390455</t>
-  </si>
-  <si>
-    <t>Aquimarina sp003443675</t>
-  </si>
-  <si>
-    <t>Flavobacterium plurextorum</t>
-  </si>
-  <si>
-    <t>Gramella echinicola</t>
-  </si>
-  <si>
-    <t>Chryseobacterium bernardetii</t>
-  </si>
-  <si>
-    <t>MAG-121220-bin8 sp002700465</t>
-  </si>
-  <si>
-    <t>Chryseobacterium vrystaatense</t>
-  </si>
-  <si>
-    <t>Kaistella koreense</t>
-  </si>
-  <si>
-    <t>MAG-120531 sp002378585</t>
-  </si>
-  <si>
-    <t>TMED96 sp002171475</t>
-  </si>
-  <si>
-    <t>Marinirhabdus sp002707745</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp900156935</t>
+    <t>Lutibacter sp003516285</t>
   </si>
   <si>
     <t>Flavobacterium resistens</t>
   </si>
   <si>
-    <t>Olleya marilimosa</t>
-  </si>
-  <si>
-    <t>Winogradskyella pacifica</t>
-  </si>
-  <si>
-    <t>Gelidibacter sp003550275</t>
-  </si>
-  <si>
-    <t>Chryseobacterium piperi</t>
-  </si>
-  <si>
-    <t>Chryseobacterium culicis_A</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp003242135</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp004119455</t>
-  </si>
-  <si>
-    <t>Flavobacterium frigidimaris</t>
-  </si>
-  <si>
-    <t>Lutibacter sp002733285</t>
-  </si>
-  <si>
-    <t>Epilithonimonas hungaricum</t>
-  </si>
-  <si>
-    <t>Maribacter sp002742365</t>
-  </si>
-  <si>
-    <t>Muricauda sp002452975</t>
-  </si>
-  <si>
-    <t>Chryseobacterium aquaticum</t>
-  </si>
-  <si>
-    <t>Apibacter sp004014855</t>
-  </si>
-  <si>
-    <t>Chryseobacterium culicis</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp000799255</t>
-  </si>
-  <si>
-    <t>GCA-2733415 sp.</t>
-  </si>
-  <si>
-    <t>Oceanihabitans sediminis</t>
+    <t>Flavobacterium granuli</t>
+  </si>
+  <si>
+    <t>UBA3537 sp002709185</t>
+  </si>
+  <si>
+    <t>Elizabethkingia sp003058195</t>
+  </si>
+  <si>
+    <t>Muricauda sp003973595</t>
+  </si>
+  <si>
+    <t>BACL21 sp002707025</t>
   </si>
   <si>
     <t>Croceivirga radicis</t>
   </si>
   <si>
-    <t>Aquimarina sp900312735</t>
-  </si>
-  <si>
-    <t>MAG-121220-bin8 sp002705485</t>
-  </si>
-  <si>
-    <t>Algoriella xinjiangensis</t>
-  </si>
-  <si>
-    <t>Bergeyella_A sp002484105</t>
-  </si>
-  <si>
-    <t>GCA-2747105 sp.</t>
-  </si>
-  <si>
-    <t>Capnocytophaga sp002209445</t>
-  </si>
-  <si>
-    <t>Aquimarina sp900299535</t>
-  </si>
-  <si>
-    <t>Flavobacterium reichenbachii</t>
-  </si>
-  <si>
-    <t>UBA3478 sp002381155</t>
-  </si>
-  <si>
-    <t>Bergeyella_A cardium</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp004339525</t>
-  </si>
-  <si>
-    <t>GCA-002723295 sp002690805</t>
-  </si>
-  <si>
-    <t>Chryseobacterium contaminans</t>
-  </si>
-  <si>
-    <t>Flavobacterium granuli</t>
-  </si>
-  <si>
-    <t>Arenibacter sp.</t>
-  </si>
-  <si>
-    <t>Flavobacterium chilense</t>
-  </si>
-  <si>
-    <t>Aequorivita sp002715485</t>
-  </si>
-  <si>
-    <t>Flavobacterium cheniae</t>
-  </si>
-  <si>
-    <t>Flavobacterium commune</t>
-  </si>
-  <si>
-    <t>Aequorivita antarctica</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002352205</t>
-  </si>
-  <si>
-    <t>Muricauda sp003973595</t>
-  </si>
-  <si>
-    <t>Mangrovimonas sp001280515</t>
-  </si>
-  <si>
-    <t>Maribacter stanieri</t>
-  </si>
-  <si>
-    <t>Flavobacterium circumlabens</t>
-  </si>
-  <si>
-    <t>Salegentibacter salegens</t>
-  </si>
-  <si>
-    <t>UBA8316 sp002711215</t>
-  </si>
-  <si>
-    <t>BACL21 sp002440705</t>
-  </si>
-  <si>
-    <t>Chryseobacterium taihuense</t>
-  </si>
-  <si>
-    <t>Chryseobacterium lathyri</t>
-  </si>
-  <si>
-    <t>Nonlabens xylanidelens</t>
-  </si>
-  <si>
-    <t>Flavobacterium suncheonense</t>
-  </si>
-  <si>
-    <t>Chryseobacterium aquifrigidense</t>
-  </si>
-  <si>
-    <t>Chryseobacterium hispalense</t>
-  </si>
-  <si>
-    <t>Muricauda zhangzhouensis</t>
-  </si>
-  <si>
-    <t>Gelidibacter algens</t>
-  </si>
-  <si>
-    <t>Winogradskyella sp002163855</t>
-  </si>
-  <si>
-    <t>Myroides profundi</t>
-  </si>
-  <si>
-    <t>Leeuwenhoekiella marinoflava</t>
-  </si>
-  <si>
-    <t>Flavobacterium subsaxonicum</t>
-  </si>
-  <si>
-    <t>Salinimicrobium catena</t>
-  </si>
-  <si>
-    <t>Pricia sp.</t>
-  </si>
-  <si>
-    <t>Formosa algae</t>
-  </si>
-  <si>
-    <t>MED-G11 sp.</t>
-  </si>
-  <si>
-    <t>MAG-120531 sp.</t>
-  </si>
-  <si>
-    <t>AU392 sp003443635</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp003096795</t>
-  </si>
-  <si>
-    <t>Leeuwenhoekiella sp004104115</t>
-  </si>
-  <si>
-    <t>Hanstruepera crassostreae</t>
-  </si>
-  <si>
-    <t>Chryseobacterium jejuense</t>
-  </si>
-  <si>
-    <t>Chryseobacterium nakagawai</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp001456155</t>
-  </si>
-  <si>
-    <t>Chryseobacterium nematophagum_B</t>
+    <t>Psychroflexus sp.</t>
   </si>
   <si>
     <t>Flavobacterium crassostreae</t>
   </si>
   <si>
-    <t>Flavobacterium flevense</t>
-  </si>
-  <si>
-    <t>MED-G11 sp002457075</t>
-  </si>
-  <si>
-    <t>TPBH4 sp001280435</t>
-  </si>
-  <si>
-    <t>Arenibacter sp002150785</t>
-  </si>
-  <si>
-    <t>Marinirhabdus sp002337605</t>
-  </si>
-  <si>
-    <t>UBA7446 sp002470745</t>
-  </si>
-  <si>
-    <t>Kordia sp.</t>
-  </si>
-  <si>
-    <t>Salegentibacter salinarum</t>
-  </si>
-  <si>
-    <t>Tenacibaculum ovolyticum</t>
-  </si>
-  <si>
-    <t>KYPW7 sp003852705</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp003385515</t>
-  </si>
-  <si>
-    <t>Muricauda olearia</t>
-  </si>
-  <si>
-    <t>UBA7949 sp003511845</t>
-  </si>
-  <si>
-    <t>Elizabethkingia sp003058195</t>
-  </si>
-  <si>
-    <t>Aquimarina sp900299525</t>
-  </si>
-  <si>
-    <t>Psychroflexus halocasei</t>
-  </si>
-  <si>
-    <t>Muricauda taeanensis</t>
-  </si>
-  <si>
-    <t>Wenyingzhuangia sp.</t>
-  </si>
-  <si>
-    <t>Flavobacterium hydatis</t>
-  </si>
-  <si>
-    <t>Flavobacterium endophyticum</t>
-  </si>
-  <si>
-    <t>Moheibacter sp.</t>
-  </si>
-  <si>
-    <t>Arenitalea lutea</t>
-  </si>
-  <si>
-    <t>Epilithonimonas caeni</t>
-  </si>
-  <si>
-    <t>Ornithobacterium hominis</t>
-  </si>
-  <si>
-    <t>Apibacter mensalis</t>
-  </si>
-  <si>
-    <t>Polaribacter sp002005425</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp007097365</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp003688345</t>
-  </si>
-  <si>
-    <t>Flavobacterium araucananum</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp900129795</t>
-  </si>
-  <si>
-    <t>Arenibacter palladensis</t>
-  </si>
-  <si>
-    <t>Kaistella sp002453895</t>
-  </si>
-  <si>
-    <t>Seonamhaeicola sp.</t>
-  </si>
-  <si>
-    <t>Mariniflexile sp002848895</t>
-  </si>
-  <si>
-    <t>Algorimicrobium echini</t>
-  </si>
-  <si>
-    <t>UBA724 sp002430545</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp006491645</t>
-  </si>
-  <si>
-    <t>Gillisia sp000424645</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002786385</t>
-  </si>
-  <si>
-    <t>Chryseobacterium rhizoplanae</t>
-  </si>
-  <si>
-    <t>Aequorivita soesokkakensis</t>
-  </si>
-  <si>
-    <t>Nonlabens dokdonensis</t>
-  </si>
-  <si>
-    <t>Nonlabens ulvanivorans_A</t>
-  </si>
-  <si>
-    <t>BACL21 sp002694465</t>
-  </si>
-  <si>
-    <t>Zhouia amylolytica</t>
-  </si>
-  <si>
-    <t>Flavobacterium glaciei</t>
-  </si>
-  <si>
-    <t>Leeuwenhoekiella nanhaiensis</t>
-  </si>
-  <si>
-    <t>Chryseobacterium shigense</t>
-  </si>
-  <si>
-    <t>Muricauda sp001683915</t>
-  </si>
-  <si>
-    <t>Psychroflexus gondwanensis</t>
-  </si>
-  <si>
-    <t>Cellulophaga algicola</t>
-  </si>
-  <si>
-    <t>Flavobacterium haoranii</t>
-  </si>
-  <si>
-    <t>Tenacibaculum sp900105985</t>
-  </si>
-  <si>
-    <t>UBA7446 sp002862705</t>
-  </si>
-  <si>
-    <t>Psychroserpens burtonensis</t>
-  </si>
-  <si>
-    <t>Apibacter adventoris</t>
-  </si>
-  <si>
-    <t>Tenacibaculum litoreum</t>
-  </si>
-  <si>
-    <t>BACL21 sp002335345</t>
-  </si>
-  <si>
-    <t>Maribacter aurantiacus</t>
-  </si>
-  <si>
-    <t>Zobellia uliginosa_A</t>
-  </si>
-  <si>
-    <t>MED-G13 sp002691265</t>
-  </si>
-  <si>
-    <t>Psychroflexus sp.</t>
-  </si>
-  <si>
-    <t>Lacinutrix venerupis</t>
-  </si>
-  <si>
-    <t>Mesonia algae</t>
-  </si>
-  <si>
-    <t>Capnocytophaga sp.</t>
-  </si>
-  <si>
-    <t>Kaistella sp002454815</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp004349145</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp003497625</t>
-  </si>
-  <si>
-    <t>Polaribacter glomeratus</t>
-  </si>
-  <si>
-    <t>Chryseobacterium daecheongense</t>
-  </si>
-  <si>
-    <t>Flavobacterium gilvum</t>
-  </si>
-  <si>
-    <t>Epilithonimonas halperniae</t>
-  </si>
-  <si>
-    <t>Cloacibacterium sp002422665</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp004634195</t>
-  </si>
-  <si>
-    <t>Chryseobacterium piscicola</t>
-  </si>
-  <si>
-    <t>Polaribacter dokdonensis</t>
-  </si>
-  <si>
-    <t>Tenacibaculum dicentrarchi_C</t>
-  </si>
-  <si>
-    <t>BACL21 sp002707025</t>
-  </si>
-  <si>
-    <t>Olleya namhaensis</t>
-  </si>
-  <si>
-    <t>Flavobacterium aquidurense</t>
-  </si>
-  <si>
-    <t>Aequorivita sp002375695</t>
-  </si>
-  <si>
-    <t>Flavobacterium akiainvivens</t>
-  </si>
-  <si>
-    <t>UBA3537 sp002709185</t>
-  </si>
-  <si>
-    <t>Maribacter sp001913155</t>
-  </si>
-  <si>
-    <t>Altibacter sp002696485</t>
-  </si>
-  <si>
-    <t>Kaistella sp002426785</t>
-  </si>
-  <si>
-    <t>Lutibacter oceani</t>
-  </si>
-  <si>
-    <t>Robertkochia marina</t>
-  </si>
-  <si>
-    <t>MS024-2A sp002384715</t>
-  </si>
-  <si>
-    <t>Kaistella sp003860505</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002482945</t>
-  </si>
-  <si>
-    <t>Gillisia sp900104765</t>
-  </si>
-  <si>
-    <t>Flavobacterium saliperosum</t>
-  </si>
-  <si>
-    <t>Flavobacterium fryxellicola</t>
-  </si>
-  <si>
-    <t>Flavobacterium enshiense</t>
-  </si>
-  <si>
-    <t>Muricauda sp002699205</t>
-  </si>
-  <si>
-    <t>Tenacibaculum finnmarkense</t>
-  </si>
-  <si>
-    <t>Gillisia sp.</t>
-  </si>
-  <si>
-    <t>Maribacter litoralis</t>
-  </si>
-  <si>
-    <t>Croceivirga sp005144745</t>
-  </si>
-  <si>
-    <t>Lutibacter sp003516285</t>
-  </si>
-  <si>
-    <t>Flavobacterium oncorhynchi</t>
-  </si>
-  <si>
-    <t>UBA8316 sp002364535</t>
-  </si>
-  <si>
-    <t>Flavobacterium psychrophilum_A</t>
-  </si>
-  <si>
-    <t>Mesoflavibacter sp003008475</t>
-  </si>
-  <si>
-    <t>MED-G11 sp002729755</t>
-  </si>
-  <si>
-    <t>Polaribacter sejongensis</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002754315</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp004122145</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp003314435</t>
-  </si>
-  <si>
-    <t>Chryseobacterium nematophagum_A</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp004349315</t>
-  </si>
-  <si>
-    <t>Polaribacter vadi</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp001429295</t>
-  </si>
-  <si>
-    <t>Flavobacterium noncentrifugens</t>
-  </si>
-  <si>
-    <t>Bizionia sp.</t>
-  </si>
-  <si>
-    <t>Flavobacterium arcticum</t>
-  </si>
-  <si>
-    <t>Aequorivita viscosa</t>
-  </si>
-  <si>
-    <t>Elizabethkingia occulta</t>
-  </si>
-  <si>
-    <t>UBA11891 sp003533785</t>
-  </si>
-  <si>
-    <t>Muricauda sp003584135</t>
-  </si>
-  <si>
-    <t>Mariniflexile sp002426835</t>
-  </si>
-  <si>
-    <t>Tenacibaculum lutimaris</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp001429765</t>
+    <t>Flavobacterium sp004349135</t>
+  </si>
+  <si>
+    <t>Arenibacter sp003201775</t>
+  </si>
+  <si>
+    <t>Winogradskyella aurantia</t>
+  </si>
+  <si>
+    <t>Aquimarina sediminis</t>
+  </si>
+  <si>
+    <t>Psychroflexus sp003931895</t>
+  </si>
+  <si>
+    <t>UBA7428 sp002708445</t>
+  </si>
+  <si>
+    <t>UBA8316 sp002695445</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp003403075</t>
+  </si>
+  <si>
+    <t>Jejuia sp002428965</t>
+  </si>
+  <si>
+    <t>Winogradskyella sp002706045</t>
+  </si>
+  <si>
+    <t>Jejuia jejuensis</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp000799235</t>
+  </si>
+  <si>
+    <t>Soonwooa sp.</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp001027725</t>
+  </si>
+  <si>
+    <t>Myroides sp002286775</t>
+  </si>
+  <si>
+    <t>Winogradskyella thalassocola</t>
+  </si>
+  <si>
+    <t>Tenacibaculum sp900239505</t>
+  </si>
+  <si>
+    <t>Tamlana_A sp004804355</t>
+  </si>
+  <si>
+    <t>Lutibacter sp004121075</t>
+  </si>
+  <si>
+    <t>Polaribacter butkevichii</t>
+  </si>
+  <si>
+    <t>Myroides sp004151275</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp004349085</t>
+  </si>
+  <si>
+    <t>Flavobacterium soli</t>
+  </si>
+  <si>
+    <t>GCA-2747695 sp.</t>
+  </si>
+  <si>
+    <t>Flavobacterium dankookense</t>
+  </si>
+  <si>
+    <t>Chryseobacterium soli</t>
+  </si>
+  <si>
+    <t>Chryseobacterium angstadtii</t>
+  </si>
+  <si>
+    <t>Epilithonimonas tenax</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp000737715</t>
+  </si>
+  <si>
+    <t>Salegentibacter holothuriorum</t>
+  </si>
+  <si>
+    <t>GCA-2746415 sp.</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp006829085</t>
+  </si>
+  <si>
+    <t>Gillisia mitskevichiae</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp001874325</t>
+  </si>
+  <si>
+    <t>Psychroflexus sp007116535</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp000799335</t>
+  </si>
+  <si>
+    <t>Marixanthomonas ophiurae</t>
+  </si>
+  <si>
+    <t>Flavobacterium alvei</t>
+  </si>
+  <si>
+    <t>Aquimarina atlantica</t>
+  </si>
+  <si>
+    <t>Gramella sp006714895</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp002797935</t>
+  </si>
+  <si>
+    <t>Aquimarina sp002697475</t>
+  </si>
+  <si>
+    <t>Planobacterium sp002319955</t>
+  </si>
+  <si>
+    <t>Myroides ummariense</t>
+  </si>
+  <si>
+    <t>LPB0138 sp001761325</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp006175945</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp002482975</t>
+  </si>
+  <si>
+    <t>Flavobacterium psychrophilum_B</t>
+  </si>
+  <si>
+    <t>Flavobacterium foetidum</t>
+  </si>
+  <si>
+    <t>Aureicoccus marinus</t>
+  </si>
+  <si>
+    <t>Pseudozobellia thermophila</t>
+  </si>
+  <si>
+    <t>Polaribacter gangjinensis</t>
+  </si>
+  <si>
+    <t>Salegentibacter sp004362395</t>
+  </si>
+  <si>
+    <t>Epilithonimonas sp002383165</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp003815715</t>
+  </si>
+  <si>
+    <t>Zunongwangia atlantica</t>
+  </si>
+  <si>
+    <t>Tenacibaculum caenipelagi</t>
+  </si>
+  <si>
+    <t>Robiginitalea myxolifaciens</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp004119495</t>
+  </si>
+  <si>
+    <t>Gillisia marina</t>
+  </si>
+  <si>
+    <t>Antarcticibacterium flavum</t>
+  </si>
+  <si>
+    <t>LPB0138 sp002733665</t>
+  </si>
+  <si>
+    <t>Formosa haliotis</t>
+  </si>
+  <si>
+    <t>GCA-2746415 sp002746415</t>
+  </si>
+  <si>
+    <t>Epilithonimonas molle</t>
+  </si>
+  <si>
+    <t>Flaviramulus_A sp002741945</t>
+  </si>
+  <si>
+    <t>Maribacter sp005943945</t>
+  </si>
+  <si>
+    <t>Gramella gaetbulicola</t>
+  </si>
+  <si>
+    <t>Cellulophaga sp000799565</t>
+  </si>
+  <si>
+    <t>UBA8316 sp003538555</t>
+  </si>
+  <si>
+    <t>Chryseobacterium artocarpi</t>
+  </si>
+  <si>
+    <t>Flavobacterium frigoris</t>
+  </si>
+  <si>
+    <t>Algibacter_B pectinivorans</t>
+  </si>
+  <si>
+    <t>Maribacter vaceletii</t>
+  </si>
+  <si>
+    <t>PDQE01 sp002747735</t>
+  </si>
+  <si>
+    <t>Flavobacterium fontis</t>
+  </si>
+  <si>
+    <t>Polaribacter sp000766795</t>
+  </si>
+  <si>
+    <t>Myroides sp003858535</t>
+  </si>
+  <si>
+    <t>Flavobacterium terrigena</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp007109225</t>
+  </si>
+  <si>
+    <t>UBA7949 sp002352665</t>
+  </si>
+  <si>
+    <t>YIM-102668 sp003687725</t>
+  </si>
+  <si>
+    <t>Zeaxanthinibacter enoshimensis</t>
+  </si>
+  <si>
+    <t>Capnocytophaga stomatis</t>
+  </si>
+  <si>
+    <t>UBA3537 sp002690085</t>
+  </si>
+  <si>
+    <t>Polaribacter sp002163835</t>
+  </si>
+  <si>
+    <t>Maribacter caenipelagi</t>
+  </si>
+  <si>
+    <t>Chryseobacterium taichungense</t>
+  </si>
+  <si>
+    <t>Flavobacterium jejuense</t>
+  </si>
+  <si>
+    <t>Flavobacterium succinicans_A</t>
+  </si>
+  <si>
+    <t>Muricauda sp004804315</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp000426145</t>
+  </si>
+  <si>
+    <t>Tenacibaculum sp900105455</t>
+  </si>
+  <si>
+    <t>GCA-2747695 sp002747695</t>
+  </si>
+  <si>
+    <t>Flavobacterium album</t>
+  </si>
+  <si>
+    <t>Flavobacterium filum</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp003312915</t>
+  </si>
+  <si>
+    <t>Flavobacterium urumqiense</t>
+  </si>
+  <si>
+    <t>Muricauda sp002813125</t>
+  </si>
+  <si>
+    <t>Gelidibacter sediminis</t>
+  </si>
+  <si>
+    <t>Flavobacterium aurantiibacter</t>
+  </si>
+  <si>
+    <t>TMED220 sp002702875</t>
+  </si>
+  <si>
+    <t>MED-G13 sp002702745</t>
+  </si>
+  <si>
+    <t>Jejuia pacifica</t>
+  </si>
+  <si>
+    <t>Myroides injenensis</t>
+  </si>
+  <si>
+    <t>Polaribacter sp000981625</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp002001005</t>
+  </si>
+  <si>
+    <t>Flavicella sp.</t>
+  </si>
+  <si>
+    <t>Epilithonimonas xixisoli</t>
+  </si>
+  <si>
+    <t>Cellulophaga fucicola</t>
+  </si>
+  <si>
+    <t>Polaribacter sp900105145</t>
+  </si>
+  <si>
+    <t>Dokdonia pacifica</t>
+  </si>
+  <si>
+    <t>Chryseobacterium glaciei</t>
+  </si>
+  <si>
+    <t>Lutibacter sp003260195</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp002836475</t>
+  </si>
+  <si>
+    <t>PRS1 sp003709165</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp004028155</t>
+  </si>
+  <si>
+    <t>Flavobacterium tistrianum</t>
+  </si>
+  <si>
+    <t>Cruoricaptor ignavus</t>
+  </si>
+  <si>
+    <t>UBA7428 sp002477625</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp004801375</t>
+  </si>
+  <si>
+    <t>Algibacter_A alginicilyticus</t>
+  </si>
+  <si>
+    <t>Capnocytophaga sp002999135</t>
+  </si>
+  <si>
+    <t>UBA7446 sp002698745</t>
+  </si>
+  <si>
+    <t>Psychroserpens sp002162685</t>
+  </si>
+  <si>
+    <t>Confluentibacter sp002280395</t>
+  </si>
+  <si>
+    <t>Dokdonia sp000355805</t>
+  </si>
+  <si>
+    <t>Riemerella columbipharyngis</t>
+  </si>
+  <si>
+    <t>Lacinutrix sp000211855</t>
+  </si>
+  <si>
+    <t>Ochrovirga pacifica</t>
+  </si>
+  <si>
+    <t>Psychroserpens jangbogonensis</t>
+  </si>
+  <si>
+    <t>UM-FILTER-40-17 sp002790195</t>
+  </si>
+  <si>
+    <t>Nonlabens sp003966335</t>
+  </si>
+  <si>
+    <t>Muricauda aquimarina</t>
+  </si>
+  <si>
+    <t>GCA-002733185 sp002713705</t>
+  </si>
+  <si>
+    <t>Flavobacterium seoulense</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp004293165</t>
+  </si>
+  <si>
+    <t>Chryseobacterium gregarium</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp001425355</t>
+  </si>
+  <si>
+    <t>Maribacter_A polysiphoniae</t>
+  </si>
+  <si>
+    <t>Flavobacterium haoranii_A</t>
+  </si>
+  <si>
+    <t>Marixanthomonas sp002631855</t>
+  </si>
+  <si>
+    <t>CAU-1491 sp.</t>
+  </si>
+  <si>
+    <t>Seonamhaeicola sp004358095</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp000745535</t>
+  </si>
+  <si>
+    <t>Arenibacter troitsensis</t>
+  </si>
+  <si>
+    <t>MED-G14 sp002703065</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp000264055</t>
+  </si>
+  <si>
+    <t>Bin25 sp002238525</t>
+  </si>
+  <si>
+    <t>Kaistella sp003692615</t>
+  </si>
+  <si>
+    <t>Imtechella halotolerans</t>
+  </si>
+  <si>
+    <t>Polaribacter sp003129485</t>
+  </si>
+  <si>
+    <t>GCA-2700405 sp004213965</t>
+  </si>
+  <si>
+    <t>Algibacter_D aestuarii</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp002754195</t>
+  </si>
+  <si>
+    <t>UBA6231 sp.</t>
+  </si>
+  <si>
+    <t>Kriegella aquimaris</t>
+  </si>
+  <si>
+    <t>Mariniflexile fucanivorans</t>
+  </si>
+  <si>
+    <t>Seonamhaeicola sp001971785</t>
+  </si>
+  <si>
+    <t>Polaribacter tangerinus</t>
+  </si>
+  <si>
+    <t>Salinimicrobium xinjiangense</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp004211145</t>
+  </si>
+  <si>
+    <t>Chryseobacterium defluvii</t>
+  </si>
+  <si>
+    <t>GCA-002723295 sp002723295</t>
+  </si>
+  <si>
+    <t>Myroides sp002807015</t>
+  </si>
+  <si>
+    <t>Flavobacterium aciduliphilum</t>
+  </si>
+  <si>
+    <t>QNYL01 sp003973375</t>
+  </si>
+  <si>
+    <t>Chryseobacterium ureilyticum</t>
+  </si>
+  <si>
+    <t>Lacinutrix sp001874145</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp002754245</t>
+  </si>
+  <si>
+    <t>Aquimarina longa</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp002150205</t>
+  </si>
+  <si>
+    <t>Dokdonia sp003688895</t>
+  </si>
+  <si>
+    <t>Formosa sp007197735</t>
+  </si>
+  <si>
+    <t>Tamlana_B sedimentorum</t>
+  </si>
+  <si>
+    <t>Confluentibacter lentus</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp004119445</t>
+  </si>
+  <si>
+    <t>UBA3376 sp002359055</t>
+  </si>
+  <si>
+    <t>Jejuia sp004310325</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp001421435</t>
+  </si>
+  <si>
+    <t>GCA-002401385 sp002401105</t>
+  </si>
+  <si>
+    <t>Maribacter spongiicola</t>
+  </si>
+  <si>
+    <t>Aquimarina spongiae</t>
+  </si>
+  <si>
+    <t>Epilithonimonas sp001898785</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp001045455</t>
+  </si>
+  <si>
+    <t>Robiginitalea sp.</t>
+  </si>
+  <si>
+    <t>Empedobacter sp004785645</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp002455915</t>
+  </si>
+  <si>
+    <t>UBA724 sp002171575</t>
+  </si>
+  <si>
+    <t>Tenacibaculum sp002954385</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp000708595</t>
+  </si>
+  <si>
+    <t>Lutibacter maritimus</t>
+  </si>
+  <si>
+    <t>MS024-2A_A sp002457295</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp003729935</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp002715085</t>
+  </si>
+  <si>
+    <t>Chryseobacterium aurantiacum</t>
+  </si>
+  <si>
+    <t>Winogradskyella epiphytica</t>
+  </si>
+  <si>
+    <t>Aquimarina megaterium</t>
+  </si>
+  <si>
+    <t>Pustulibacterium marinum</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp004959765</t>
+  </si>
+  <si>
+    <t>Nonlabens arenilitoris</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp001424585</t>
+  </si>
+  <si>
+    <t>Tenacibaculum_A todarodis</t>
+  </si>
+  <si>
+    <t>Xanthomarina spongicola</t>
+  </si>
+  <si>
+    <t>Muriicola sp004139715</t>
+  </si>
+  <si>
+    <t>Flavobacterium pectinovorum_A</t>
+  </si>
+  <si>
+    <t>Zeaxanthinibacter sp.</t>
+  </si>
+  <si>
+    <t>Flavobacterium antarcticum</t>
+  </si>
+  <si>
+    <t>Flavobacterium psychrolimnae</t>
+  </si>
+  <si>
+    <t>Mesonia mobilis</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp002714575</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp003634825</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp003663845</t>
+  </si>
+  <si>
+    <t>UBA3537 sp.</t>
+  </si>
+  <si>
+    <t>Muricauda flava</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp900078205</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp004122165</t>
+  </si>
+  <si>
+    <t>UBA3537 sp002698705</t>
+  </si>
+  <si>
+    <t>Nonlabens marinus</t>
+  </si>
+  <si>
+    <t>Tenacibaculum sp002836595</t>
+  </si>
+  <si>
+    <t>Aequorivita sublithincola</t>
+  </si>
+  <si>
+    <t>PTET01 sp004359435</t>
+  </si>
+  <si>
+    <t>Flavobacterium johnsoniae_A</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp003669035</t>
+  </si>
+  <si>
+    <t>Chryseobacterium indologenes_E</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp002737105</t>
+  </si>
+  <si>
+    <t>Flaviramulus basaltis</t>
+  </si>
+  <si>
+    <t>Sinomicrobium oceani</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp001529295</t>
+  </si>
+  <si>
+    <t>Chryseobacterium takakiae</t>
+  </si>
+  <si>
+    <t>Gilvibacter sp.</t>
+  </si>
+  <si>
+    <t>GCA-002723295 sp002713495</t>
+  </si>
+  <si>
+    <t>Gramella portivictoriae</t>
+  </si>
+  <si>
+    <t>Flavobacterium sediminis</t>
+  </si>
+  <si>
+    <t>Pseudozobellia sp002813285</t>
+  </si>
+  <si>
+    <t>Nonlabens spongiae</t>
+  </si>
+  <si>
+    <t>Jejuia sp.</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp000744835</t>
+  </si>
+  <si>
+    <t>Aurantibacter aestuarii</t>
+  </si>
+  <si>
+    <t>CG1-02-35-72 sp.</t>
+  </si>
+  <si>
+    <t>Lutibacter sp002390165</t>
+  </si>
+  <si>
+    <t>Kordia jejudonensis</t>
+  </si>
+  <si>
+    <t>Tamlana_A sp002893765</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp002399805</t>
+  </si>
+  <si>
+    <t>Epilithonimonas hispanicum</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp000745795</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp002280815</t>
+  </si>
+  <si>
+    <t>Flavobacterium crocinum</t>
+  </si>
+  <si>
+    <t>Winogradskyella sp001971725</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp005792865</t>
+  </si>
+  <si>
+    <t>Flavobacterium hercynium</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp004329815</t>
+  </si>
+  <si>
+    <t>Flavobacterium xueshanense</t>
+  </si>
+  <si>
+    <t>Chryseobacterium soldanellicola</t>
+  </si>
+  <si>
+    <t>Chryseobacterium indologenes_A</t>
+  </si>
+  <si>
+    <t>Tamlana_A sp.</t>
+  </si>
+  <si>
+    <t>Lutibacter flavus</t>
+  </si>
+  <si>
+    <t>Tenacibaculum holothuriorum</t>
+  </si>
+  <si>
+    <t>Aquimarina sp006443095</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp004362015</t>
+  </si>
+  <si>
+    <t>Tamlana_B nanhaiensis</t>
+  </si>
+  <si>
+    <t>Maribacter thermophilus</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp002428305</t>
+  </si>
+  <si>
+    <t>Sinomicrobium sp003285545</t>
+  </si>
+  <si>
+    <t>Ulvibacter antarcticus</t>
+  </si>
+  <si>
+    <t>Salegentibacter flavus</t>
+  </si>
+  <si>
+    <t>Arenibacter sp003426735</t>
+  </si>
+  <si>
+    <t>Maribacter arcticus</t>
+  </si>
+  <si>
+    <t>CG2-30-34-30 sp.</t>
+  </si>
+  <si>
+    <t>Capnocytophaga sp000192225</t>
+  </si>
+  <si>
+    <t>Chishuiella changwenlii</t>
+  </si>
+  <si>
+    <t>Flavobacterium daejeonense_A</t>
+  </si>
+  <si>
+    <t>Psychroflexus salarius</t>
+  </si>
+  <si>
+    <t>Bizionia paragorgiae</t>
+  </si>
+  <si>
+    <t>UBA2674 sp002693605</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp002813295</t>
+  </si>
+  <si>
+    <t>Lacinutrix algicola</t>
+  </si>
+  <si>
+    <t>Epilithonimonas sp001643375</t>
+  </si>
+  <si>
+    <t>Chishuiella sp002484335</t>
+  </si>
+  <si>
+    <t>Polaribacter irgensii</t>
+  </si>
+  <si>
+    <t>Oceanihabitans sp.</t>
+  </si>
+  <si>
+    <t>Chryseobacterium polytrichastri</t>
+  </si>
+  <si>
+    <t>Gramella sp004332155</t>
+  </si>
+  <si>
+    <t>Zobellia sp.</t>
+  </si>
+  <si>
+    <t>GCA-002733185 sp002733185</t>
+  </si>
+  <si>
+    <t>Hel1-33-131 sp001735745</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp000829375</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp002862805</t>
+  </si>
+  <si>
+    <t>Winogradskyella sp003335675</t>
+  </si>
+  <si>
+    <t>Polaribacter sp000687935</t>
+  </si>
+  <si>
+    <t>Zeaxanthinibacter sp001683825</t>
+  </si>
+  <si>
+    <t>Psychroserpens mesophilus</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp003350375</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp004352915</t>
+  </si>
+  <si>
+    <t>Psychroserpens sp000799465</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp004293045</t>
+  </si>
+  <si>
+    <t>Robiginitalea biformata</t>
+  </si>
+  <si>
+    <t>TPBH4 sp001280505</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp001428525</t>
+  </si>
+  <si>
+    <t>Flavobacterium faecale</t>
+  </si>
+  <si>
+    <t>Lacinutrix mariniflava</t>
+  </si>
+  <si>
+    <t>Chryseobacterium arachidis</t>
+  </si>
+  <si>
+    <t>Lutibacter jeungdoensis</t>
+  </si>
+  <si>
+    <t>Kaistella solincola</t>
+  </si>
+  <si>
+    <t>Polaribacter sp003335085</t>
+  </si>
+  <si>
+    <t>UBA7684 sp002482885</t>
+  </si>
+  <si>
+    <t>Changchengzhania lutea</t>
+  </si>
+  <si>
+    <t>MED-G14 sp003331875</t>
+  </si>
+  <si>
+    <t>MED-G13 sp002697255</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp004122105</t>
+  </si>
+  <si>
+    <t>Elizabethkingia sp003852805</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp007097145</t>
+  </si>
+  <si>
+    <t>Psychroflexus tropicus</t>
+  </si>
+  <si>
+    <t>Ulvibacter_A alkanivorans</t>
+  </si>
+  <si>
+    <t>Gramella sp900105135</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp003097655</t>
+  </si>
+  <si>
+    <t>MED-G11 sp004213645</t>
+  </si>
+  <si>
+    <t>Flavobacterium phragmitis</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp002483285</t>
+  </si>
+  <si>
+    <t>Gilvibacter sp003229235</t>
+  </si>
+  <si>
+    <t>Leeuwenhoekiella aequorea</t>
+  </si>
+  <si>
+    <t>Gramella forsetii</t>
+  </si>
+  <si>
+    <t>Nonlabens sp001413925</t>
+  </si>
+  <si>
+    <t>Kaistella frigidisoli</t>
+  </si>
+  <si>
+    <t>Flavobacterium lindanitolerans_A</t>
+  </si>
+  <si>
+    <t>Maribacter_A sp002749285</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp004349195</t>
+  </si>
+  <si>
+    <t>Algibacter_C aquaticus</t>
+  </si>
+  <si>
+    <t>Mesoflavibacter sp.</t>
+  </si>
+  <si>
+    <t>Muricauda pacifica_A</t>
+  </si>
+  <si>
+    <t>Sediminicola_A luteus</t>
+  </si>
+  <si>
+    <t>GCA-002728855 sp002728855</t>
+  </si>
+  <si>
+    <t>Tenacibaculum skagerrakense</t>
+  </si>
+  <si>
+    <t>Cellulophaga sp.</t>
+  </si>
+  <si>
+    <t>Gilvibacter sp002163875</t>
+  </si>
+  <si>
+    <t>GCA-002733185 sp004214175</t>
+  </si>
+  <si>
+    <t>Marinirhabdus gelatinilytica</t>
+  </si>
+  <si>
+    <t>Mesonia phycicola</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp004745595</t>
+  </si>
+  <si>
+    <t>GCA-002723295 sp002721275</t>
+  </si>
+  <si>
+    <t>Gillisia limnaea</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp002256285</t>
+  </si>
+  <si>
+    <t>Polaribacter porphyrae</t>
+  </si>
+  <si>
+    <t>Lacinutrix sp002831665</t>
+  </si>
+  <si>
+    <t>Kaistella treverense</t>
+  </si>
+  <si>
+    <t>Kaistella sp004359195</t>
+  </si>
+  <si>
+    <t>Confluentibacter sp003258355</t>
+  </si>
+  <si>
+    <t>Muricauda sp003382275</t>
+  </si>
+  <si>
+    <t>Salegentibacter sediminis</t>
+  </si>
+  <si>
+    <t>Muricauda sp003385855</t>
+  </si>
+  <si>
+    <t>Muricauda_A sp003712125</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp001975985</t>
+  </si>
+  <si>
+    <t>UBA7949 sp003813905</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp001424105</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp001422725</t>
+  </si>
+  <si>
+    <t>Lacinutrix sp000934685</t>
+  </si>
+  <si>
+    <t>Flavobacterium fluvii</t>
+  </si>
+  <si>
+    <t>Flavobacterium defluvii</t>
+  </si>
+  <si>
+    <t>Cloacibacterium sp002337005</t>
+  </si>
+  <si>
+    <t>Kaistella sp002415135</t>
+  </si>
+  <si>
+    <t>Muricauda sp004916895</t>
+  </si>
+  <si>
+    <t>Muricauda sp005937185</t>
+  </si>
+  <si>
+    <t>Tenacibaculum gallaicum</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp001427905</t>
+  </si>
+  <si>
+    <t>Chryseobacterium camelliae</t>
+  </si>
+  <si>
+    <t>Chryseobacterium taeanense</t>
+  </si>
+  <si>
+    <t>Gillisia sp002364325</t>
+  </si>
+  <si>
+    <t>UBA7446 sp002862645</t>
+  </si>
+  <si>
+    <t>TMED96 sp002728075</t>
+  </si>
+  <si>
+    <t>Maribacter ulvicola</t>
+  </si>
+  <si>
+    <t>Kaistella sp000023725</t>
+  </si>
+  <si>
+    <t>Winogradskyella sp003712105</t>
+  </si>
+  <si>
+    <t>Psychroflexus sediminis</t>
+  </si>
+  <si>
+    <t>Olleya sp004843725</t>
+  </si>
+  <si>
+    <t>Psychroserpens sp000688335</t>
+  </si>
+  <si>
+    <t>Dokdonia sp002712765</t>
+  </si>
+  <si>
+    <t>UBA8316 sp002336305</t>
+  </si>
+  <si>
+    <t>Kordia periserrulae</t>
+  </si>
+  <si>
+    <t>Salinimicrobium sp.</t>
+  </si>
+  <si>
+    <t>Chryseobacterium taiwanense</t>
+  </si>
+  <si>
+    <t>GCA-002728855 sp002702405</t>
+  </si>
+  <si>
+    <t>GCA-2747105 sp002747105</t>
+  </si>
+  <si>
+    <t>MED-G14 sp002693085</t>
+  </si>
+  <si>
+    <t>MED-G14 sp002457715</t>
+  </si>
+  <si>
+    <t>Formosa sp.</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp003097635</t>
+  </si>
+  <si>
+    <t>Epilithonimonas sp002297505</t>
+  </si>
+  <si>
+    <t>Psychroflexus aestuariivivens</t>
+  </si>
+  <si>
+    <t>GCA-002733185 sp004213605</t>
+  </si>
+  <si>
+    <t>SCGC-AAA160-P02 sp000383355</t>
+  </si>
+  <si>
+    <t>Flavobacterium pallidum</t>
+  </si>
+  <si>
+    <t>Winogradskyella eximia</t>
+  </si>
+  <si>
+    <t>Flaviramulus_A ichthyoenteri</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp003668995</t>
+  </si>
+  <si>
+    <t>Ornithobacterium rhinotracheale_A</t>
+  </si>
+  <si>
+    <t>Marixanthomonas sp003095375</t>
+  </si>
+  <si>
+    <t>Flavobacterium swingsii</t>
+  </si>
+  <si>
+    <t>Flavobacterium frigidarium</t>
+  </si>
+  <si>
+    <t>Capnocytophaga sp000466425</t>
+  </si>
+  <si>
+    <t>SGZJ01 sp004213995</t>
+  </si>
+  <si>
+    <t>Mangrovimonas yunxiaonensis</t>
+  </si>
+  <si>
+    <t>Kordia sp006383075</t>
+  </si>
+  <si>
+    <t>Wenyingzhuangia marina</t>
+  </si>
+  <si>
+    <t>UBA3537_A sp002721175</t>
+  </si>
+  <si>
+    <t>Aequorivita sp002733915</t>
+  </si>
+  <si>
+    <t>Aequorivita sp004022485</t>
+  </si>
+  <si>
+    <t>MS024-2A sp002167525</t>
+  </si>
+  <si>
+    <t>Flavobacterium tegetincola</t>
+  </si>
+  <si>
+    <t>CAU-1491 sp005047595</t>
+  </si>
+  <si>
+    <t>HC6-5 sp003450155</t>
+  </si>
+  <si>
+    <t>Maribacter sp002742265</t>
+  </si>
+  <si>
+    <t>Algorimicrobium sp002414705</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp004797125</t>
+  </si>
+  <si>
+    <t>Flavobacterium frigoris_A</t>
+  </si>
+  <si>
+    <t>Flavobacterium daejeonense</t>
+  </si>
+  <si>
+    <t>Tenacibaculum agarivorans</t>
+  </si>
+  <si>
+    <t>Chryseobacterium limigenitum</t>
+  </si>
+  <si>
+    <t>Muricauda ruestringensis</t>
+  </si>
+  <si>
+    <t>Flavobacterium degerlachei</t>
+  </si>
+  <si>
+    <t>Gramella salexigens</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp001297705</t>
+  </si>
+  <si>
+    <t>Aequorivita aquimaris</t>
+  </si>
+  <si>
+    <t>Flavobacterium limicola</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp003971235</t>
+  </si>
+  <si>
+    <t>MS024-2A sp002714815</t>
+  </si>
+  <si>
+    <t>Moheibacter sediminis</t>
+  </si>
+  <si>
+    <t>Leeuwenhoekiella sp000687915</t>
+  </si>
+  <si>
+    <t>Flavobacterium lacus</t>
+  </si>
+  <si>
+    <t>Arenibacter certesii</t>
+  </si>
+  <si>
+    <t>Muricauda sp002167435</t>
+  </si>
+  <si>
+    <t>Formosa agariphila</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp004362055</t>
+  </si>
+  <si>
+    <t>Arenibacter nanhaiticus</t>
+  </si>
+  <si>
+    <t>Flavobacterium ginsenosidimutans</t>
+  </si>
+  <si>
+    <t>Flavobacterium sasangense</t>
+  </si>
+  <si>
+    <t>Chryseobacterium kwangjuense</t>
+  </si>
+  <si>
+    <t>Flavobacterium sinopsychrotolerans</t>
+  </si>
+  <si>
+    <t>Winogradskyella jejuensis</t>
+  </si>
+  <si>
+    <t>Aquimarina agarivorans</t>
+  </si>
+  <si>
+    <t>Aquimarina muelleri</t>
+  </si>
+  <si>
+    <t>Tamlana_A sp006265225</t>
+  </si>
+  <si>
+    <t>Xanthomarina sp.</t>
+  </si>
+  <si>
+    <t>GCA-002401385 sp002400885</t>
+  </si>
+  <si>
+    <t>Muricauda koreensis</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp002454195</t>
+  </si>
+  <si>
+    <t>Muricauda sp003269425</t>
+  </si>
+  <si>
+    <t>Myroides guanonis</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp003254745</t>
+  </si>
+  <si>
+    <t>UBA8316 sp002171295</t>
+  </si>
+  <si>
+    <t>Aureitalea marina</t>
+  </si>
+  <si>
+    <t>Flavobacterium aquaticum</t>
+  </si>
+  <si>
+    <t>Flavicella sediminum</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp003865365</t>
+  </si>
+  <si>
+    <t>UBA8316 sp002687665</t>
+  </si>
+  <si>
+    <t>MED-G14 sp003331885</t>
+  </si>
+  <si>
+    <t>Aquimarina macrocephali</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp900156075</t>
+  </si>
+  <si>
+    <t>Maribacter sp003933245</t>
+  </si>
+  <si>
+    <t>Myroides odoratus_A</t>
+  </si>
+  <si>
+    <t>Myroides phaeus</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp002979455</t>
+  </si>
+  <si>
+    <t>Elizabethkingia sp006088815</t>
+  </si>
+  <si>
+    <t>Nonlabens agnitus</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp003815655</t>
+  </si>
+  <si>
+    <t>Arenibacter latericius</t>
+  </si>
+  <si>
+    <t>GCA-002401385 sp002401385</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp004303025</t>
+  </si>
+  <si>
+    <t>Chryseobacterium greenlandense</t>
+  </si>
+  <si>
+    <t>Gramella sp007050985</t>
+  </si>
+  <si>
+    <t>Sediminicola sp001430825</t>
+  </si>
+  <si>
+    <t>Flavobacterium omnivorum</t>
+  </si>
+  <si>
+    <t>Polaribacter sp002831685</t>
+  </si>
+  <si>
+    <t>Polaribacter filamentus</t>
+  </si>
+  <si>
+    <t>Tenacibaculum sp004337695</t>
+  </si>
+  <si>
+    <t>Flavobacterium cyanobacteriorum</t>
+  </si>
+  <si>
+    <t>Croceitalea dokdonensis</t>
+  </si>
+  <si>
+    <t>Flavobacterium_B sp002256385</t>
+  </si>
+  <si>
+    <t>Lacinutrix jangbogonensis</t>
+  </si>
+  <si>
+    <t>Arenibacter hampyeongensis</t>
+  </si>
+  <si>
+    <t>Psychroflexus sp002836055</t>
+  </si>
+  <si>
+    <t>Epilithonimonas sp002476905</t>
+  </si>
+  <si>
+    <t>Seonamhaeicola aphaedonensis</t>
+  </si>
+  <si>
+    <t>CCMM003 sp003626755</t>
+  </si>
+  <si>
+    <t>MS024-2A sp002169865</t>
+  </si>
+  <si>
+    <t>Flaviramulus_A sp.</t>
+  </si>
+  <si>
+    <t>Ichthyenterobacterium sp002162765</t>
+  </si>
+  <si>
+    <t>Psychroflexus sp003564185</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp003202405</t>
+  </si>
+  <si>
+    <t>GCA-2733415 sp002733415</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp001424145</t>
+  </si>
+  <si>
+    <t>Mesonia sp003233725</t>
+  </si>
+  <si>
+    <t>Kaistella sp002197835</t>
+  </si>
+  <si>
+    <t>Lutibacter oricola</t>
+  </si>
+  <si>
+    <t>Polaribacter sp002163675</t>
+  </si>
+  <si>
+    <t>Gelidibacter mesophilus</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp002216065</t>
+  </si>
+  <si>
+    <t>Nonlabens sp002831625</t>
+  </si>
+  <si>
+    <t>Leeuwenhoekiella sp002710685</t>
+  </si>
+  <si>
+    <t>Psychroflexus torquis</t>
+  </si>
+  <si>
+    <t>Arenibacter catalasegens</t>
+  </si>
+  <si>
+    <t>Cellulophaga sp002813425</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp002382495</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp900169075</t>
+  </si>
+  <si>
+    <t>Flavobacterium segetis</t>
+  </si>
+  <si>
+    <t>Maribacter sp003232155</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp002483315</t>
+  </si>
+  <si>
+    <t>YIM-102668 sp.</t>
+  </si>
+  <si>
+    <t>Maribacter aquivivus</t>
+  </si>
+  <si>
+    <t>MAG-121220-bin8 sp003331265</t>
+  </si>
+  <si>
+    <t>Winogradskyella wandonensis</t>
+  </si>
+  <si>
+    <t>Tenacibaculum sp002813915</t>
+  </si>
+  <si>
+    <t>MAR-2010-188 sp006494535</t>
+  </si>
+  <si>
+    <t>Myroides marinum</t>
+  </si>
+  <si>
+    <t>Myroides sp002320285</t>
+  </si>
+  <si>
+    <t>Flavivirga sp.</t>
+  </si>
+  <si>
+    <t>LPB0138 sp002401215</t>
+  </si>
+  <si>
+    <t>Maribacter sp005771495</t>
+  </si>
+  <si>
+    <t>Kordia sp003352465</t>
+  </si>
+  <si>
+    <t>Hanstruepera neustonica</t>
+  </si>
+  <si>
+    <t>Flavobacterium gillisiae</t>
+  </si>
+  <si>
+    <t>Winogradskyella aurantiaca</t>
+  </si>
+  <si>
+    <t>Myroides sp002360925</t>
+  </si>
+  <si>
+    <t>Xanthomarina sp002366675</t>
+  </si>
+  <si>
+    <t>Muricauda sp004296335</t>
   </si>
   <si>
     <t>Maribacter forsetii</t>
   </si>
   <si>
-    <t>MAG-121220-bin8 sp003331265</t>
+    <t>Maribacter antarcticus</t>
+  </si>
+  <si>
+    <t>Soonwooa buanensis</t>
+  </si>
+  <si>
+    <t>Kaistella chaponense</t>
+  </si>
+  <si>
+    <t>Salegentibacter sp000745315</t>
+  </si>
+  <si>
+    <t>Flavobacterium micromati</t>
+  </si>
+  <si>
+    <t>Muricauda pacifica</t>
   </si>
   <si>
     <t>Winogradskyella psychrotolerans</t>
   </si>
   <si>
+    <t>Maribacter sp005885635</t>
+  </si>
+  <si>
+    <t>Nonlabens dokdonensis_B</t>
+  </si>
+  <si>
+    <t>Algorimicrobium argentinensis</t>
+  </si>
+  <si>
+    <t>Winogradskyella sp000828715</t>
+  </si>
+  <si>
+    <t>Aequorivita capsosiphonis</t>
+  </si>
+  <si>
+    <t>Myroides indicus</t>
+  </si>
+  <si>
+    <t>Kordia algicida</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp003105115</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp000799195</t>
+  </si>
+  <si>
+    <t>Tenacibaculum soleae</t>
+  </si>
+  <si>
+    <t>Vaginella massiliensis</t>
+  </si>
+  <si>
+    <t>MED-G13 sp.</t>
+  </si>
+  <si>
+    <t>Salinimicrobium sediminis</t>
+  </si>
+  <si>
+    <t>Muricauda sp000745185</t>
+  </si>
+  <si>
+    <t>Psychroserpens sp900104785</t>
+  </si>
+  <si>
+    <t>UBA3478 sp.</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp002296885</t>
+  </si>
+  <si>
+    <t>Chryseobacterium luteum</t>
+  </si>
+  <si>
+    <t>Flavivirga eckloniae</t>
+  </si>
+  <si>
+    <t>Siansivirga zeaxanthinifaciens</t>
+  </si>
+  <si>
+    <t>Flavicella sp002477565</t>
+  </si>
+  <si>
+    <t>Aquimarina amphilecti</t>
+  </si>
+  <si>
+    <t>Chryseobacterium oncorhynchi</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp002434285</t>
+  </si>
+  <si>
+    <t>Epilithonimonas arachidiradicis</t>
+  </si>
+  <si>
+    <t>Kaistella sp001403755</t>
+  </si>
+  <si>
+    <t>Polaribacter atrinae</t>
+  </si>
+  <si>
+    <t>Marinirhabdus sp.</t>
+  </si>
+  <si>
+    <t>Flavivirga sp004791695</t>
+  </si>
+  <si>
+    <t>Epilithonimonas sp003248755</t>
+  </si>
+  <si>
+    <t>Olleya sp002831645</t>
+  </si>
+  <si>
+    <t>Marixanthomonas sp002364245</t>
+  </si>
+  <si>
+    <t>Nonlabens sp.</t>
+  </si>
+  <si>
+    <t>Lutibacter profundi</t>
+  </si>
+  <si>
+    <t>Epilithonimonas sp003932955</t>
+  </si>
+  <si>
+    <t>Kaistella sp001898255</t>
+  </si>
+  <si>
+    <t>Lutibacter agarilyticus</t>
+  </si>
+  <si>
+    <t>Lutibacter sp001800975</t>
+  </si>
+  <si>
+    <t>Arenibacter echinorum</t>
+  </si>
+  <si>
+    <t>Flavobacterium urocaniciphilum</t>
+  </si>
+  <si>
+    <t>Muricauda sp003058265</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp002421645</t>
+  </si>
+  <si>
+    <t>Salegentibacter echinorum</t>
+  </si>
+  <si>
+    <t>Arenibacter sp003957295</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp000799515</t>
+  </si>
+  <si>
+    <t>UBA3478 sp002691685</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp004016525</t>
+  </si>
+  <si>
+    <t>Winogradskyella arenosi</t>
+  </si>
+  <si>
+    <t>MED-G14 sp002691165</t>
+  </si>
+  <si>
+    <t>Maribacter cobaltidurans</t>
+  </si>
+  <si>
+    <t>SZUA-72 sp.</t>
+  </si>
+  <si>
+    <t>Oceanihabitans himadriensis</t>
+  </si>
+  <si>
+    <t>MS024-2A sp002167945</t>
+  </si>
+  <si>
+    <t>Maribacter orientalis</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp007097385</t>
+  </si>
+  <si>
+    <t>Flavobacterium cupreum</t>
+  </si>
+  <si>
+    <t>TMED220 sp002169155</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp000967805</t>
+  </si>
+  <si>
+    <t>Cellulophaga sp001999725</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp001800945</t>
+  </si>
+  <si>
+    <t>Ulvibacter litoralis</t>
+  </si>
+  <si>
+    <t>Winogradskyella sp000171875</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp004295795</t>
+  </si>
+  <si>
+    <t>Flavobacterium saccharophilum</t>
+  </si>
+  <si>
+    <t>Nonlabens sp900101765</t>
+  </si>
+  <si>
+    <t>Mangrovimonas sp003944795</t>
+  </si>
+  <si>
+    <t>Epilithonimonas sp002345565</t>
+  </si>
+  <si>
+    <t>Chryseobacterium daeguense</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp002422095</t>
+  </si>
+  <si>
+    <t>Eudoraea adriatica</t>
+  </si>
+  <si>
+    <t>Algibacter_B sp003143755</t>
+  </si>
+  <si>
+    <t>RR4-38 sp002966125</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp002899825</t>
+  </si>
+  <si>
+    <t>GCA-2719315 sp002719315</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp004355225</t>
+  </si>
+  <si>
+    <t>Winogradskyella sp002682935</t>
+  </si>
+  <si>
+    <t>Flavobacterium cucumis</t>
+  </si>
+  <si>
+    <t>Tenacibaculum sp004762155</t>
+  </si>
+  <si>
+    <t>Capnocytophaga sp000318275</t>
+  </si>
+  <si>
+    <t>Flavobacterium caeni</t>
+  </si>
+  <si>
+    <t>Empedobacter sp.</t>
+  </si>
+  <si>
+    <t>MED-G11 sp004214015</t>
+  </si>
+  <si>
+    <t>Altibacter sp002813135</t>
+  </si>
+  <si>
+    <t>Xanthomarina sp003144015</t>
+  </si>
+  <si>
+    <t>UBA7949 sp003449015</t>
+  </si>
+  <si>
+    <t>UBA3478 sp002691645</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp003202435</t>
+  </si>
+  <si>
+    <t>Gelidibacter sp002426755</t>
+  </si>
+  <si>
+    <t>Epilithonimonas zeae</t>
+  </si>
+  <si>
+    <t>GCA-2862715 sp002862715</t>
+  </si>
+  <si>
+    <t>Altibacter lentus</t>
+  </si>
+  <si>
+    <t>Ichthyenterobacterium magnum</t>
+  </si>
+  <si>
+    <t>UBA7949 sp006065315</t>
+  </si>
+  <si>
+    <t>Algorimicrobium sp.</t>
+  </si>
+  <si>
+    <t>Elizabethkingia sp.</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp000333355</t>
+  </si>
+  <si>
+    <t>Muricauda lutimaris</t>
+  </si>
+  <si>
+    <t>Leeuwenhoekiella sp000733945</t>
+  </si>
+  <si>
+    <t>Mesonia aquimarina</t>
+  </si>
+  <si>
+    <t>Polaribacter sp003537695</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp003946915</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp002303885</t>
+  </si>
+  <si>
+    <t>GCA-002723295 sp002711185</t>
+  </si>
+  <si>
+    <t>Flavobacterium indicum</t>
+  </si>
+  <si>
+    <t>UBA7446 sp.</t>
+  </si>
+  <si>
+    <t>Robertkochia sp.</t>
+  </si>
+  <si>
+    <t>Flavobacterium croceum</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp000812945</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp003254585</t>
+  </si>
+  <si>
+    <t>Confluentibacter citreus</t>
+  </si>
+  <si>
+    <t>Aequorivita sp900489465</t>
+  </si>
+  <si>
+    <t>Flavobacterium denitrificans</t>
+  </si>
+  <si>
+    <t>SZUA-72 sp003232435</t>
+  </si>
+  <si>
+    <t>Salinimicrobium terrae</t>
+  </si>
+  <si>
+    <t>Kaistella palustre</t>
+  </si>
+  <si>
+    <t>Sinomicrobium pectinilyticum</t>
+  </si>
+  <si>
+    <t>Epilithonimonas sp000735135</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp003525665</t>
+  </si>
+  <si>
+    <t>MED-G14 sp002702385</t>
+  </si>
+  <si>
+    <t>GCA-2700405 sp002700405</t>
+  </si>
+  <si>
+    <t>Lutibacter sp004195315</t>
+  </si>
+  <si>
+    <t>Flavobacterium limnosediminis</t>
+  </si>
+  <si>
+    <t>Flavobacterium xinjiangense</t>
+  </si>
+  <si>
+    <t>Aquimarina agarilytica</t>
+  </si>
+  <si>
+    <t>Aquimarina pacifica</t>
+  </si>
+  <si>
+    <t>Polaribacter sp005885675</t>
+  </si>
+  <si>
+    <t>Aquimarina brevivitae</t>
+  </si>
+  <si>
+    <t>UBA6231 sp002441545</t>
+  </si>
+  <si>
+    <t>Leeuwenhoekiella sp.</t>
+  </si>
+  <si>
+    <t>Chryseobacterium oleae</t>
+  </si>
+  <si>
+    <t>Flavobacterium anhuiense_A</t>
+  </si>
+  <si>
+    <t>MAR-2010-188 sp900104375</t>
+  </si>
+  <si>
+    <t>Flavobacterium beibuense_A</t>
+  </si>
+  <si>
+    <t>Winogradskyella tangerina</t>
+  </si>
+  <si>
+    <t>Zunongwangia mangrovi</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp002835665</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp003963025</t>
+  </si>
+  <si>
+    <t>Galbibacter marinus</t>
+  </si>
+  <si>
+    <t>Winogradskyella sp004211785</t>
+  </si>
+  <si>
+    <t>Aquimarina sp002846555</t>
+  </si>
+  <si>
+    <t>GCA-2700405 sp.</t>
+  </si>
+  <si>
+    <t>Gramella sp003024155</t>
+  </si>
+  <si>
+    <t>UBA8316 sp002716845</t>
+  </si>
+  <si>
+    <t>Flavobacterium aquidurense_B</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp003384725</t>
+  </si>
+  <si>
+    <t>Tenacibaculum jejuense</t>
+  </si>
+  <si>
+    <t>Chryseobacterium wanjuense</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp001507425</t>
+  </si>
+  <si>
+    <t>Pricia antarctica</t>
+  </si>
+  <si>
+    <t>Nonlabens sp003865345</t>
+  </si>
+  <si>
+    <t>Dokdonia sp003095655</t>
+  </si>
+  <si>
+    <t>Polaribacter haliotis</t>
+  </si>
+  <si>
+    <t>Winogradskyella sp002364335</t>
+  </si>
+  <si>
+    <t>Chryseobacterium elymi</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp002304005</t>
+  </si>
+  <si>
+    <t>Zobellia uliginosa</t>
+  </si>
+  <si>
+    <t>Psychroflexus sp003565575</t>
+  </si>
+  <si>
+    <t>Maribacter_A sp000153165</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp004349355</t>
+  </si>
+  <si>
+    <t>Flavobacterium beibuense</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp000745775</t>
+  </si>
+  <si>
+    <t>Altibacter sp.</t>
+  </si>
+  <si>
+    <t>Weeksella massiliensis</t>
+  </si>
+  <si>
+    <t>Myroides sp003865405</t>
+  </si>
+  <si>
+    <t>Gaetbulibacter saemankumensis</t>
+  </si>
+  <si>
+    <t>Dokdonia sp.</t>
+  </si>
+  <si>
+    <t>Chishuiella sp002430925</t>
+  </si>
+  <si>
+    <t>UBA3537 sp001735715</t>
+  </si>
+  <si>
+    <t>Leeuwenhoekiella polynyae</t>
+  </si>
+  <si>
+    <t>Wenyingzhuangia fucanilytica</t>
+  </si>
+  <si>
+    <t>Olleya aquimaris</t>
+  </si>
+  <si>
+    <t>Flavobacterium cutihirudinis</t>
+  </si>
+  <si>
+    <t>Gelidibacter gilvus</t>
+  </si>
+  <si>
+    <t>MS024-2A sp002705385</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp001464475</t>
+  </si>
+  <si>
+    <t>Polaribacter sp000152945</t>
+  </si>
+  <si>
+    <t>Kaistella humi</t>
+  </si>
+  <si>
+    <t>Aquimarina sp900312815</t>
+  </si>
+  <si>
+    <t>Muricauda beolgyonensis</t>
+  </si>
+  <si>
+    <t>Robiginitalea sp002198115</t>
+  </si>
+  <si>
+    <t>MAG-121220-bin8 sp002702895</t>
+  </si>
+  <si>
+    <t>Psychroflexus sp006120725</t>
+  </si>
+  <si>
+    <t>Kordia zhangzhouensis</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp002862755</t>
+  </si>
+  <si>
+    <t>Flavobacterium kingsejongi</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp001045445</t>
+  </si>
+  <si>
+    <t>Riemerella columbina</t>
+  </si>
+  <si>
+    <t>Gillisia sp000403785</t>
+  </si>
+  <si>
+    <t>Flavobacterium terrae</t>
+  </si>
+  <si>
+    <t>Winogradskyella sp005869935</t>
+  </si>
+  <si>
+    <t>Confluentibacter sp002843175</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp000282055</t>
+  </si>
+  <si>
+    <t>Flaviramulus sp.</t>
+  </si>
+  <si>
+    <t>Muricauda eckloniae</t>
+  </si>
+  <si>
+    <t>Mesonia sp006546625</t>
+  </si>
+  <si>
+    <t>Gelidibacter sp002426015</t>
+  </si>
+  <si>
+    <t>Cellulophaga tyrosinoxydans</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp000799455</t>
+  </si>
+  <si>
+    <t>Flavobacterium tibetense</t>
+  </si>
+  <si>
+    <t>Nonlabens sp000153385</t>
+  </si>
+  <si>
+    <t>Psychroserpens damuponensis</t>
+  </si>
+  <si>
+    <t>Aquimarina sp900299505</t>
+  </si>
+  <si>
+    <t>Flavobacterium gelidilacus</t>
+  </si>
+  <si>
+    <t>Joostella sp.</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp007097245</t>
+  </si>
+  <si>
+    <t>Joostella marina</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp004368785</t>
+  </si>
+  <si>
+    <t>Flavobacterium aquicola</t>
+  </si>
+  <si>
+    <t>Chryseobacterium indologenes_F</t>
+  </si>
+  <si>
+    <t>LPB0005 sp001637325</t>
+  </si>
+  <si>
+    <t>Flavobacterium weaverense</t>
+  </si>
+  <si>
+    <t>Flavobacterium xanthum</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp003347605</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp003815675</t>
+  </si>
+  <si>
     <t>Flavobacterium magnum</t>
   </si>
   <si>
-    <t>Epilithonimonas sp000735135</t>
-  </si>
-  <si>
-    <t>Myroides sp002286775</t>
-  </si>
-  <si>
-    <t>LPB0005 sp001637325</t>
-  </si>
-  <si>
-    <t>Kordia algicida</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002483315</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp000744835</t>
-  </si>
-  <si>
-    <t>Polaribacter sp002163675</t>
-  </si>
-  <si>
-    <t>Lutibacter flavus</t>
-  </si>
-  <si>
-    <t>Nonlabens sp000153385</t>
-  </si>
-  <si>
-    <t>Chishuiella sp002430925</t>
-  </si>
-  <si>
-    <t>Lutibacter maritimus</t>
-  </si>
-  <si>
-    <t>Pseudozobellia sp002813285</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp003669035</t>
-  </si>
-  <si>
-    <t>Kriegella aquimaris</t>
-  </si>
-  <si>
-    <t>MED-G13 sp.</t>
-  </si>
-  <si>
-    <t>Tenacibaculum_A todarodis</t>
-  </si>
-  <si>
-    <t>Flavobacterium croceum</t>
-  </si>
-  <si>
-    <t>Maribacter antarcticus</t>
-  </si>
-  <si>
-    <t>Ulvibacter_A alkanivorans</t>
-  </si>
-  <si>
-    <t>Robiginitalea sp002198115</t>
-  </si>
-  <si>
-    <t>Muricauda sp002167435</t>
-  </si>
-  <si>
-    <t>Winogradskyella sp000171875</t>
-  </si>
-  <si>
-    <t>GCA-2700405 sp002700405</t>
-  </si>
-  <si>
-    <t>Winogradskyella sp002706045</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp003202435</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp004362055</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002454195</t>
-  </si>
-  <si>
-    <t>Gilvibacter sp.</t>
-  </si>
-  <si>
-    <t>Epilithonimonas zeae</t>
-  </si>
-  <si>
-    <t>Kaistella chaponense</t>
-  </si>
-  <si>
-    <t>GCA-002733185 sp002713705</t>
-  </si>
-  <si>
-    <t>Wenyingzhuangia fucanilytica</t>
-  </si>
-  <si>
-    <t>Flaviramulus basaltis</t>
-  </si>
-  <si>
-    <t>Flavobacterium faecale</t>
-  </si>
-  <si>
-    <t>UBA3537 sp002698705</t>
-  </si>
-  <si>
-    <t>UBA3478 sp002691685</t>
-  </si>
-  <si>
-    <t>Pseudozobellia thermophila</t>
-  </si>
-  <si>
-    <t>Formosa haliotis</t>
-  </si>
-  <si>
-    <t>Flaviramulus_A ichthyoenteri</t>
-  </si>
-  <si>
-    <t>MED-G14 sp003331875</t>
-  </si>
-  <si>
-    <t>Winogradskyella sp005869935</t>
-  </si>
-  <si>
-    <t>Jejuia jejuensis</t>
-  </si>
-  <si>
-    <t>Psychroserpens damuponensis</t>
-  </si>
-  <si>
-    <t>Flavicella sp002477565</t>
-  </si>
-  <si>
-    <t>Flavobacterium xueshanense</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp001874325</t>
-  </si>
-  <si>
-    <t>GCA-2733415 sp002733415</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp006829085</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp001464475</t>
-  </si>
-  <si>
-    <t>Ochrovirga pacifica</t>
-  </si>
-  <si>
-    <t>Aquimarina sp002846555</t>
-  </si>
-  <si>
-    <t>Salinimicrobium sp.</t>
-  </si>
-  <si>
-    <t>GCA-002733185 sp004214175</t>
-  </si>
-  <si>
-    <t>Flavobacterium terrae</t>
-  </si>
-  <si>
-    <t>Tenacibaculum sp900239505</t>
-  </si>
-  <si>
-    <t>Flavobacterium kingsejongi</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp001507425</t>
-  </si>
-  <si>
-    <t>Flavobacterium gelidilacus</t>
-  </si>
-  <si>
-    <t>Zeaxanthinibacter sp001683825</t>
-  </si>
-  <si>
-    <t>Winogradskyella sp003335675</t>
-  </si>
-  <si>
-    <t>Nonlabens sp001413925</t>
-  </si>
-  <si>
-    <t>Olleya aquimaris</t>
-  </si>
-  <si>
-    <t>MS024-2A sp002705385</t>
-  </si>
-  <si>
-    <t>Lutibacter jeungdoensis</t>
-  </si>
-  <si>
-    <t>Xanthomarina sp003144015</t>
-  </si>
-  <si>
-    <t>Flavobacterium frigoris</t>
-  </si>
-  <si>
-    <t>Flavobacterium lindanitolerans_A</t>
-  </si>
-  <si>
-    <t>UBA7949 sp003449015</t>
-  </si>
-  <si>
-    <t>Epilithonimonas sp002476905</t>
-  </si>
-  <si>
-    <t>Psychroserpens jangbogonensis</t>
-  </si>
-  <si>
-    <t>GCA-002723295 sp002723295</t>
-  </si>
-  <si>
-    <t>Tenacibaculum jejuense</t>
-  </si>
-  <si>
-    <t>Tamlana_A sp.</t>
-  </si>
-  <si>
-    <t>Formosa sp007197735</t>
-  </si>
-  <si>
-    <t>Myroides phaeus</t>
-  </si>
-  <si>
-    <t>Altibacter lentus</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp003105115</t>
-  </si>
-  <si>
-    <t>Tenacibaculum caenipelagi</t>
-  </si>
-  <si>
-    <t>Chryseobacterium angstadtii</t>
-  </si>
-  <si>
-    <t>Lacinutrix algicola</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp004349085</t>
-  </si>
-  <si>
-    <t>Jejuia pacifica</t>
-  </si>
-  <si>
-    <t>Gramella sp006714895</t>
-  </si>
-  <si>
-    <t>CCMM003 sp003626755</t>
-  </si>
-  <si>
-    <t>Flavivirga eckloniae</t>
-  </si>
-  <si>
-    <t>Muricauda eckloniae</t>
-  </si>
-  <si>
-    <t>Flavobacterium tegetincola</t>
-  </si>
-  <si>
-    <t>Gramella sp004332155</t>
-  </si>
-  <si>
-    <t>Aureitalea marina</t>
-  </si>
-  <si>
-    <t>Chryseobacterium indologenes_E</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002862755</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp003971235</t>
-  </si>
-  <si>
-    <t>Aquimarina pacifica</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp000282055</t>
-  </si>
-  <si>
-    <t>Tenacibaculum sp002954385</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp007109225</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp004801375</t>
-  </si>
-  <si>
-    <t>Gramella sp900105135</t>
-  </si>
-  <si>
-    <t>Chryseobacterium wanjuense</t>
-  </si>
-  <si>
-    <t>GCA-002723295 sp002711185</t>
-  </si>
-  <si>
-    <t>Tenacibaculum soleae</t>
-  </si>
-  <si>
-    <t>Flavobacterium daejeonense</t>
-  </si>
-  <si>
-    <t>Marinirhabdus sp.</t>
-  </si>
-  <si>
-    <t>Maribacter_A sp002749285</t>
-  </si>
-  <si>
-    <t>Ichthyenterobacterium sp002162765</t>
-  </si>
-  <si>
-    <t>Psychroflexus salarius</t>
-  </si>
-  <si>
-    <t>Chryseobacterium taiwanense</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp000745535</t>
-  </si>
-  <si>
-    <t>Nonlabens sp003966335</t>
-  </si>
-  <si>
-    <t>Flavobacterium beibuense</t>
-  </si>
-  <si>
-    <t>Marixanthomonas sp002364245</t>
-  </si>
-  <si>
-    <t>Epilithonimonas sp002297505</t>
-  </si>
-  <si>
-    <t>Kordia jejudonensis</t>
-  </si>
-  <si>
-    <t>Lutibacter agarilyticus</t>
-  </si>
-  <si>
-    <t>Kaistella sp004359195</t>
-  </si>
-  <si>
-    <t>LPB0138 sp002401215</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002754195</t>
-  </si>
-  <si>
-    <t>Gelidibacter mesophilus</t>
-  </si>
-  <si>
-    <t>Polaribacter sp005885675</t>
-  </si>
-  <si>
-    <t>Nonlabens sp.</t>
-  </si>
-  <si>
-    <t>Tamlana_B sedimentorum</t>
-  </si>
-  <si>
-    <t>Chryseobacterium polytrichastri</t>
-  </si>
-  <si>
-    <t>SZUA-72 sp.</t>
-  </si>
-  <si>
-    <t>Mesonia sp003233725</t>
-  </si>
-  <si>
-    <t>Dokdonia pacifica</t>
-  </si>
-  <si>
-    <t>Flavobacterium sasangense</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp004349135</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp000264055</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp001045455</t>
-  </si>
-  <si>
-    <t>Epilithonimonas sp001898785</t>
-  </si>
-  <si>
-    <t>Gillisia mitskevichiae</t>
-  </si>
-  <si>
-    <t>Flavobacterium fluvii</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp005792865</t>
-  </si>
-  <si>
-    <t>GCA-2747105 sp002747105</t>
-  </si>
-  <si>
-    <t>Salegentibacter flavus</t>
-  </si>
-  <si>
-    <t>Mangrovimonas yunxiaonensis</t>
-  </si>
-  <si>
-    <t>Kaistella frigidisoli</t>
-  </si>
-  <si>
-    <t>TMED220 sp002702875</t>
-  </si>
-  <si>
-    <t>Aureicoccus marinus</t>
-  </si>
-  <si>
-    <t>Maribacter sp003933245</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp004349355</t>
-  </si>
-  <si>
-    <t>Epilithonimonas arachidiradicis</t>
-  </si>
-  <si>
-    <t>MAG-121220-bin8 sp002702895</t>
-  </si>
-  <si>
-    <t>HC6-5 sp003450155</t>
-  </si>
-  <si>
-    <t>Epilithonimonas sp001643375</t>
-  </si>
-  <si>
-    <t>YIM-102668 sp003687725</t>
-  </si>
-  <si>
-    <t>Psychroserpens mesophilus</t>
-  </si>
-  <si>
-    <t>Algibacter_D aestuarii</t>
-  </si>
-  <si>
-    <t>Cellulophaga fucicola</t>
-  </si>
-  <si>
-    <t>Galbibacter marinus</t>
-  </si>
-  <si>
-    <t>Kordia sp006383075</t>
-  </si>
-  <si>
-    <t>Winogradskyella arenosi</t>
-  </si>
-  <si>
-    <t>Capnocytophaga sp000318275</t>
-  </si>
-  <si>
-    <t>MED-G14 sp002702385</t>
-  </si>
-  <si>
-    <t>Winogradskyella sp000828715</t>
-  </si>
-  <si>
-    <t>Jejuia sp004310325</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002280815</t>
-  </si>
-  <si>
-    <t>Soonwooa buanensis</t>
-  </si>
-  <si>
-    <t>Maribacter sp005885635</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp004303025</t>
-  </si>
-  <si>
-    <t>Flavicella sp.</t>
-  </si>
-  <si>
-    <t>Gillisia limnaea</t>
-  </si>
-  <si>
-    <t>Xanthomarina spongicola</t>
-  </si>
-  <si>
-    <t>MS024-2A_A sp002457295</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002256285</t>
-  </si>
-  <si>
-    <t>Planobacterium sp002319955</t>
-  </si>
-  <si>
-    <t>LPB0138 sp002733665</t>
-  </si>
-  <si>
-    <t>Algibacter_B sp003143755</t>
-  </si>
-  <si>
-    <t>Dokdonia sp003095655</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp000737715</t>
-  </si>
-  <si>
-    <t>Flavobacterium terrigena</t>
-  </si>
-  <si>
-    <t>Flavobacterium aquaticum</t>
-  </si>
-  <si>
-    <t>Kaistella sp001403755</t>
-  </si>
-  <si>
-    <t>Marixanthomonas sp002631855</t>
-  </si>
-  <si>
-    <t>Cellulophaga sp000799565</t>
-  </si>
-  <si>
-    <t>RR4-38 sp002966125</t>
-  </si>
-  <si>
-    <t>GCA-2719315 sp002719315</t>
-  </si>
-  <si>
-    <t>Aquimarina brevivitae</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002421645</t>
-  </si>
-  <si>
-    <t>Maribacter thermophilus</t>
-  </si>
-  <si>
-    <t>UBA8316 sp002336305</t>
-  </si>
-  <si>
-    <t>Flavobacterium alvei</t>
-  </si>
-  <si>
-    <t>Flavobacterium micromati</t>
-  </si>
-  <si>
-    <t>GCA-2747695 sp.</t>
-  </si>
-  <si>
-    <t>Jejuia sp002428965</t>
-  </si>
-  <si>
-    <t>Polaribacter haliotis</t>
-  </si>
-  <si>
-    <t>Epilithonimonas sp003248755</t>
-  </si>
-  <si>
-    <t>Flavobacterium cyanobacteriorum</t>
-  </si>
-  <si>
-    <t>Flavobacterium hercynium</t>
-  </si>
-  <si>
-    <t>Chryseobacterium limigenitum</t>
-  </si>
-  <si>
-    <t>Lutibacter sp003260195</t>
-  </si>
-  <si>
-    <t>Muriicola sp004139715</t>
-  </si>
-  <si>
-    <t>GCA-002723295 sp002721275</t>
-  </si>
-  <si>
-    <t>Kordia periserrulae</t>
-  </si>
-  <si>
-    <t>UBA3376 sp002359055</t>
-  </si>
-  <si>
-    <t>Myroides sp002807015</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp002835665</t>
-  </si>
-  <si>
-    <t>Muricauda pacifica_A</t>
-  </si>
-  <si>
-    <t>Kaistella sp002415135</t>
-  </si>
-  <si>
-    <t>Leeuwenhoekiella polynyae</t>
-  </si>
-  <si>
-    <t>Psychroflexus sp003931895</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp003403075</t>
-  </si>
-  <si>
-    <t>Maribacter sp005771495</t>
-  </si>
-  <si>
-    <t>CAU-1491 sp005047595</t>
-  </si>
-  <si>
-    <t>Gelidibacter sediminis</t>
-  </si>
-  <si>
-    <t>Epilithonimonas xixisoli</t>
-  </si>
-  <si>
-    <t>Flavobacterium jejuense</t>
-  </si>
-  <si>
-    <t>Flavobacterium filum</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002482975</t>
-  </si>
-  <si>
-    <t>SZUA-72 sp003232435</t>
-  </si>
-  <si>
-    <t>UBA7949 sp002352665</t>
-  </si>
-  <si>
-    <t>Myroides marinum</t>
-  </si>
-  <si>
-    <t>Tenacibaculum sp002836595</t>
-  </si>
-  <si>
-    <t>MS024-2A sp002169865</t>
-  </si>
-  <si>
-    <t>Zeaxanthinibacter sp.</t>
-  </si>
-  <si>
-    <t>Salinimicrobium sediminis</t>
-  </si>
-  <si>
-    <t>Aquimarina sp006443095</t>
-  </si>
-  <si>
-    <t>Salegentibacter sp000745315</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp004028155</t>
-  </si>
-  <si>
-    <t>Muricauda sp004804315</t>
-  </si>
-  <si>
-    <t>Oceanihabitans himadriensis</t>
-  </si>
-  <si>
-    <t>Nonlabens sp900101765</t>
-  </si>
-  <si>
-    <t>Gillisia sp000403785</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp001297705</t>
-  </si>
-  <si>
-    <t>GCA-002401385 sp002400885</t>
-  </si>
-  <si>
-    <t>CG1-02-35-72 sp.</t>
-  </si>
-  <si>
-    <t>MED-G14 sp002457715</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp000745795</t>
-  </si>
-  <si>
-    <t>Maribacter sp005943945</t>
-  </si>
-  <si>
-    <t>Elizabethkingia sp003852805</t>
-  </si>
-  <si>
-    <t>Tamlana_A sp002893765</t>
-  </si>
-  <si>
-    <t>PRS1 sp003709165</t>
-  </si>
-  <si>
-    <t>Psychroflexus aestuariivivens</t>
-  </si>
-  <si>
-    <t>Arenibacter sp003201775</t>
-  </si>
-  <si>
-    <t>MS024-2A sp002167945</t>
-  </si>
-  <si>
-    <t>Lacinutrix sp000934685</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp000799455</t>
-  </si>
-  <si>
-    <t>Flavobacterium crocinum</t>
-  </si>
-  <si>
-    <t>Algibacter_A alginicilyticus</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp004959765</t>
-  </si>
-  <si>
-    <t>Riemerella columbipharyngis</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp003202405</t>
-  </si>
-  <si>
-    <t>MED-G13 sp002697255</t>
-  </si>
-  <si>
-    <t>Winogradskyella jejuensis</t>
-  </si>
-  <si>
-    <t>Muricauda ruestringensis</t>
-  </si>
-  <si>
-    <t>UBA8316 sp002171295</t>
-  </si>
-  <si>
-    <t>Flavobacterium succinicans_A</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp000799235</t>
-  </si>
-  <si>
-    <t>Flavobacterium fontis</t>
-  </si>
-  <si>
-    <t>Chryseobacterium ureilyticum</t>
-  </si>
-  <si>
-    <t>Salegentibacter sediminis</t>
-  </si>
-  <si>
-    <t>Chryseobacterium defluvii</t>
-  </si>
-  <si>
-    <t>Hanstruepera neustonica</t>
-  </si>
-  <si>
-    <t>Aquimarina megaterium</t>
-  </si>
-  <si>
-    <t>GCA-002733185 sp002733185</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002382495</t>
-  </si>
-  <si>
-    <t>Aurantibacter aestuarii</t>
-  </si>
-  <si>
-    <t>PDQE01 sp002747735</t>
-  </si>
-  <si>
-    <t>Tenacibaculum sp004337695</t>
-  </si>
-  <si>
-    <t>Maribacter caenipelagi</t>
-  </si>
-  <si>
-    <t>Maribacter ulvicola</t>
-  </si>
-  <si>
-    <t>Changchengzhania lutea</t>
-  </si>
-  <si>
-    <t>Chryseobacterium oncorhynchi</t>
-  </si>
-  <si>
-    <t>Lacinutrix sp001874145</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp003350375</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp004293045</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp007097245</t>
-  </si>
-  <si>
-    <t>Flaviramulus_A sp002741945</t>
-  </si>
-  <si>
-    <t>Aquimarina agarilytica</t>
-  </si>
-  <si>
-    <t>UBA8316 sp002695445</t>
-  </si>
-  <si>
-    <t>Chryseobacterium glaciei</t>
-  </si>
-  <si>
-    <t>Flavobacterium_B sp002256385</t>
-  </si>
-  <si>
-    <t>Winogradskyella eximia</t>
-  </si>
-  <si>
-    <t>Confluentibacter sp003258355</t>
-  </si>
-  <si>
-    <t>MED-G14 sp003331885</t>
-  </si>
-  <si>
-    <t>Tamlana_A sp006265225</t>
-  </si>
-  <si>
-    <t>Chryseobacterium soli</t>
-  </si>
-  <si>
-    <t>Arenibacter troitsensis</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp000426145</t>
-  </si>
-  <si>
-    <t>LPB0138 sp001761325</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp004295795</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp004122165</t>
-  </si>
-  <si>
-    <t>Gramella portivictoriae</t>
-  </si>
-  <si>
-    <t>Polaribacter sp002163835</t>
-  </si>
-  <si>
-    <t>Robiginitalea myxolifaciens</t>
-  </si>
-  <si>
-    <t>Gelidibacter sp002426015</t>
-  </si>
-  <si>
-    <t>Polaribacter sp000687935</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp000812945</t>
-  </si>
-  <si>
-    <t>MED-G14 sp002691165</t>
-  </si>
-  <si>
-    <t>Mangrovimonas sp003944795</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp003865365</t>
-  </si>
-  <si>
-    <t>Aequorivita aquimaris</t>
-  </si>
-  <si>
-    <t>Myroides odoratus_A</t>
-  </si>
-  <si>
-    <t>MED-G14 sp002693085</t>
-  </si>
-  <si>
-    <t>Flavobacterium cupreum</t>
-  </si>
-  <si>
-    <t>Muricauda flava</t>
-  </si>
-  <si>
-    <t>Maribacter vaceletii</t>
-  </si>
-  <si>
-    <t>Joostella marina</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp002216065</t>
-  </si>
-  <si>
-    <t>Maribacter orientalis</t>
-  </si>
-  <si>
-    <t>Flavobacterium cucumis</t>
-  </si>
-  <si>
-    <t>Cloacibacterium sp002337005</t>
-  </si>
-  <si>
-    <t>UM-FILTER-40-17 sp002790195</t>
-  </si>
-  <si>
-    <t>Mesonia aquimarina</t>
-  </si>
-  <si>
-    <t>Tenacibaculum sp004762155</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp001424585</t>
-  </si>
-  <si>
-    <t>UBA7684 sp002482885</t>
-  </si>
-  <si>
-    <t>Gramella forsetii</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp001027725</t>
-  </si>
-  <si>
-    <t>Tamlana_A sp004804355</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002150205</t>
-  </si>
-  <si>
-    <t>Flavicella sediminum</t>
-  </si>
-  <si>
-    <t>Chryseobacterium artocarpi</t>
-  </si>
-  <si>
-    <t>Zunongwangia atlantica</t>
-  </si>
-  <si>
-    <t>Flavobacterium johnsoniae_A</t>
-  </si>
-  <si>
-    <t>GCA-2746415 sp.</t>
-  </si>
-  <si>
-    <t>Flaviramulus_A sp.</t>
-  </si>
-  <si>
-    <t>Gilvibacter sp003229235</t>
-  </si>
-  <si>
-    <t>Aequorivita sp004022485</t>
-  </si>
-  <si>
-    <t>Chryseobacterium luteum</t>
-  </si>
-  <si>
-    <t>Capnocytophaga sp002999135</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp003663845</t>
-  </si>
-  <si>
-    <t>Myroides sp002320285</t>
-  </si>
-  <si>
-    <t>Mesonia phycicola</t>
-  </si>
-  <si>
-    <t>UBA7446 sp.</t>
-  </si>
-  <si>
-    <t>Lutibacter sp004195315</t>
-  </si>
-  <si>
-    <t>Psychroserpens sp002162685</t>
-  </si>
-  <si>
-    <t>Formosa agariphila</t>
-  </si>
-  <si>
-    <t>Polaribacter butkevichii</t>
-  </si>
-  <si>
-    <t>Flavobacterium aciduliphilum</t>
-  </si>
-  <si>
-    <t>Joostella sp.</t>
-  </si>
-  <si>
-    <t>Muricauda sp004916895</t>
-  </si>
-  <si>
-    <t>Flavobacterium antarcticum</t>
-  </si>
-  <si>
-    <t>Myroides sp004151275</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002303885</t>
-  </si>
-  <si>
-    <t>Gramella salexigens</t>
-  </si>
-  <si>
-    <t>Chryseobacterium arachidis</t>
-  </si>
-  <si>
-    <t>SGZJ01 sp004213995</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp900169075</t>
-  </si>
-  <si>
-    <t>Chryseobacterium aurantiacum</t>
-  </si>
-  <si>
-    <t>Salinimicrobium xinjiangense</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp003347605</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp004368785</t>
-  </si>
-  <si>
-    <t>Flaviramulus sp.</t>
-  </si>
-  <si>
-    <t>Chryseobacterium takakiae</t>
-  </si>
-  <si>
-    <t>Nonlabens sp002831625</t>
-  </si>
-  <si>
-    <t>Polaribacter filamentus</t>
-  </si>
-  <si>
-    <t>Zobellia sp.</t>
-  </si>
-  <si>
-    <t>Flavobacterium pallidum</t>
-  </si>
-  <si>
-    <t>Polaribacter sp002831685</t>
-  </si>
-  <si>
-    <t>Arenibacter hampyeongensis</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp001424145</t>
-  </si>
-  <si>
-    <t>GCA-2700405 sp004213965</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp004293165</t>
-  </si>
-  <si>
-    <t>UBA3537 sp002690085</t>
-  </si>
-  <si>
-    <t>Muricauda sp005937185</t>
-  </si>
-  <si>
-    <t>Epilithonimonas tenax</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp003634825</t>
-  </si>
-  <si>
-    <t>Jejuia sp.</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp001422725</t>
-  </si>
-  <si>
-    <t>Riemerella columbina</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp001045445</t>
-  </si>
-  <si>
-    <t>Gramella gaetbulicola</t>
-  </si>
-  <si>
-    <t>Dokdonia sp000355805</t>
-  </si>
-  <si>
-    <t>Chishuiella changwenlii</t>
-  </si>
-  <si>
-    <t>Sinomicrobium pectinilyticum</t>
-  </si>
-  <si>
-    <t>Seonamhaeicola aphaedonensis</t>
-  </si>
-  <si>
-    <t>Tenacibaculum gallaicum</t>
-  </si>
-  <si>
-    <t>Flavobacterium caeni</t>
-  </si>
-  <si>
-    <t>Gaetbulibacter saemankumensis</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp002899825</t>
-  </si>
-  <si>
-    <t>Maribacter spongiicola</t>
-  </si>
-  <si>
-    <t>Polaribacter atrinae</t>
-  </si>
-  <si>
-    <t>Chryseobacterium elymi</t>
-  </si>
-  <si>
-    <t>UBA6231 sp.</t>
-  </si>
-  <si>
-    <t>UBA2674 sp002693605</t>
-  </si>
-  <si>
-    <t>Polaribacter tangerinus</t>
-  </si>
-  <si>
-    <t>Maribacter_A sp000153165</t>
-  </si>
-  <si>
-    <t>GCA-2747695 sp002747695</t>
-  </si>
-  <si>
-    <t>Muricauda sp003058265</t>
-  </si>
-  <si>
-    <t>Flavobacterium aquidurense_B</t>
-  </si>
-  <si>
-    <t>Psychroflexus sediminis</t>
-  </si>
-  <si>
-    <t>Myroides sp003865405</t>
-  </si>
-  <si>
-    <t>Nonlabens spongiae</t>
-  </si>
-  <si>
-    <t>Ornithobacterium rhinotracheale_A</t>
-  </si>
-  <si>
-    <t>Flavobacterium anhuiense_A</t>
-  </si>
-  <si>
-    <t>Polaribacter gangjinensis</t>
-  </si>
-  <si>
-    <t>Lacinutrix sp002831665</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp001421435</t>
-  </si>
-  <si>
-    <t>Marixanthomonas sp003095375</t>
-  </si>
-  <si>
-    <t>UBA8316 sp002716845</t>
-  </si>
-  <si>
-    <t>Muricauda sp003269425</t>
-  </si>
-  <si>
-    <t>Winogradskyella aurantiaca</t>
-  </si>
-  <si>
-    <t>Cellulophaga sp001999725</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp003946915</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp002455915</t>
-  </si>
-  <si>
-    <t>Maribacter sp002742265</t>
-  </si>
-  <si>
-    <t>Flavobacterium psychrophilum_B</t>
-  </si>
-  <si>
-    <t>Empedobacter sp004785645</t>
-  </si>
-  <si>
-    <t>Epilithonimonas sp002345565</t>
-  </si>
-  <si>
-    <t>Flavobacterium omnivorum</t>
-  </si>
-  <si>
-    <t>Aequorivita capsosiphonis</t>
-  </si>
-  <si>
-    <t>Oceanihabitans sp.</t>
-  </si>
-  <si>
-    <t>Lacinutrix sp000211855</t>
-  </si>
-  <si>
-    <t>Polaribacter sp000981625</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp004329815</t>
-  </si>
-  <si>
-    <t>GCA-002728855 sp002728855</t>
-  </si>
-  <si>
-    <t>Flavobacterium daejeonense_A</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp002434285</t>
-  </si>
-  <si>
-    <t>TMED96 sp002728075</t>
-  </si>
-  <si>
-    <t>Muricauda sp000745185</t>
-  </si>
-  <si>
-    <t>Flavobacterium ginsenosidimutans</t>
-  </si>
-  <si>
-    <t>Flavobacterium xanthum</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp000829375</t>
-  </si>
-  <si>
-    <t>Pricia antarctica</t>
-  </si>
-  <si>
-    <t>Psychroflexus sp006120725</t>
-  </si>
-  <si>
-    <t>MED-G11 sp004214015</t>
-  </si>
-  <si>
-    <t>Chryseobacterium camelliae</t>
-  </si>
-  <si>
-    <t>Sinomicrobium oceani</t>
-  </si>
-  <si>
-    <t>Flavobacterium frigidarium</t>
-  </si>
-  <si>
-    <t>Chryseobacterium soldanellicola</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002797935</t>
-  </si>
-  <si>
-    <t>Seonamhaeicola sp004358095</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp900078205</t>
-  </si>
-  <si>
-    <t>Confluentibacter citreus</t>
-  </si>
-  <si>
-    <t>Aquimarina spongiae</t>
-  </si>
-  <si>
-    <t>Chryseobacterium gregarium</t>
-  </si>
-  <si>
-    <t>Arenibacter latericius</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp004016525</t>
-  </si>
-  <si>
-    <t>Chryseobacterium taeanense</t>
-  </si>
-  <si>
-    <t>Robiginitalea biformata</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002862805</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp001529295</t>
-  </si>
-  <si>
-    <t>Sinomicrobium sp003285545</t>
-  </si>
-  <si>
-    <t>Muricauda sp002813125</t>
-  </si>
-  <si>
-    <t>Flavobacterium defluvii</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp004122105</t>
-  </si>
-  <si>
-    <t>Cellulophaga tyrosinoxydans</t>
-  </si>
-  <si>
-    <t>TMED220 sp002169155</t>
-  </si>
-  <si>
-    <t>Capnocytophaga sp000192225</t>
-  </si>
-  <si>
-    <t>Maribacter aquivivus</t>
-  </si>
-  <si>
-    <t>Bizionia paragorgiae</t>
-  </si>
-  <si>
-    <t>Flavobacterium degerlachei</t>
-  </si>
-  <si>
-    <t>Weeksella massiliensis</t>
-  </si>
-  <si>
-    <t>MED-G13 sp002702745</t>
-  </si>
-  <si>
-    <t>Flavobacterium denitrificans</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp001800945</t>
-  </si>
-  <si>
-    <t>Flavobacterium seoulense</t>
-  </si>
-  <si>
-    <t>Tenacibaculum agarivorans</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp004211145</t>
-  </si>
-  <si>
-    <t>Psychroserpens sp000688335</t>
-  </si>
-  <si>
-    <t>Elizabethkingia sp.</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp003963025</t>
-  </si>
-  <si>
-    <t>Salegentibacter echinorum</t>
-  </si>
-  <si>
-    <t>Polaribacter irgensii</t>
-  </si>
-  <si>
-    <t>Flavobacterium psychrolimnae</t>
-  </si>
-  <si>
-    <t>Myroides guanonis</t>
-  </si>
-  <si>
-    <t>Polaribacter sp000152945</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp000967805</t>
-  </si>
-  <si>
-    <t>Aequorivita sp002733915</t>
-  </si>
-  <si>
-    <t>Flavobacterium gillisiae</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002836475</t>
-  </si>
-  <si>
-    <t>Muricauda lutimaris</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002304005</t>
-  </si>
-  <si>
-    <t>UBA6231 sp002441545</t>
-  </si>
-  <si>
-    <t>Psychroflexus sp003564185</t>
-  </si>
-  <si>
-    <t>Flavobacterium cutihirudinis</t>
-  </si>
-  <si>
-    <t>UBA8316 sp002687665</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002714575</t>
-  </si>
-  <si>
-    <t>Flavobacterium frigoris_A</t>
-  </si>
-  <si>
-    <t>Winogradskyella sp004211785</t>
-  </si>
-  <si>
-    <t>Kaistella humi</t>
-  </si>
-  <si>
-    <t>Polaribacter sp003335085</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002715085</t>
-  </si>
-  <si>
-    <t>TPBH4 sp001280505</t>
-  </si>
-  <si>
-    <t>Xanthomarina sp002366675</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp003815715</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp004119445</t>
-  </si>
-  <si>
-    <t>Psychroflexus sp003565575</t>
-  </si>
-  <si>
-    <t>UBA3537 sp.</t>
-  </si>
-  <si>
-    <t>GCA-002728855 sp002702405</t>
-  </si>
-  <si>
-    <t>Algibacter_C aquaticus</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp006175945</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp003254745</t>
-  </si>
-  <si>
-    <t>Confluentibacter lentus</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp001425355</t>
-  </si>
-  <si>
-    <t>MS024-2A sp002167525</t>
-  </si>
-  <si>
-    <t>Eudoraea adriatica</t>
-  </si>
-  <si>
-    <t>Formosa sp.</t>
-  </si>
-  <si>
-    <t>Salinimicrobium terrae</t>
-  </si>
-  <si>
-    <t>GCA-002733185 sp004213605</t>
-  </si>
-  <si>
-    <t>UBA7949 sp006065315</t>
-  </si>
-  <si>
-    <t>Tenacibaculum holothuriorum</t>
-  </si>
-  <si>
-    <t>Arenibacter nanhaiticus</t>
-  </si>
-  <si>
-    <t>Zunongwangia mangrovi</t>
-  </si>
-  <si>
-    <t>MAR-2010-188 sp006494535</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp000799335</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002422095</t>
-  </si>
-  <si>
-    <t>Arenibacter echinorum</t>
-  </si>
-  <si>
-    <t>Polaribacter sp900105145</t>
-  </si>
-  <si>
-    <t>Dokdonia sp003688895</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002296885</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp003097655</t>
-  </si>
-  <si>
-    <t>Gelidibacter gilvus</t>
-  </si>
-  <si>
-    <t>Flavobacterium foetidum</t>
-  </si>
-  <si>
-    <t>Maribacter sp003232155</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp001427905</t>
-  </si>
-  <si>
-    <t>Polaribacter porphyrae</t>
-  </si>
-  <si>
-    <t>Muricauda sp004296335</t>
-  </si>
-  <si>
-    <t>Aquimarina muelleri</t>
-  </si>
-  <si>
-    <t>Kaistella treverense</t>
-  </si>
-  <si>
-    <t>UBA7428 sp002477625</t>
-  </si>
-  <si>
-    <t>Vaginella massiliensis</t>
-  </si>
-  <si>
-    <t>MAR-2010-188 sp900104375</t>
-  </si>
-  <si>
-    <t>Arenibacter sp003957295</t>
-  </si>
-  <si>
-    <t>UBA3537_A sp002721175</t>
-  </si>
-  <si>
-    <t>Cellulophaga sp002813425</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp007097145</t>
-  </si>
-  <si>
-    <t>Myroides sp002360925</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp000708595</t>
-  </si>
-  <si>
-    <t>UBA3478 sp002691645</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp004362015</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002428305</t>
-  </si>
-  <si>
-    <t>Psychroserpens sp900104785</t>
-  </si>
-  <si>
-    <t>UBA3478 sp.</t>
-  </si>
-  <si>
-    <t>Altibacter sp002813135</t>
-  </si>
-  <si>
-    <t>Leeuwenhoekiella sp000733945</t>
-  </si>
-  <si>
-    <t>Kaistella sp001898255</t>
-  </si>
-  <si>
-    <t>Myroides ummariense</t>
-  </si>
-  <si>
-    <t>SCGC-AAA160-P02 sp000383355</t>
-  </si>
-  <si>
-    <t>Polaribacter sp003129485</t>
-  </si>
-  <si>
-    <t>Lutibacter sp004121075</t>
-  </si>
-  <si>
-    <t>Leeuwenhoekiella sp.</t>
-  </si>
-  <si>
-    <t>Chryseobacterium oleae</t>
-  </si>
-  <si>
-    <t>Winogradskyella sp001971725</t>
-  </si>
-  <si>
-    <t>Chryseobacterium daeguense</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp002979455</t>
-  </si>
-  <si>
-    <t>Psychroflexus sp002836055</t>
-  </si>
-  <si>
-    <t>Chryseobacterium indologenes_A</t>
-  </si>
-  <si>
-    <t>UBA7446 sp002862645</t>
-  </si>
-  <si>
-    <t>Flavobacterium dankookense</t>
-  </si>
-  <si>
-    <t>Flavobacterium saccharophilum</t>
-  </si>
-  <si>
-    <t>Capnocytophaga stomatis</t>
-  </si>
-  <si>
-    <t>PTET01 sp004359435</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp001975985</t>
-  </si>
-  <si>
-    <t>Chryseobacterium kwangjuense</t>
-  </si>
-  <si>
-    <t>Nonlabens arenilitoris</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp000745775</t>
-  </si>
-  <si>
-    <t>Epilithonimonas hispanicum</t>
-  </si>
-  <si>
-    <t>Psychroflexus torquis</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp000799515</t>
-  </si>
-  <si>
-    <t>Algorimicrobium sp002414705</t>
-  </si>
-  <si>
-    <t>GCA-2700405 sp.</t>
-  </si>
-  <si>
-    <t>Winogradskyella sp002682935</t>
-  </si>
-  <si>
-    <t>MED-G14 sp002703065</t>
-  </si>
-  <si>
-    <t>Flavobacterium pectinovorum_A</t>
-  </si>
-  <si>
-    <t>Leeuwenhoekiella aequorea</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002483285</t>
-  </si>
-  <si>
-    <t>Muricauda sp003382275</t>
-  </si>
-  <si>
-    <t>Psychroflexus tropicus</t>
-  </si>
-  <si>
-    <t>Mesonia mobilis</t>
-  </si>
-  <si>
-    <t>Tenacibaculum skagerrakense</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp004352915</t>
-  </si>
-  <si>
-    <t>Lutibacter sp002390165</t>
-  </si>
-  <si>
-    <t>Croceitalea dokdonensis</t>
-  </si>
-  <si>
-    <t>Flavobacterium weaverense</t>
-  </si>
-  <si>
-    <t>Gillisia sp002364325</t>
-  </si>
-  <si>
-    <t>Cellulophaga sp.</t>
-  </si>
-  <si>
-    <t>Lutibacter sp001800975</t>
-  </si>
-  <si>
-    <t>Lutibacter oricola</t>
-  </si>
-  <si>
-    <t>UBA7949 sp003813905</t>
-  </si>
-  <si>
-    <t>Mesoflavibacter sp.</t>
-  </si>
-  <si>
-    <t>Wenyingzhuangia marina</t>
-  </si>
-  <si>
-    <t>Flavobacterium tibetense</t>
-  </si>
-  <si>
-    <t>Nonlabens dokdonensis_B</t>
-  </si>
-  <si>
-    <t>Aequorivita sublithincola</t>
-  </si>
-  <si>
-    <t>Gramella sp007050985</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp003729935</t>
-  </si>
-  <si>
-    <t>Kaistella solincola</t>
-  </si>
-  <si>
-    <t>Flavobacterium album</t>
-  </si>
-  <si>
-    <t>Flavobacterium sinopsychrotolerans</t>
-  </si>
-  <si>
-    <t>Kaistella sp000023725</t>
-  </si>
-  <si>
-    <t>Winogradskyella sp002364335</t>
-  </si>
-  <si>
-    <t>Cruoricaptor ignavus</t>
-  </si>
-  <si>
-    <t>Kordia sp003352465</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp002754245</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp004745595</t>
-  </si>
-  <si>
-    <t>Kaistella palustre</t>
-  </si>
-  <si>
-    <t>Confluentibacter sp002843175</t>
-  </si>
-  <si>
-    <t>Algorimicrobium argentinensis</t>
-  </si>
-  <si>
-    <t>Moheibacter sediminis</t>
-  </si>
-  <si>
-    <t>Epilithonimonas sp002383165</t>
-  </si>
-  <si>
-    <t>Siansivirga zeaxanthinifaciens</t>
-  </si>
-  <si>
-    <t>Mariniflexile fucanivorans</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp004797125</t>
-  </si>
-  <si>
-    <t>UBA3537 sp001735715</t>
-  </si>
-  <si>
-    <t>Winogradskyella aurantia</t>
-  </si>
-  <si>
-    <t>Olleya sp002831645</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp003525665</t>
-  </si>
-  <si>
-    <t>Flavobacterium swingsii</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp001424105</t>
-  </si>
-  <si>
-    <t>Zobellia uliginosa</t>
-  </si>
-  <si>
-    <t>Myroides indicus</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp003254585</t>
-  </si>
-  <si>
-    <t>GCA-002401385 sp002401385</t>
-  </si>
-  <si>
-    <t>Empedobacter sp.</t>
-  </si>
-  <si>
-    <t>Nonlabens marinus</t>
-  </si>
-  <si>
-    <t>Tenacibaculum sp900105455</t>
-  </si>
-  <si>
-    <t>Algorimicrobium sp.</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp900156075</t>
-  </si>
-  <si>
-    <t>Flavobacterium indicum</t>
-  </si>
-  <si>
-    <t>Aquimarina macrocephali</t>
-  </si>
-  <si>
-    <t>Gramella sp003024155</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002001005</t>
-  </si>
-  <si>
-    <t>Leeuwenhoekiella sp002710685</t>
-  </si>
-  <si>
-    <t>GCA-2746415 sp002746415</t>
-  </si>
-  <si>
-    <t>Psychroflexus sp007116535</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002399805</t>
-  </si>
-  <si>
-    <t>Soonwooa sp.</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp004355225</t>
-  </si>
-  <si>
-    <t>Flavobacterium soli</t>
-  </si>
-  <si>
-    <t>Arenibacter sp003426735</t>
-  </si>
-  <si>
-    <t>Polaribacter sp003537695</t>
-  </si>
-  <si>
-    <t>Algibacter_B pectinivorans</t>
-  </si>
-  <si>
-    <t>Muricauda pacifica</t>
-  </si>
-  <si>
-    <t>QNYL01 sp003973375</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002813295</t>
-  </si>
-  <si>
-    <t>Aquimarina agarivorans</t>
-  </si>
-  <si>
-    <t>Ulvibacter litoralis</t>
-  </si>
-  <si>
-    <t>Arenibacter certesii</t>
-  </si>
-  <si>
-    <t>Flavobacterium aquicola</t>
-  </si>
-  <si>
-    <t>Marinirhabdus gelatinilytica</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp003815655</t>
-  </si>
-  <si>
-    <t>Winogradskyella epiphytica</t>
-  </si>
-  <si>
-    <t>Flavobacterium limicola</t>
-  </si>
-  <si>
-    <t>Capnocytophaga sp000466425</t>
-  </si>
-  <si>
-    <t>Antarcticibacterium flavum</t>
-  </si>
-  <si>
-    <t>Flavivirga sp.</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp000799195</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp003668995</t>
-  </si>
-  <si>
-    <t>Myroides sp003858535</t>
-  </si>
-  <si>
-    <t>Gilvibacter sp002163875</t>
-  </si>
-  <si>
-    <t>Pustulibacterium marinum</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp000333355</t>
-  </si>
-  <si>
-    <t>Aquimarina amphilecti</t>
-  </si>
-  <si>
-    <t>Epilithonimonas sp003932955</t>
-  </si>
-  <si>
-    <t>Lacinutrix jangbogonensis</t>
-  </si>
-  <si>
-    <t>Nonlabens agnitus</t>
-  </si>
-  <si>
-    <t>MED-G11 sp004213645</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp007097385</t>
-  </si>
-  <si>
-    <t>Winogradskyella tangerina</t>
-  </si>
-  <si>
-    <t>Maribacter cobaltidurans</t>
-  </si>
-  <si>
-    <t>Aquimarina sp002697475</t>
-  </si>
-  <si>
-    <t>Hel1-33-131 sp001735745</t>
-  </si>
-  <si>
-    <t>Muricauda beolgyonensis</t>
-  </si>
-  <si>
-    <t>Seonamhaeicola sp001971785</t>
-  </si>
-  <si>
-    <t>Flavivirga sp004791695</t>
-  </si>
-  <si>
-    <t>Olleya sp004843725</t>
-  </si>
-  <si>
-    <t>Leeuwenhoekiella sp000687915</t>
-  </si>
-  <si>
-    <t>Flavobacterium haoranii_A</t>
-  </si>
-  <si>
-    <t>CG2-30-34-30 sp.</t>
-  </si>
-  <si>
-    <t>Robertkochia sp.</t>
-  </si>
-  <si>
-    <t>Aquimarina sp900312815</t>
-  </si>
-  <si>
-    <t>Xanthomarina sp.</t>
-  </si>
-  <si>
-    <t>UBA7446 sp002698745</t>
-  </si>
-  <si>
-    <t>YIM-102668 sp.</t>
-  </si>
-  <si>
-    <t>Gillisia marina</t>
-  </si>
-  <si>
-    <t>UBA7428 sp002708445</t>
-  </si>
-  <si>
-    <t>Flavobacterium beibuense_A</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp003384725</t>
-  </si>
-  <si>
-    <t>Nonlabens sp003865345</t>
-  </si>
-  <si>
-    <t>Lutibacter profundi</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp001428525</t>
-  </si>
-  <si>
-    <t>Flavobacterium xinjiangense</t>
-  </si>
-  <si>
-    <t>Chryseobacterium taichungense</t>
-  </si>
-  <si>
-    <t>Sediminicola sp001430825</t>
-  </si>
-  <si>
-    <t>Zeaxanthinibacter enoshimensis</t>
-  </si>
-  <si>
-    <t>Ulvibacter antarcticus</t>
-  </si>
-  <si>
-    <t>Kordia zhangzhouensis</t>
-  </si>
-  <si>
-    <t>Chryseobacterium indologenes_F</t>
-  </si>
-  <si>
-    <t>Chryseobacterium greenlandense</t>
-  </si>
-  <si>
-    <t>Arenibacter catalasegens</t>
-  </si>
-  <si>
-    <t>Flavobacterium tistrianum</t>
-  </si>
-  <si>
-    <t>Flavobacterium urocaniciphilum</t>
-  </si>
-  <si>
-    <t>Dokdonia sp002712765</t>
-  </si>
-  <si>
-    <t>Altibacter sp.</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp004349195</t>
-  </si>
-  <si>
-    <t>CAU-1491 sp.</t>
-  </si>
-  <si>
-    <t>Muricauda sp003385855</t>
-  </si>
-  <si>
-    <t>Flavobacterium sediminis</t>
-  </si>
-  <si>
-    <t>Gelidibacter sp002426755</t>
-  </si>
-  <si>
-    <t>UBA724 sp002171575</t>
-  </si>
-  <si>
-    <t>Aquimarina atlantica</t>
-  </si>
-  <si>
-    <t>Kaistella sp002197835</t>
-  </si>
-  <si>
-    <t>Epilithonimonas molle</t>
-  </si>
-  <si>
-    <t>Marixanthomonas ophiurae</t>
-  </si>
-  <si>
-    <t>Aquimarina longa</t>
-  </si>
-  <si>
-    <t>Tenacibaculum sp002813915</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp003312915</t>
-  </si>
-  <si>
-    <t>Salegentibacter holothuriorum</t>
-  </si>
-  <si>
-    <t>Aquimarina sediminis</t>
-  </si>
-  <si>
-    <t>Dokdonia sp.</t>
-  </si>
-  <si>
-    <t>Chishuiella sp002484335</t>
-  </si>
-  <si>
-    <t>Flavobacterium aurantiibacter</t>
-  </si>
-  <si>
-    <t>Kaistella sp003692615</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002737105</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp004119495</t>
-  </si>
-  <si>
-    <t>Winogradskyella thalassocola</t>
-  </si>
-  <si>
-    <t>Maribacter arcticus</t>
-  </si>
-  <si>
-    <t>Aequorivita sp900489465</t>
-  </si>
-  <si>
-    <t>UBA8316 sp003538555</t>
-  </si>
-  <si>
-    <t>Psychroserpens sp000799465</t>
-  </si>
-  <si>
-    <t>MS024-2A sp002714815</t>
-  </si>
-  <si>
-    <t>Flavobacterium urumqiense</t>
-  </si>
-  <si>
-    <t>Muricauda koreensis</t>
-  </si>
-  <si>
-    <t>Myroides injenensis</t>
-  </si>
-  <si>
-    <t>Muricauda_A sp003712125</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp003815675</t>
-  </si>
-  <si>
-    <t>Flavobacterium phragmitis</t>
-  </si>
-  <si>
-    <t>GCA-002723295 sp002713495</t>
-  </si>
-  <si>
-    <t>Elizabethkingia sp006088815</t>
-  </si>
-  <si>
-    <t>Sediminicola_A luteus</t>
-  </si>
-  <si>
-    <t>Confluentibacter sp002280395</t>
-  </si>
-  <si>
-    <t>Imtechella halotolerans</t>
-  </si>
-  <si>
-    <t>Muricauda aquimarina</t>
-  </si>
-  <si>
-    <t>Mesonia sp006546625</t>
-  </si>
-  <si>
-    <t>Flavobacterium limnosediminis</t>
-  </si>
-  <si>
-    <t>Winogradskyella sp003712105</t>
-  </si>
-  <si>
-    <t>Winogradskyella wandonensis</t>
-  </si>
-  <si>
-    <t>Polaribacter sp000766795</t>
-  </si>
-  <si>
-    <t>Salegentibacter sp004362395</t>
-  </si>
-  <si>
-    <t>Flavobacterium segetis</t>
-  </si>
-  <si>
-    <t>Maribacter_A polysiphoniae</t>
-  </si>
-  <si>
-    <t>Robiginitalea sp.</t>
-  </si>
-  <si>
-    <t>Flavobacterium lacus</t>
-  </si>
-  <si>
-    <t>GCA-2862715 sp002862715</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp003097635</t>
-  </si>
-  <si>
-    <t>Ichthyenterobacterium magnum</t>
-  </si>
-  <si>
-    <t>Tamlana_B nanhaiensis</t>
-  </si>
-  <si>
-    <t>GCA-002401385 sp002401105</t>
-  </si>
-  <si>
-    <t>Bin25 sp002238525</t>
-  </si>
-  <si>
-    <t>Lacinutrix mariniflava</t>
-  </si>
-  <si>
-    <t>Aquimarina sp900299505</t>
-  </si>
-  <si>
     <t>Genus</t>
   </si>
   <si>
@@ -3558,24 +3558,24 @@
     <t>Arenibacter</t>
   </si>
   <si>
+    <t>Uncl. Flavobacteriaceae</t>
+  </si>
+  <si>
     <t>Lutibacter</t>
   </si>
   <si>
+    <t>Apibacter</t>
+  </si>
+  <si>
     <t>Cellulophaga</t>
   </si>
   <si>
-    <t>Apibacter</t>
-  </si>
-  <si>
-    <t>Uncl. Flavobacteriaceae</t>
+    <t>MS024-2A</t>
   </si>
   <si>
     <t>Salegentibacter</t>
   </si>
   <si>
-    <t>MS024-2A</t>
-  </si>
-  <si>
     <t>Mesonia</t>
   </si>
   <si>
@@ -3591,36 +3591,36 @@
     <t>Marinirhabdus</t>
   </si>
   <si>
+    <t>Zunongwangia</t>
+  </si>
+  <si>
+    <t>UBA6231</t>
+  </si>
+  <si>
     <t>Olleya</t>
   </si>
   <si>
-    <t>Zunongwangia</t>
-  </si>
-  <si>
-    <t>UBA6231</t>
+    <t>UBA8316</t>
   </si>
   <si>
     <t>UBA3537</t>
   </si>
   <si>
-    <t>UBA8316</t>
+    <t>UBA7446</t>
+  </si>
+  <si>
+    <t>Gelidibacter</t>
   </si>
   <si>
     <t>MED-G14</t>
   </si>
   <si>
+    <t>Psychroserpens</t>
+  </si>
+  <si>
     <t>SHLJ01</t>
   </si>
   <si>
-    <t>UBA7446</t>
-  </si>
-  <si>
-    <t>Gelidibacter</t>
-  </si>
-  <si>
-    <t>Psychroserpens</t>
-  </si>
-  <si>
     <t>MAG-121220-bin8</t>
   </si>
   <si>
@@ -3630,397 +3630,397 @@
     <t>Planobacterium</t>
   </si>
   <si>
+    <t>Dokdonia</t>
+  </si>
+  <si>
     <t>Xanthomarina</t>
   </si>
   <si>
-    <t>Dokdonia</t>
-  </si>
-  <si>
     <t>Jejuia</t>
   </si>
   <si>
     <t>Ornithobacterium</t>
   </si>
   <si>
+    <t>Lacinutrix</t>
+  </si>
+  <si>
+    <t>Marixanthomonas</t>
+  </si>
+  <si>
+    <t>Euzebyella</t>
+  </si>
+  <si>
+    <t>Algibacter</t>
+  </si>
+  <si>
     <t>UBA724</t>
   </si>
   <si>
-    <t>Lacinutrix</t>
-  </si>
-  <si>
-    <t>Algibacter</t>
-  </si>
-  <si>
-    <t>Euzebyella</t>
-  </si>
-  <si>
-    <t>Marixanthomonas</t>
-  </si>
-  <si>
     <t>CG1-02-35-72</t>
   </si>
   <si>
+    <t>Croceivirga</t>
+  </si>
+  <si>
+    <t>UBA11891</t>
+  </si>
+  <si>
+    <t>CG2-30-34-30</t>
+  </si>
+  <si>
+    <t>MED-G11</t>
+  </si>
+  <si>
     <t>Muriicola</t>
   </si>
   <si>
-    <t>UBA11891</t>
-  </si>
-  <si>
-    <t>CG2-30-34-30</t>
-  </si>
-  <si>
     <t>Kordia</t>
   </si>
   <si>
-    <t>Croceivirga</t>
-  </si>
-  <si>
-    <t>MED-G11</t>
-  </si>
-  <si>
     <t>Cloacibacterium</t>
   </si>
   <si>
     <t>Algorimicrobium</t>
   </si>
   <si>
+    <t>Zobellia</t>
+  </si>
+  <si>
+    <t>Croceibacter</t>
+  </si>
+  <si>
+    <t>Mesoflavibacter</t>
+  </si>
+  <si>
+    <t>Formosa</t>
+  </si>
+  <si>
+    <t>Muricauda_A</t>
+  </si>
+  <si>
+    <t>Salinimicrobium</t>
+  </si>
+  <si>
+    <t>UBA7428</t>
+  </si>
+  <si>
+    <t>Maribacter_A</t>
+  </si>
+  <si>
+    <t>GCA-002723295</t>
+  </si>
+  <si>
+    <t>RR4-38</t>
+  </si>
+  <si>
     <t>UBA7949</t>
   </si>
   <si>
-    <t>Zobellia</t>
-  </si>
-  <si>
-    <t>RR4-38</t>
-  </si>
-  <si>
-    <t>Formosa</t>
-  </si>
-  <si>
-    <t>Muricauda_A</t>
-  </si>
-  <si>
-    <t>Salinimicrobium</t>
-  </si>
-  <si>
-    <t>UBA7428</t>
-  </si>
-  <si>
-    <t>Maribacter_A</t>
-  </si>
-  <si>
-    <t>Croceibacter</t>
-  </si>
-  <si>
     <t>Tamlana_A</t>
   </si>
   <si>
-    <t>GCA-002723295</t>
-  </si>
-  <si>
-    <t>Mesoflavibacter</t>
+    <t>Mariniflexile</t>
+  </si>
+  <si>
+    <t>Seonamhaeicola</t>
+  </si>
+  <si>
+    <t>Confluentibacter</t>
+  </si>
+  <si>
+    <t>Altibacter</t>
+  </si>
+  <si>
+    <t>Bergeyella</t>
   </si>
   <si>
     <t>UBA3478</t>
   </si>
   <si>
+    <t>Weeksella</t>
+  </si>
+  <si>
+    <t>MED-G13</t>
+  </si>
+  <si>
+    <t>Uncl. Weeksellaceae</t>
+  </si>
+  <si>
     <t>Algibacter_B</t>
   </si>
   <si>
-    <t>MED-G13</t>
-  </si>
-  <si>
-    <t>Mariniflexile</t>
-  </si>
-  <si>
-    <t>Altibacter</t>
-  </si>
-  <si>
-    <t>Uncl. Weeksellaceae</t>
-  </si>
-  <si>
-    <t>Bergeyella</t>
-  </si>
-  <si>
-    <t>Confluentibacter</t>
-  </si>
-  <si>
-    <t>Weeksella</t>
-  </si>
-  <si>
-    <t>Seonamhaeicola</t>
+    <t>GCA-002733185</t>
+  </si>
+  <si>
+    <t>Oceanihabitans</t>
   </si>
   <si>
     <t>UBA4166</t>
   </si>
   <si>
-    <t>GCA-002733185</t>
+    <t>SCGC-AAA160-P02</t>
+  </si>
+  <si>
+    <t>Croceitalea</t>
+  </si>
+  <si>
+    <t>Bergeyella_A</t>
+  </si>
+  <si>
+    <t>Eudoraea</t>
   </si>
   <si>
     <t>Mangrovimonas</t>
   </si>
   <si>
-    <t>Croceitalea</t>
+    <t>Robiginitalea</t>
   </si>
   <si>
     <t>Wenyingzhuangia</t>
   </si>
   <si>
-    <t>Eudoraea</t>
-  </si>
-  <si>
-    <t>SCGC-AAA160-P02</t>
-  </si>
-  <si>
-    <t>Bergeyella_A</t>
-  </si>
-  <si>
-    <t>Robiginitalea</t>
-  </si>
-  <si>
-    <t>Oceanihabitans</t>
+    <t>Flavivirga</t>
+  </si>
+  <si>
+    <t>Pricia</t>
+  </si>
+  <si>
+    <t>Flavicella</t>
+  </si>
+  <si>
+    <t>SMXJ01</t>
+  </si>
+  <si>
+    <t>HC6-5</t>
+  </si>
+  <si>
+    <t>Moheibacter</t>
+  </si>
+  <si>
+    <t>GCA-2733415</t>
+  </si>
+  <si>
+    <t>Flaviramulus_A</t>
+  </si>
+  <si>
+    <t>Hanstruepera</t>
   </si>
   <si>
     <t>GCA-2700405</t>
   </si>
   <si>
+    <t>Bizionia</t>
+  </si>
+  <si>
+    <t>GCA-002401385</t>
+  </si>
+  <si>
+    <t>Chishuiella</t>
+  </si>
+  <si>
     <t>GCA-2747105</t>
   </si>
   <si>
-    <t>HC6-5</t>
-  </si>
-  <si>
-    <t>Moheibacter</t>
-  </si>
-  <si>
-    <t>Flavivirga</t>
-  </si>
-  <si>
-    <t>Bizionia</t>
+    <t>Zeaxanthinibacter</t>
+  </si>
+  <si>
+    <t>Gilvibacter</t>
+  </si>
+  <si>
+    <t>LPB0138</t>
+  </si>
+  <si>
+    <t>TMED96</t>
+  </si>
+  <si>
+    <t>Sinomicrobium</t>
+  </si>
+  <si>
+    <t>TPBH4</t>
+  </si>
+  <si>
+    <t>Meridianimaribacter</t>
   </si>
   <si>
     <t>Robertkochia</t>
   </si>
   <si>
-    <t>TMED96</t>
-  </si>
-  <si>
-    <t>Sinomicrobium</t>
-  </si>
-  <si>
-    <t>Pricia</t>
-  </si>
-  <si>
-    <t>GCA-2733415</t>
-  </si>
-  <si>
-    <t>GCA-002401385</t>
-  </si>
-  <si>
-    <t>Flaviramulus_A</t>
-  </si>
-  <si>
-    <t>Zeaxanthinibacter</t>
-  </si>
-  <si>
-    <t>TPBH4</t>
-  </si>
-  <si>
-    <t>Meridianimaribacter</t>
-  </si>
-  <si>
-    <t>Gilvibacter</t>
-  </si>
-  <si>
-    <t>Hanstruepera</t>
-  </si>
-  <si>
-    <t>LPB0138</t>
-  </si>
-  <si>
-    <t>Chishuiella</t>
-  </si>
-  <si>
-    <t>SMXJ01</t>
-  </si>
-  <si>
-    <t>Flavicella</t>
+    <t>AU392</t>
+  </si>
+  <si>
+    <t>TMED220</t>
+  </si>
+  <si>
+    <t>Soonwooa</t>
+  </si>
+  <si>
+    <t>CAU-1491</t>
+  </si>
+  <si>
+    <t>GCA-002728855</t>
+  </si>
+  <si>
+    <t>Zhouia</t>
+  </si>
+  <si>
+    <t>Ulvibacter</t>
+  </si>
+  <si>
+    <t>SZUA-72</t>
   </si>
   <si>
     <t>Flaviramulus</t>
   </si>
   <si>
+    <t>GCA-2747695</t>
+  </si>
+  <si>
+    <t>Algoriella</t>
+  </si>
+  <si>
+    <t>Ichthyenterobacterium</t>
+  </si>
+  <si>
+    <t>YIM-102668</t>
+  </si>
+  <si>
+    <t>Tamlana_B</t>
+  </si>
+  <si>
+    <t>MAR-2010-188</t>
+  </si>
+  <si>
+    <t>Pseudozobellia</t>
+  </si>
+  <si>
+    <t>Arenitalea</t>
+  </si>
+  <si>
+    <t>KYPW7</t>
+  </si>
+  <si>
     <t>Joostella</t>
   </si>
   <si>
-    <t>Arenitalea</t>
-  </si>
-  <si>
-    <t>MAR-2010-188</t>
-  </si>
-  <si>
-    <t>AU392</t>
-  </si>
-  <si>
-    <t>TMED220</t>
-  </si>
-  <si>
-    <t>CAU-1491</t>
-  </si>
-  <si>
-    <t>Ulvibacter</t>
-  </si>
-  <si>
-    <t>Ichthyenterobacterium</t>
-  </si>
-  <si>
-    <t>YIM-102668</t>
-  </si>
-  <si>
-    <t>Algoriella</t>
-  </si>
-  <si>
-    <t>Zhouia</t>
-  </si>
-  <si>
-    <t>Pseudozobellia</t>
-  </si>
-  <si>
     <t>GCA-2746415</t>
   </si>
   <si>
-    <t>GCA-2747695</t>
-  </si>
-  <si>
-    <t>KYPW7</t>
-  </si>
-  <si>
-    <t>SZUA-72</t>
-  </si>
-  <si>
-    <t>GCA-002728855</t>
-  </si>
-  <si>
-    <t>Tamlana_B</t>
-  </si>
-  <si>
-    <t>Soonwooa</t>
+    <t>UBA7684</t>
+  </si>
+  <si>
+    <t>GCA-2862715</t>
+  </si>
+  <si>
+    <t>MS024-2A_A</t>
+  </si>
+  <si>
+    <t>LPB0005</t>
+  </si>
+  <si>
+    <t>Siansivirga</t>
+  </si>
+  <si>
+    <t>GCA-2719315</t>
+  </si>
+  <si>
+    <t>Flavobacterium_B</t>
+  </si>
+  <si>
+    <t>CCMM003</t>
+  </si>
+  <si>
+    <t>QNYL01</t>
+  </si>
+  <si>
+    <t>Gaetbulibacter</t>
+  </si>
+  <si>
+    <t>UBA3376</t>
+  </si>
+  <si>
+    <t>Cruoricaptor</t>
+  </si>
+  <si>
+    <t>Kriegella</t>
+  </si>
+  <si>
+    <t>UBA3537_A</t>
+  </si>
+  <si>
+    <t>Aureitalea</t>
+  </si>
+  <si>
+    <t>SGZJ01</t>
+  </si>
+  <si>
+    <t>PTET01</t>
   </si>
   <si>
     <t>Bin25</t>
   </si>
   <si>
+    <t>Tenacibaculum_A</t>
+  </si>
+  <si>
+    <t>Hel1-33-131</t>
+  </si>
+  <si>
+    <t>Changchengzhania</t>
+  </si>
+  <si>
+    <t>Pustulibacterium</t>
+  </si>
+  <si>
+    <t>UBA2674</t>
+  </si>
+  <si>
+    <t>Sediminicola</t>
+  </si>
+  <si>
+    <t>Aureicoccus</t>
+  </si>
+  <si>
+    <t>Aurantibacter</t>
+  </si>
+  <si>
+    <t>Sediminicola_A</t>
+  </si>
+  <si>
+    <t>Algibacter_D</t>
+  </si>
+  <si>
+    <t>Algibacter_C</t>
+  </si>
+  <si>
+    <t>PDQE01</t>
+  </si>
+  <si>
     <t>Ulvibacter_A</t>
   </si>
   <si>
-    <t>QNYL01</t>
-  </si>
-  <si>
-    <t>UBA3537_A</t>
-  </si>
-  <si>
-    <t>Sediminicola</t>
-  </si>
-  <si>
-    <t>MS024-2A_A</t>
-  </si>
-  <si>
-    <t>Tenacibaculum_A</t>
-  </si>
-  <si>
-    <t>Cruoricaptor</t>
-  </si>
-  <si>
-    <t>Aureitalea</t>
-  </si>
-  <si>
-    <t>PTET01</t>
+    <t>Ochrovirga</t>
   </si>
   <si>
     <t>UM-FILTER-40-17</t>
   </si>
   <si>
-    <t>Gaetbulibacter</t>
-  </si>
-  <si>
-    <t>Pustulibacterium</t>
-  </si>
-  <si>
-    <t>Aureicoccus</t>
-  </si>
-  <si>
-    <t>GCA-2719315</t>
+    <t>Galbibacter</t>
+  </si>
+  <si>
+    <t>Imtechella</t>
   </si>
   <si>
     <t>Antarcticibacterium</t>
   </si>
   <si>
-    <t>Ochrovirga</t>
-  </si>
-  <si>
-    <t>Galbibacter</t>
-  </si>
-  <si>
-    <t>Sediminicola_A</t>
-  </si>
-  <si>
-    <t>GCA-2862715</t>
-  </si>
-  <si>
-    <t>Changchengzhania</t>
-  </si>
-  <si>
-    <t>LPB0005</t>
-  </si>
-  <si>
-    <t>Algibacter_D</t>
-  </si>
-  <si>
-    <t>PDQE01</t>
+    <t>PRS1</t>
   </si>
   <si>
     <t>Vaginella</t>
   </si>
   <si>
-    <t>PRS1</t>
-  </si>
-  <si>
     <t>Algibacter_A</t>
-  </si>
-  <si>
-    <t>UBA3376</t>
-  </si>
-  <si>
-    <t>Kriegella</t>
-  </si>
-  <si>
-    <t>SGZJ01</t>
-  </si>
-  <si>
-    <t>Aurantibacter</t>
-  </si>
-  <si>
-    <t>Algibacter_C</t>
-  </si>
-  <si>
-    <t>Imtechella</t>
-  </si>
-  <si>
-    <t>Flavobacterium_B</t>
-  </si>
-  <si>
-    <t>UBA7684</t>
-  </si>
-  <si>
-    <t>CCMM003</t>
-  </si>
-  <si>
-    <t>Hel1-33-131</t>
-  </si>
-  <si>
-    <t>UBA2674</t>
-  </si>
-  <si>
-    <t>Siansivirga</t>
   </si>
   <si>
     <t>Family</t>
@@ -5019,7 +5019,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -13877,7 +13877,7 @@
         <v>1184</v>
       </c>
       <c r="B26">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -15103,7 +15103,7 @@
         <v>1336</v>
       </c>
       <c r="B2">
-        <v>1923</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="3" spans="1:2">

--- a/1_Dataset_creation/Counts.xlsx
+++ b/1_Dataset_creation/Counts.xlsx
@@ -48,12 +48,12 @@
     <t>Chryseobacterium sp.</t>
   </si>
   <si>
+    <t>Tenacibaculum maritimum</t>
+  </si>
+  <si>
     <t>MAG-120531 sp000173115</t>
   </si>
   <si>
-    <t>Tenacibaculum maritimum</t>
-  </si>
-  <si>
     <t>Elizabethkingia miricola</t>
   </si>
   <si>
@@ -69,37 +69,43 @@
     <t>Myroides odoratimimus</t>
   </si>
   <si>
+    <t>Aequorivita sp002364215</t>
+  </si>
+  <si>
     <t>Capnocytophaga canimorsus</t>
   </si>
   <si>
-    <t>Aequorivita sp002364215</t>
-  </si>
-  <si>
     <t>Myroides sp.</t>
   </si>
   <si>
     <t>Leeuwenhoekiella blandensis</t>
   </si>
   <si>
+    <t>Zunongwangia profunda</t>
+  </si>
+  <si>
+    <t>Elizabethkingia bruuniana</t>
+  </si>
+  <si>
+    <t>Maribacter dokdonensis</t>
+  </si>
+  <si>
     <t>UBA6231 sp002784145</t>
   </si>
   <si>
-    <t>Zunongwangia profunda</t>
-  </si>
-  <si>
-    <t>Elizabethkingia bruuniana</t>
-  </si>
-  <si>
-    <t>Maribacter dokdonensis</t>
-  </si>
-  <si>
     <t>Flavobacterium columnare_A</t>
   </si>
   <si>
+    <t>Capnocytophaga canis</t>
+  </si>
+  <si>
     <t>Muricauda sp.</t>
   </si>
   <si>
-    <t>Capnocytophaga canis</t>
+    <t>Flavobacterium sp003968755</t>
+  </si>
+  <si>
+    <t>Leeuwenhoekiella palythoae</t>
   </si>
   <si>
     <t>Flavobacterium lindanitolerans</t>
@@ -108,3393 +114,3387 @@
     <t>Euzebyella marina</t>
   </si>
   <si>
-    <t>Leeuwenhoekiella palythoae</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp003968755</t>
+    <t>Polaribacter sp.</t>
+  </si>
+  <si>
+    <t>Mesonia sp002413625</t>
+  </si>
+  <si>
+    <t>Marinirhabdus sp002375495</t>
+  </si>
+  <si>
+    <t>Aequorivita vladivostokensis</t>
+  </si>
+  <si>
+    <t>Polaribacter sp001873065</t>
+  </si>
+  <si>
+    <t>SHLJ01 sp.</t>
   </si>
   <si>
     <t>Flavobacterium columnare</t>
   </si>
   <si>
-    <t>Polaribacter sp.</t>
-  </si>
-  <si>
-    <t>Aequorivita vladivostokensis</t>
-  </si>
-  <si>
-    <t>Mesonia sp002413625</t>
-  </si>
-  <si>
-    <t>SHLJ01 sp.</t>
-  </si>
-  <si>
-    <t>Polaribacter sp001873065</t>
-  </si>
-  <si>
-    <t>Marinirhabdus sp002375495</t>
-  </si>
-  <si>
     <t>Xanthomarina gelatinilytica</t>
   </si>
   <si>
+    <t>Muriicola sp.</t>
+  </si>
+  <si>
+    <t>CG1-02-35-72 sp002793215</t>
+  </si>
+  <si>
+    <t>Flavobacterium johnsoniae</t>
+  </si>
+  <si>
+    <t>Flavobacterium columnare_C</t>
+  </si>
+  <si>
+    <t>Capnocytophaga sputigena</t>
+  </si>
+  <si>
+    <t>Cellulophaga baltica</t>
+  </si>
+  <si>
+    <t>Empedobacter brevis</t>
+  </si>
+  <si>
+    <t>CG2-30-34-30 sp001873105</t>
+  </si>
+  <si>
     <t>Chryseobacterium mucoviscidosis</t>
   </si>
   <si>
-    <t>Capnocytophaga sputigena</t>
-  </si>
-  <si>
-    <t>CG2-30-34-30 sp001873105</t>
-  </si>
-  <si>
-    <t>Cellulophaga baltica</t>
-  </si>
-  <si>
-    <t>CG1-02-35-72 sp002793215</t>
-  </si>
-  <si>
-    <t>Flavobacterium johnsoniae</t>
-  </si>
-  <si>
-    <t>Flavobacterium columnare_C</t>
-  </si>
-  <si>
-    <t>Empedobacter brevis</t>
-  </si>
-  <si>
-    <t>Muriicola sp.</t>
+    <t>Kaistella sp002477665</t>
+  </si>
+  <si>
+    <t>Algibacter lectus</t>
+  </si>
+  <si>
+    <t>Cellulophaga lytica</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp002413745</t>
+  </si>
+  <si>
+    <t>Croceibacter atlanticus</t>
+  </si>
+  <si>
+    <t>Capnocytophaga leadbetteri</t>
+  </si>
+  <si>
+    <t>UBA11891 sp.</t>
   </si>
   <si>
     <t>Arenibacter algicola</t>
   </si>
   <si>
-    <t>Cellulophaga lytica</t>
-  </si>
-  <si>
-    <t>Algibacter lectus</t>
-  </si>
-  <si>
-    <t>Kaistella sp002477665</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002413745</t>
-  </si>
-  <si>
     <t>UBA724 sp002723075</t>
   </si>
   <si>
-    <t>Capnocytophaga leadbetteri</t>
-  </si>
-  <si>
-    <t>Croceibacter atlanticus</t>
-  </si>
-  <si>
-    <t>UBA11891 sp.</t>
-  </si>
-  <si>
     <t>Chryseobacterium indologenes_B</t>
   </si>
   <si>
+    <t>Chryseobacterium indoltheticum</t>
+  </si>
+  <si>
+    <t>MS024-2A sp.</t>
+  </si>
+  <si>
+    <t>Chryseobacterium carnipullorum</t>
+  </si>
+  <si>
     <t>Muricauda_A lutaonensis</t>
   </si>
   <si>
+    <t>Maribacter sp.</t>
+  </si>
+  <si>
+    <t>MS024-2A sp002292265</t>
+  </si>
+  <si>
+    <t>Nonlabens ulvanivorans</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp007097285</t>
+  </si>
+  <si>
     <t>Nonlabens tegetincola</t>
   </si>
   <si>
+    <t>Leeuwenhoekiella sp002708845</t>
+  </si>
+  <si>
+    <t>Flavobacterium branchiophilum</t>
+  </si>
+  <si>
+    <t>Tenacibaculum mesophilum</t>
+  </si>
+  <si>
+    <t>Capnocytophaga cynodegmi</t>
+  </si>
+  <si>
     <t>Tenacibaculum sp.</t>
   </si>
   <si>
-    <t>Flavobacterium sp007097285</t>
-  </si>
-  <si>
-    <t>Capnocytophaga cynodegmi</t>
-  </si>
-  <si>
-    <t>MS024-2A sp.</t>
-  </si>
-  <si>
-    <t>Leeuwenhoekiella sp002708845</t>
-  </si>
-  <si>
-    <t>Nonlabens ulvanivorans</t>
+    <t>Marixanthomonas sp002360635</t>
+  </si>
+  <si>
+    <t>Chryseobacterium gleum</t>
+  </si>
+  <si>
+    <t>Elizabethkingia ursingii</t>
+  </si>
+  <si>
+    <t>Uncl. Weeksellaceae sp.</t>
   </si>
   <si>
     <t>RR4-38 sp.</t>
   </si>
   <si>
-    <t>Maribacter sp.</t>
-  </si>
-  <si>
-    <t>Uncl. Weeksellaceae sp.</t>
-  </si>
-  <si>
     <t>Bergeyella zoohelcum</t>
   </si>
   <si>
-    <t>Tenacibaculum mesophilum</t>
-  </si>
-  <si>
-    <t>Chryseobacterium indoltheticum</t>
-  </si>
-  <si>
-    <t>Flavobacterium branchiophilum</t>
-  </si>
-  <si>
-    <t>Chryseobacterium carnipullorum</t>
-  </si>
-  <si>
-    <t>MS024-2A sp002292265</t>
-  </si>
-  <si>
-    <t>Marixanthomonas sp002360635</t>
-  </si>
-  <si>
-    <t>Chryseobacterium gleum</t>
-  </si>
-  <si>
-    <t>Elizabethkingia ursingii</t>
+    <t>Flavobacterium sp003217415</t>
+  </si>
+  <si>
+    <t>Aquimarina sp.</t>
+  </si>
+  <si>
+    <t>SHLJ01 sp004283005</t>
+  </si>
+  <si>
+    <t>Croceivirga sp.</t>
+  </si>
+  <si>
+    <t>Flavobacterium hibernum</t>
+  </si>
+  <si>
+    <t>Mesonia sp.</t>
+  </si>
+  <si>
+    <t>Myroides odoratus</t>
   </si>
   <si>
     <t>Flavobacterium sp002210235</t>
   </si>
   <si>
-    <t>Myroides odoratus</t>
+    <t>Cloacibacterium normanense</t>
+  </si>
+  <si>
+    <t>BACL21 sp002384055</t>
+  </si>
+  <si>
+    <t>Flavobacterium piscis</t>
+  </si>
+  <si>
+    <t>Chryseobacterium shandongense</t>
+  </si>
+  <si>
+    <t>Weeksella virosa</t>
+  </si>
+  <si>
+    <t>Aquimarina sp900312745</t>
+  </si>
+  <si>
+    <t>Capnocytophaga granulosa</t>
+  </si>
+  <si>
+    <t>Planobacterium sp002441475</t>
+  </si>
+  <si>
+    <t>Olleya sp000518525</t>
+  </si>
+  <si>
+    <t>UBA4166 sp002379985</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp003182335</t>
+  </si>
+  <si>
+    <t>Chryseobacterium arthrosphaerae</t>
+  </si>
+  <si>
+    <t>Kaistella carnis</t>
+  </si>
+  <si>
+    <t>Flavobacterium anhuiense</t>
+  </si>
+  <si>
+    <t>Flavobacterium chungangense</t>
+  </si>
+  <si>
+    <t>UBA7428 sp.</t>
+  </si>
+  <si>
+    <t>Jejuia pallidilutea</t>
+  </si>
+  <si>
+    <t>Myroides marinus</t>
   </si>
   <si>
     <t>Chryseobacterium rhizosphaerae</t>
   </si>
   <si>
-    <t>Weeksella virosa</t>
-  </si>
-  <si>
-    <t>SHLJ01 sp004283005</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp003182335</t>
-  </si>
-  <si>
-    <t>Aquimarina sp900312745</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp003217415</t>
-  </si>
-  <si>
-    <t>Aquimarina sp.</t>
+    <t>Tenacibaculum discolor</t>
   </si>
   <si>
     <t>Chryseobacterium cucumeris</t>
   </si>
   <si>
-    <t>Mesonia sp.</t>
-  </si>
-  <si>
-    <t>Flavobacterium hibernum</t>
-  </si>
-  <si>
-    <t>Olleya sp000518525</t>
-  </si>
-  <si>
-    <t>Capnocytophaga granulosa</t>
-  </si>
-  <si>
-    <t>Croceivirga sp.</t>
-  </si>
-  <si>
-    <t>Tenacibaculum discolor</t>
-  </si>
-  <si>
-    <t>Flavobacterium anhuiense</t>
-  </si>
-  <si>
-    <t>Chryseobacterium shandongense</t>
-  </si>
-  <si>
-    <t>Jejuia pallidilutea</t>
-  </si>
-  <si>
     <t>Epilithonimonas sp002391865</t>
   </si>
   <si>
-    <t>Chryseobacterium arthrosphaerae</t>
-  </si>
-  <si>
-    <t>Planobacterium sp002441475</t>
-  </si>
-  <si>
-    <t>Myroides marinus</t>
-  </si>
-  <si>
     <t>Flavobacterium tructae</t>
   </si>
   <si>
-    <t>BACL21 sp002384055</t>
-  </si>
-  <si>
-    <t>Flavobacterium chungangense</t>
-  </si>
-  <si>
     <t>Lutibacter sp.</t>
   </si>
   <si>
-    <t>Flavobacterium piscis</t>
-  </si>
-  <si>
-    <t>UBA7428 sp.</t>
-  </si>
-  <si>
-    <t>UBA4166 sp002379985</t>
-  </si>
-  <si>
-    <t>Cloacibacterium normanense</t>
-  </si>
-  <si>
-    <t>Kaistella carnis</t>
+    <t>Polaribacter reichenbachii</t>
+  </si>
+  <si>
+    <t>Eudoraea sp.</t>
+  </si>
+  <si>
+    <t>Flavobacterium aquatile</t>
+  </si>
+  <si>
+    <t>Gelidibacter sp.</t>
+  </si>
+  <si>
+    <t>Ornithobacterium sp.</t>
   </si>
   <si>
     <t>Meridianimaribacter flavus</t>
   </si>
   <si>
+    <t>Mesoflavibacter zeaxanthinifaciens</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp003449615</t>
+  </si>
+  <si>
+    <t>MED-G14 sp002697465</t>
+  </si>
+  <si>
+    <t>Chryseobacterium joostei</t>
+  </si>
+  <si>
+    <t>Polaribacter sp002340765</t>
+  </si>
+  <si>
+    <t>Kaistella jeonii</t>
+  </si>
+  <si>
+    <t>Epilithonimonas bovis</t>
+  </si>
+  <si>
+    <t>Riemerella sp.</t>
+  </si>
+  <si>
+    <t>Psychroserpens sp.</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp900128945</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp000169355</t>
+  </si>
+  <si>
+    <t>Tenacibaculum dicentrarchi</t>
+  </si>
+  <si>
+    <t>Salegentibacter agarivorans</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp003201365</t>
+  </si>
+  <si>
+    <t>Epilithonimonas hominis</t>
+  </si>
+  <si>
+    <t>Chryseobacterium formosense</t>
+  </si>
+  <si>
+    <t>UBA3537 sp002684355</t>
+  </si>
+  <si>
+    <t>Aquimarina aggregata</t>
+  </si>
+  <si>
+    <t>Flavobacterium cauense</t>
+  </si>
+  <si>
+    <t>Kaistella sp.</t>
+  </si>
+  <si>
+    <t>Flavobacterium nitrogenifigens</t>
+  </si>
+  <si>
+    <t>Salegentibacter mishustinae</t>
+  </si>
+  <si>
+    <t>Maribacter_A sp.</t>
+  </si>
+  <si>
     <t>Chryseobacterium gambrini</t>
   </si>
   <si>
+    <t>MAG-121220-bin8 sp.</t>
+  </si>
+  <si>
+    <t>MS024-2A sp000173095</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp001898245</t>
+  </si>
+  <si>
+    <t>Algibacter_B sp.</t>
+  </si>
+  <si>
+    <t>Flavobacterium pectinovorum</t>
+  </si>
+  <si>
+    <t>Flavobacterium succinicans</t>
+  </si>
+  <si>
+    <t>Dokdonia donghaensis</t>
+  </si>
+  <si>
+    <t>Aquimarina latercula</t>
+  </si>
+  <si>
+    <t>Chryseobacterium geocarposphaerae</t>
+  </si>
+  <si>
+    <t>Aequorivita sp006346335</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp001800905</t>
+  </si>
+  <si>
+    <t>Planobacterium taklimakanense</t>
+  </si>
+  <si>
+    <t>Chryseobacterium gallinarum</t>
+  </si>
+  <si>
+    <t>BACL21 sp.</t>
+  </si>
+  <si>
+    <t>Chryseobacterium flavum</t>
+  </si>
+  <si>
+    <t>Chryseobacterium scophthalmum</t>
+  </si>
+  <si>
+    <t>Chryseobacterium piscium</t>
+  </si>
+  <si>
+    <t>Kaistella sp002205795</t>
+  </si>
+  <si>
+    <t>Ornithobacterium rhinotracheale</t>
+  </si>
+  <si>
+    <t>Algibacter sp.</t>
+  </si>
+  <si>
+    <t>Capnocytophaga haemolytica</t>
+  </si>
+  <si>
+    <t>Flavobacterium glycines</t>
+  </si>
+  <si>
+    <t>UBA7446 sp002478685</t>
+  </si>
+  <si>
+    <t>Kaistella antarcticum</t>
+  </si>
+  <si>
+    <t>SMXJ01 sp.</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp000813005</t>
+  </si>
+  <si>
+    <t>Chryseobacterium balustinum</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp000744495</t>
+  </si>
+  <si>
+    <t>Chryseobacterium lactis</t>
+  </si>
+  <si>
     <t>Kaistella haifense</t>
   </si>
   <si>
-    <t>Flavobacterium sp003449615</t>
-  </si>
-  <si>
-    <t>Algibacter_B sp.</t>
-  </si>
-  <si>
-    <t>Epilithonimonas hominis</t>
+    <t>Salegentibacter salarius</t>
+  </si>
+  <si>
+    <t>Chryseobacterium oranimense</t>
   </si>
   <si>
     <t>Croceitalea sp.</t>
   </si>
   <si>
+    <t>SCGC-AAA160-P02 sp.</t>
+  </si>
+  <si>
+    <t>Chryseobacterium viscerum</t>
+  </si>
+  <si>
+    <t>Muricauda sp002711825</t>
+  </si>
+  <si>
+    <t>Gramella flava</t>
+  </si>
+  <si>
+    <t>Planobacterium sp.</t>
+  </si>
+  <si>
+    <t>UBA3537 sp002725015</t>
+  </si>
+  <si>
+    <t>Flavobacterium columnare_D</t>
+  </si>
+  <si>
     <t>Polaribacter sp900106075</t>
   </si>
   <si>
-    <t>Chryseobacterium sp000744495</t>
-  </si>
-  <si>
-    <t>Dokdonia donghaensis</t>
-  </si>
-  <si>
-    <t>Flavobacterium nitrogenifigens</t>
-  </si>
-  <si>
-    <t>Mesoflavibacter zeaxanthinifaciens</t>
-  </si>
-  <si>
-    <t>Flavobacterium succinicans</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp900128945</t>
-  </si>
-  <si>
-    <t>Ornithobacterium sp.</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp000813005</t>
-  </si>
-  <si>
-    <t>Capnocytophaga haemolytica</t>
-  </si>
-  <si>
-    <t>Aquimarina latercula</t>
-  </si>
-  <si>
-    <t>Muricauda sp002711825</t>
-  </si>
-  <si>
-    <t>Kaistella sp002205795</t>
-  </si>
-  <si>
-    <t>Salegentibacter mishustinae</t>
-  </si>
-  <si>
-    <t>UBA3537 sp002684355</t>
-  </si>
-  <si>
-    <t>Flavobacterium aquatile</t>
-  </si>
-  <si>
-    <t>Flavobacterium cauense</t>
-  </si>
-  <si>
-    <t>Kaistella antarcticum</t>
-  </si>
-  <si>
-    <t>Chryseobacterium viscerum</t>
-  </si>
-  <si>
-    <t>Epilithonimonas bovis</t>
-  </si>
-  <si>
-    <t>Maribacter_A sp.</t>
-  </si>
-  <si>
-    <t>BACL21 sp.</t>
-  </si>
-  <si>
-    <t>Aquimarina aggregata</t>
-  </si>
-  <si>
-    <t>MAG-121220-bin8 sp.</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp003201365</t>
-  </si>
-  <si>
-    <t>Planobacterium sp.</t>
-  </si>
-  <si>
-    <t>Flavobacterium pectinovorum</t>
-  </si>
-  <si>
-    <t>Polaribacter sp002340765</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp001898245</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp001800905</t>
-  </si>
-  <si>
-    <t>Aequorivita sp006346335</t>
-  </si>
-  <si>
-    <t>Chryseobacterium flavum</t>
-  </si>
-  <si>
-    <t>Ornithobacterium rhinotracheale</t>
-  </si>
-  <si>
-    <t>SCGC-AAA160-P02 sp.</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp000169355</t>
-  </si>
-  <si>
-    <t>Planobacterium taklimakanense</t>
-  </si>
-  <si>
-    <t>Chryseobacterium lactis</t>
-  </si>
-  <si>
-    <t>MED-G14 sp002697465</t>
-  </si>
-  <si>
-    <t>UBA3537 sp002725015</t>
-  </si>
-  <si>
-    <t>Kaistella sp.</t>
-  </si>
-  <si>
-    <t>Chryseobacterium scophthalmum</t>
-  </si>
-  <si>
-    <t>Tenacibaculum dicentrarchi</t>
-  </si>
-  <si>
-    <t>Gelidibacter sp.</t>
-  </si>
-  <si>
-    <t>Psychroserpens sp.</t>
-  </si>
-  <si>
-    <t>MS024-2A sp000173095</t>
-  </si>
-  <si>
-    <t>Eudoraea sp.</t>
-  </si>
-  <si>
-    <t>UBA7446 sp002478685</t>
-  </si>
-  <si>
-    <t>Chryseobacterium oranimense</t>
-  </si>
-  <si>
-    <t>Salegentibacter agarivorans</t>
-  </si>
-  <si>
-    <t>Chryseobacterium balustinum</t>
-  </si>
-  <si>
-    <t>Salegentibacter salarius</t>
-  </si>
-  <si>
-    <t>Gramella flava</t>
-  </si>
-  <si>
-    <t>Riemerella sp.</t>
-  </si>
-  <si>
-    <t>Algibacter sp.</t>
-  </si>
-  <si>
-    <t>Chryseobacterium piscium</t>
-  </si>
-  <si>
-    <t>Flavobacterium glycines</t>
-  </si>
-  <si>
-    <t>Chryseobacterium formosense</t>
-  </si>
-  <si>
-    <t>Flavobacterium columnare_D</t>
-  </si>
-  <si>
-    <t>Chryseobacterium gallinarum</t>
-  </si>
-  <si>
-    <t>SMXJ01 sp.</t>
-  </si>
-  <si>
-    <t>Polaribacter reichenbachii</t>
-  </si>
-  <si>
-    <t>Kaistella jeonii</t>
-  </si>
-  <si>
-    <t>Chryseobacterium geocarposphaerae</t>
-  </si>
-  <si>
-    <t>Chryseobacterium joostei</t>
+    <t>Maribacter stanieri</t>
+  </si>
+  <si>
+    <t>Muricauda olearia</t>
+  </si>
+  <si>
+    <t>Oceanihabitans sediminis</t>
+  </si>
+  <si>
+    <t>Flavobacterium granuli</t>
+  </si>
+  <si>
+    <t>Nonlabens dokdonensis</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp002482945</t>
+  </si>
+  <si>
+    <t>Muricauda sp003584135</t>
+  </si>
+  <si>
+    <t>Chryseobacterium nematophagum_A</t>
+  </si>
+  <si>
+    <t>Gelidibacter sp003550275</t>
+  </si>
+  <si>
+    <t>Tenacibaculum ovolyticum</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp007097365</t>
+  </si>
+  <si>
+    <t>Maribacter litoralis</t>
+  </si>
+  <si>
+    <t>GCA-2747105 sp.</t>
+  </si>
+  <si>
+    <t>Polaribacter sejongensis</t>
+  </si>
+  <si>
+    <t>Salegentibacter salegens</t>
+  </si>
+  <si>
+    <t>Chryseobacterium taihuense</t>
+  </si>
+  <si>
+    <t>Wenyingzhuangia sp.</t>
+  </si>
+  <si>
+    <t>Hanstruepera crassostreae</t>
+  </si>
+  <si>
+    <t>Aequorivita viscosa</t>
+  </si>
+  <si>
+    <t>Polaribacter sp002471825</t>
+  </si>
+  <si>
+    <t>Apibacter adventoris</t>
+  </si>
+  <si>
+    <t>Elizabethkingia occulta</t>
+  </si>
+  <si>
+    <t>Aequorivita sp002715485</t>
+  </si>
+  <si>
+    <t>Arenibacter sp.</t>
+  </si>
+  <si>
+    <t>Flavobacterium saliperosum</t>
+  </si>
+  <si>
+    <t>MAG-121220-bin8 sp002705485</t>
+  </si>
+  <si>
+    <t>Muricauda taeanensis</t>
+  </si>
+  <si>
+    <t>Flavobacterium arcticum</t>
+  </si>
+  <si>
+    <t>Aequorivita antarctica</t>
+  </si>
+  <si>
+    <t>Gramella echinicola</t>
+  </si>
+  <si>
+    <t>MAG-120531 sp002378585</t>
+  </si>
+  <si>
+    <t>Chryseobacterium nematophagum_B</t>
+  </si>
+  <si>
+    <t>Flavobacterium commune</t>
+  </si>
+  <si>
+    <t>Leeuwenhoekiella nanhaiensis</t>
+  </si>
+  <si>
+    <t>Croceivirga radicis</t>
+  </si>
+  <si>
+    <t>Psychroserpens burtonensis</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp004122145</t>
+  </si>
+  <si>
+    <t>Muricauda sp001683915</t>
+  </si>
+  <si>
+    <t>Aequorivita sp002375695</t>
+  </si>
+  <si>
+    <t>MAG-121220-bin8 sp004214185</t>
+  </si>
+  <si>
+    <t>Formosa algae</t>
+  </si>
+  <si>
+    <t>Algorimicrobium sp001678685</t>
+  </si>
+  <si>
+    <t>Flavobacterium suncheonense</t>
+  </si>
+  <si>
+    <t>Marinirhabdus sp002337605</t>
+  </si>
+  <si>
+    <t>Flavobacterium gilvum</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp003096795</t>
+  </si>
+  <si>
+    <t>Epilithonimonas caeni</t>
+  </si>
+  <si>
+    <t>Arenibacter palladensis</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp004339525</t>
+  </si>
+  <si>
+    <t>Nonlabens xylanidelens</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp004349315</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp002352205</t>
+  </si>
+  <si>
+    <t>Tenacibaculum finnmarkense</t>
+  </si>
+  <si>
+    <t>Flavobacterium chilense</t>
+  </si>
+  <si>
+    <t>Dokdonia sp000212355</t>
+  </si>
+  <si>
+    <t>Bergeyella_A sp002484105</t>
+  </si>
+  <si>
+    <t>UBA7446 sp002470745</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp002786385</t>
+  </si>
+  <si>
+    <t>Chryseobacterium vrystaatense</t>
+  </si>
+  <si>
+    <t>Flavobacterium cheniae</t>
+  </si>
+  <si>
+    <t>Gillisia sp000424645</t>
+  </si>
+  <si>
+    <t>UBA8316 sp002390455</t>
+  </si>
+  <si>
+    <t>Flavobacterium resistens</t>
+  </si>
+  <si>
+    <t>Olleya namhaensis</t>
+  </si>
+  <si>
+    <t>BACL21 sp002440705</t>
+  </si>
+  <si>
+    <t>Moheibacter sp.</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp003688345</t>
+  </si>
+  <si>
+    <t>MED-G13 sp002691265</t>
+  </si>
+  <si>
+    <t>Winogradskyella pacifica</t>
+  </si>
+  <si>
+    <t>Flavobacterium fryxellicola</t>
+  </si>
+  <si>
+    <t>Flavobacterium glaciei</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp001456155</t>
+  </si>
+  <si>
+    <t>UBA11891 sp003533785</t>
+  </si>
+  <si>
+    <t>Leeuwenhoekiella marinoflava</t>
+  </si>
+  <si>
+    <t>Salegentibacter salinarum</t>
+  </si>
+  <si>
+    <t>Apibacter sp004014855</t>
+  </si>
+  <si>
+    <t>GCA-2733415 sp.</t>
+  </si>
+  <si>
+    <t>Flavobacterium aquidurense</t>
+  </si>
+  <si>
+    <t>Chryseobacterium lathyri</t>
+  </si>
+  <si>
+    <t>MED-G11 sp002457075</t>
+  </si>
+  <si>
+    <t>Tamlana_A agarivorans</t>
+  </si>
+  <si>
+    <t>Mariniflexile sp002426835</t>
+  </si>
+  <si>
+    <t>Cloacibacterium sp002422665</t>
+  </si>
+  <si>
+    <t>MED-G14 sp004321735</t>
+  </si>
+  <si>
+    <t>Flavobacterium noncentrifugens</t>
+  </si>
+  <si>
+    <t>Polaribacter dokdonensis</t>
+  </si>
+  <si>
+    <t>Epilithonimonas halperniae</t>
+  </si>
+  <si>
+    <t>Ornithobacterium hominis</t>
+  </si>
+  <si>
+    <t>Chryseobacterium rhizoplanae</t>
+  </si>
+  <si>
+    <t>Gillisia sp.</t>
+  </si>
+  <si>
+    <t>Muricauda sp003584165</t>
+  </si>
+  <si>
+    <t>Flavobacterium endophyticum</t>
+  </si>
+  <si>
+    <t>Flavobacterium akiainvivens</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp004119455</t>
+  </si>
+  <si>
+    <t>Chryseobacterium bernardetii</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp004349145</t>
+  </si>
+  <si>
+    <t>BACL21 sp002335345</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp900129795</t>
+  </si>
+  <si>
+    <t>Muricauda sp002452975</t>
+  </si>
+  <si>
+    <t>Croceivirga sp005144745</t>
+  </si>
+  <si>
+    <t>Psychroflexus sp.</t>
+  </si>
+  <si>
+    <t>MED-G11 sp002729755</t>
+  </si>
+  <si>
+    <t>UBA3478 sp002381155</t>
+  </si>
+  <si>
+    <t>Lutibacter sp003516285</t>
+  </si>
+  <si>
+    <t>Winogradskyella sp002722255</t>
+  </si>
+  <si>
+    <t>Bergeyella_A cardium</t>
+  </si>
+  <si>
+    <t>Kaistella koreense</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp001429765</t>
+  </si>
+  <si>
+    <t>Salinimicrobium catena</t>
+  </si>
+  <si>
+    <t>Flavobacterium plurextorum</t>
+  </si>
+  <si>
+    <t>Capnocytophaga gingivalis</t>
+  </si>
+  <si>
+    <t>Tenacibaculum sp900105985</t>
+  </si>
+  <si>
+    <t>UBA7446 sp002313325</t>
+  </si>
+  <si>
+    <t>Chryseobacterium daecheongense</t>
+  </si>
+  <si>
+    <t>Maribacter sedimenticola</t>
+  </si>
+  <si>
+    <t>Chryseobacterium piperi</t>
+  </si>
+  <si>
+    <t>Flavobacterium reichenbachii</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp000799255</t>
+  </si>
+  <si>
+    <t>KYPW7 sp003852705</t>
+  </si>
+  <si>
+    <t>Flavobacterium rivuli</t>
+  </si>
+  <si>
+    <t>Flavobacterium flevense</t>
+  </si>
+  <si>
+    <t>Muricauda sp003057865</t>
+  </si>
+  <si>
+    <t>Mariniflexile sp002848895</t>
+  </si>
+  <si>
+    <t>Flavobacterium psychrophilum_A</t>
+  </si>
+  <si>
+    <t>Chryseobacterium aquifrigidense</t>
+  </si>
+  <si>
+    <t>Mesonia algae</t>
+  </si>
+  <si>
+    <t>Lacinutrix venerupis</t>
+  </si>
+  <si>
+    <t>Aequorivita lipolytica</t>
+  </si>
+  <si>
+    <t>Pricia sp.</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp900156935</t>
+  </si>
+  <si>
+    <t>Leeuwenhoekiella sp004104115</t>
+  </si>
+  <si>
+    <t>Aquimarina sp900312735</t>
+  </si>
+  <si>
+    <t>Kaistella sp002454815</t>
+  </si>
+  <si>
+    <t>Maribacter aurantiacus</t>
+  </si>
+  <si>
+    <t>Olleya marilimosa</t>
+  </si>
+  <si>
+    <t>Flavobacterium crassostreae</t>
+  </si>
+  <si>
+    <t>Algoriella xinjiangensis</t>
+  </si>
+  <si>
+    <t>Aquimarina sp900299525</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp001677955</t>
+  </si>
+  <si>
+    <t>Lutibacter oceani</t>
+  </si>
+  <si>
+    <t>Chryseobacterium nakagawai</t>
+  </si>
+  <si>
+    <t>Apibacter mensalis</t>
+  </si>
+  <si>
+    <t>Epilithonimonas hungaricum</t>
+  </si>
+  <si>
+    <t>Flavobacterium hydatis</t>
+  </si>
+  <si>
+    <t>GCA-002723295 sp002690805</t>
+  </si>
+  <si>
+    <t>Chryseobacterium jejuense</t>
+  </si>
+  <si>
+    <t>Flavobacterium enshiense</t>
+  </si>
+  <si>
+    <t>Tenacibaculum dicentrarchi_C</t>
+  </si>
+  <si>
+    <t>Polaribacter vadi</t>
+  </si>
+  <si>
+    <t>MAG-121220-bin8 sp002700465</t>
+  </si>
+  <si>
+    <t>Aequorivita soesokkakensis</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp003314435</t>
+  </si>
+  <si>
+    <t>Aquimarina sp900299535</t>
+  </si>
+  <si>
+    <t>Myroides profundi</t>
+  </si>
+  <si>
+    <t>Flavobacterium frigidimaris</t>
+  </si>
+  <si>
+    <t>UBA7446 sp002862705</t>
+  </si>
+  <si>
+    <t>Psychroflexus halocasei</t>
+  </si>
+  <si>
+    <t>Flavobacterium circumlabens</t>
+  </si>
+  <si>
+    <t>Seonamhaeicola sp.</t>
+  </si>
+  <si>
+    <t>Muricauda zhangzhouensis</t>
+  </si>
+  <si>
+    <t>Arenitalea lutea</t>
+  </si>
+  <si>
+    <t>Muricauda sp003973595</t>
+  </si>
+  <si>
+    <t>Chryseobacterium aquaticum</t>
+  </si>
+  <si>
+    <t>BACL21 sp002707025</t>
+  </si>
+  <si>
+    <t>Maribacter sp002742365</t>
+  </si>
+  <si>
+    <t>Mangrovimonas sp001280515</t>
+  </si>
+  <si>
+    <t>Marinirhabdus sp002707745</t>
+  </si>
+  <si>
+    <t>Gramella sp.</t>
+  </si>
+  <si>
+    <t>Tenacibaculum lutimaris</t>
+  </si>
+  <si>
+    <t>Zobellia uliginosa_A</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp003242135</t>
+  </si>
+  <si>
+    <t>Capnocytophaga sp002209445</t>
+  </si>
+  <si>
+    <t>Winogradskyella sediminis</t>
+  </si>
+  <si>
+    <t>Flavobacterium oncorhynchi</t>
+  </si>
+  <si>
+    <t>Chryseobacterium shigense</t>
+  </si>
+  <si>
+    <t>Cellulophaga algicola</t>
+  </si>
+  <si>
+    <t>Aquimarina sp003443675</t>
+  </si>
+  <si>
+    <t>Flavobacterium araucananum</t>
+  </si>
+  <si>
+    <t>Olleya sp002323495</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp002754315</t>
+  </si>
+  <si>
+    <t>UBA7949 sp003511845</t>
+  </si>
+  <si>
+    <t>TMED96 sp002171475</t>
+  </si>
+  <si>
+    <t>UBA8316 sp002711215</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp003497625</t>
+  </si>
+  <si>
+    <t>Polaribacter glomeratus</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp004634195</t>
+  </si>
+  <si>
+    <t>Algorimicrobium echini</t>
+  </si>
+  <si>
+    <t>UBA8316 sp002364535</t>
+  </si>
+  <si>
+    <t>Maribacter sp001913155</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp001429295</t>
+  </si>
+  <si>
+    <t>UBA724 sp002430545</t>
+  </si>
+  <si>
+    <t>MED-G11 sp.</t>
+  </si>
+  <si>
+    <t>Gelidibacter algens</t>
+  </si>
+  <si>
+    <t>Tenacibaculum litoreum</t>
+  </si>
+  <si>
+    <t>Robertkochia marina</t>
+  </si>
+  <si>
+    <t>AU392 sp003443635</t>
+  </si>
+  <si>
+    <t>HC6-5 sp.</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp003385515</t>
+  </si>
+  <si>
+    <t>Flavobacterium haoranii</t>
+  </si>
+  <si>
+    <t>Nonlabens ulvanivorans_A</t>
+  </si>
+  <si>
+    <t>Chryseobacterium hispalense</t>
+  </si>
+  <si>
+    <t>Kordia sp.</t>
+  </si>
+  <si>
+    <t>Gillisia sp900104765</t>
+  </si>
+  <si>
+    <t>Chryseobacterium culicis</t>
+  </si>
+  <si>
+    <t>Flavobacterium subsaxonicum</t>
+  </si>
+  <si>
+    <t>Mesoflavibacter sp003008475</t>
+  </si>
+  <si>
+    <t>Chryseobacterium piscicola</t>
+  </si>
+  <si>
+    <t>Muricauda sp002699205</t>
+  </si>
+  <si>
+    <t>UBA3537 sp002709185</t>
+  </si>
+  <si>
+    <t>Capnocytophaga sp.</t>
+  </si>
+  <si>
+    <t>Chryseobacterium contaminans</t>
+  </si>
+  <si>
+    <t>MAG-120531 sp.</t>
+  </si>
+  <si>
+    <t>Zhouia amylolytica</t>
+  </si>
+  <si>
+    <t>Bizionia sp.</t>
+  </si>
+  <si>
+    <t>Kaistella sp002453895</t>
+  </si>
+  <si>
+    <t>Arenibacter sp002150785</t>
+  </si>
+  <si>
+    <t>Polaribacter sp002005425</t>
+  </si>
+  <si>
+    <t>Psychroflexus gondwanensis</t>
+  </si>
+  <si>
+    <t>Elizabethkingia sp003058195</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp006491645</t>
+  </si>
+  <si>
+    <t>Winogradskyella sp002163855</t>
+  </si>
+  <si>
+    <t>Zobellia galactanivorans</t>
+  </si>
+  <si>
+    <t>Lutibacter sp002733285</t>
+  </si>
+  <si>
+    <t>Chryseobacterium culicis_A</t>
+  </si>
+  <si>
+    <t>Altibacter sp002696485</t>
+  </si>
+  <si>
+    <t>MS024-2A sp002384715</t>
   </si>
   <si>
     <t>Kaistella sp003860505</t>
   </si>
   <si>
-    <t>Aequorivita sp002375695</t>
-  </si>
-  <si>
-    <t>Chryseobacterium nematophagum_A</t>
-  </si>
-  <si>
-    <t>MED-G13 sp002691265</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp007097365</t>
+    <t>TPBH4 sp001280435</t>
+  </si>
+  <si>
+    <t>Kaistella sp002426785</t>
   </si>
   <si>
     <t>BACL21 sp002694465</t>
   </si>
   <si>
-    <t>Flavobacterium sp004349315</t>
-  </si>
-  <si>
-    <t>Flavobacterium gilvum</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002482945</t>
-  </si>
-  <si>
-    <t>Flavobacterium plurextorum</t>
-  </si>
-  <si>
-    <t>Muricauda sp003057865</t>
-  </si>
-  <si>
-    <t>Leeuwenhoekiella sp004104115</t>
-  </si>
-  <si>
-    <t>BACL21 sp002440705</t>
-  </si>
-  <si>
-    <t>Lutibacter oceani</t>
-  </si>
-  <si>
-    <t>Flavobacterium aquidurense</t>
-  </si>
-  <si>
-    <t>Kaistella sp002453895</t>
-  </si>
-  <si>
-    <t>Croceivirga sp005144745</t>
-  </si>
-  <si>
-    <t>Tenacibaculum finnmarkense</t>
-  </si>
-  <si>
-    <t>Flavobacterium reichenbachii</t>
-  </si>
-  <si>
-    <t>MED-G11 sp002729755</t>
-  </si>
-  <si>
-    <t>Epilithonimonas hungaricum</t>
-  </si>
-  <si>
-    <t>Capnocytophaga sp002209445</t>
-  </si>
-  <si>
-    <t>Apibacter adventoris</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp003314435</t>
-  </si>
-  <si>
-    <t>MAG-120531 sp002378585</t>
-  </si>
-  <si>
-    <t>Ornithobacterium hominis</t>
-  </si>
-  <si>
-    <t>Chryseobacterium vrystaatense</t>
-  </si>
-  <si>
-    <t>Kaistella sp002454815</t>
-  </si>
-  <si>
-    <t>Muricauda sp003584165</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002786385</t>
-  </si>
-  <si>
-    <t>UBA7446 sp002470745</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp900129795</t>
-  </si>
-  <si>
-    <t>Olleya sp002323495</t>
-  </si>
-  <si>
-    <t>Cellulophaga algicola</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp004122145</t>
-  </si>
-  <si>
-    <t>Flavobacterium oncorhynchi</t>
-  </si>
-  <si>
-    <t>Cloacibacterium sp002422665</t>
-  </si>
-  <si>
-    <t>GCA-2747105 sp.</t>
-  </si>
-  <si>
-    <t>Chryseobacterium culicis_A</t>
-  </si>
-  <si>
-    <t>Gramella sp.</t>
-  </si>
-  <si>
-    <t>Altibacter sp002696485</t>
-  </si>
-  <si>
-    <t>UBA8316 sp002390455</t>
-  </si>
-  <si>
-    <t>Flavobacterium frigidimaris</t>
-  </si>
-  <si>
-    <t>Algoriella xinjiangensis</t>
-  </si>
-  <si>
-    <t>Maribacter sp002742365</t>
-  </si>
-  <si>
-    <t>Winogradskyella pacifica</t>
-  </si>
-  <si>
-    <t>UBA7446 sp002862705</t>
-  </si>
-  <si>
-    <t>Oceanihabitans sediminis</t>
-  </si>
-  <si>
-    <t>Polaribacter sejongensis</t>
-  </si>
-  <si>
-    <t>Lutibacter sp002733285</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp003242135</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp004339525</t>
-  </si>
-  <si>
-    <t>Aequorivita soesokkakensis</t>
-  </si>
-  <si>
-    <t>Polaribacter dokdonensis</t>
-  </si>
-  <si>
-    <t>Apibacter mensalis</t>
-  </si>
-  <si>
-    <t>Chryseobacterium bernardetii</t>
-  </si>
-  <si>
-    <t>Winogradskyella sp002163855</t>
-  </si>
-  <si>
-    <t>Chryseobacterium piperi</t>
-  </si>
-  <si>
-    <t>Tenacibaculum sp900105985</t>
-  </si>
-  <si>
-    <t>Muricauda olearia</t>
-  </si>
-  <si>
-    <t>Mariniflexile sp002848895</t>
-  </si>
-  <si>
-    <t>Robertkochia marina</t>
-  </si>
-  <si>
-    <t>Kaistella sp002426785</t>
-  </si>
-  <si>
-    <t>Flavobacterium commune</t>
-  </si>
-  <si>
-    <t>Mesonia algae</t>
-  </si>
-  <si>
-    <t>Tenacibaculum dicentrarchi_C</t>
-  </si>
-  <si>
-    <t>Chryseobacterium rhizoplanae</t>
-  </si>
-  <si>
-    <t>Aequorivita antarctica</t>
-  </si>
-  <si>
-    <t>Kaistella koreense</t>
-  </si>
-  <si>
-    <t>Muricauda sp002699205</t>
-  </si>
-  <si>
-    <t>Psychroflexus halocasei</t>
-  </si>
-  <si>
-    <t>Mariniflexile sp002426835</t>
-  </si>
-  <si>
-    <t>Aquimarina sp900299535</t>
-  </si>
-  <si>
-    <t>MED-G11 sp002457075</t>
-  </si>
-  <si>
-    <t>UBA7949 sp003511845</t>
-  </si>
-  <si>
-    <t>Flavobacterium saliperosum</t>
-  </si>
-  <si>
-    <t>Arenitalea lutea</t>
-  </si>
-  <si>
-    <t>Polaribacter sp002005425</t>
-  </si>
-  <si>
-    <t>Moheibacter sp.</t>
-  </si>
-  <si>
-    <t>Tenacibaculum ovolyticum</t>
-  </si>
-  <si>
-    <t>Chryseobacterium piscicola</t>
-  </si>
-  <si>
-    <t>Maribacter stanieri</t>
-  </si>
-  <si>
-    <t>AU392 sp003443635</t>
-  </si>
-  <si>
-    <t>Algorimicrobium echini</t>
-  </si>
-  <si>
-    <t>Muricauda sp003584135</t>
-  </si>
-  <si>
-    <t>Zobellia uliginosa_A</t>
-  </si>
-  <si>
-    <t>Algorimicrobium sp001678685</t>
-  </si>
-  <si>
-    <t>Muricauda zhangzhouensis</t>
-  </si>
-  <si>
-    <t>Chryseobacterium nematophagum_B</t>
-  </si>
-  <si>
-    <t>MED-G11 sp.</t>
-  </si>
-  <si>
-    <t>Capnocytophaga sp.</t>
-  </si>
-  <si>
-    <t>Mangrovimonas sp001280515</t>
-  </si>
-  <si>
-    <t>Zobellia galactanivorans</t>
-  </si>
-  <si>
-    <t>Tamlana_A agarivorans</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp900156935</t>
-  </si>
-  <si>
-    <t>Muricauda taeanensis</t>
-  </si>
-  <si>
-    <t>Chryseobacterium daecheongense</t>
-  </si>
-  <si>
-    <t>Flavobacterium suncheonense</t>
-  </si>
-  <si>
-    <t>MED-G14 sp004321735</t>
-  </si>
-  <si>
-    <t>Chryseobacterium contaminans</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp004634195</t>
-  </si>
-  <si>
-    <t>MAG-121220-bin8 sp004214185</t>
-  </si>
-  <si>
-    <t>Flavobacterium arcticum</t>
-  </si>
-  <si>
-    <t>MS024-2A sp002384715</t>
-  </si>
-  <si>
-    <t>Kordia sp.</t>
-  </si>
-  <si>
-    <t>Flavobacterium psychrophilum_A</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp004119455</t>
-  </si>
-  <si>
-    <t>Lacinutrix venerupis</t>
-  </si>
-  <si>
-    <t>MAG-120531 sp.</t>
-  </si>
-  <si>
-    <t>Nonlabens dokdonensis</t>
-  </si>
-  <si>
-    <t>Flavobacterium chilense</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp001429295</t>
-  </si>
-  <si>
-    <t>Gillisia sp.</t>
-  </si>
-  <si>
-    <t>BACL21 sp002335345</t>
-  </si>
-  <si>
-    <t>Flavobacterium enshiense</t>
-  </si>
-  <si>
-    <t>Aquimarina sp003443675</t>
-  </si>
-  <si>
-    <t>Seonamhaeicola sp.</t>
-  </si>
-  <si>
-    <t>UBA8316 sp002364535</t>
-  </si>
-  <si>
-    <t>Chryseobacterium taihuense</t>
-  </si>
-  <si>
-    <t>TMED96 sp002171475</t>
-  </si>
-  <si>
-    <t>Mesoflavibacter sp003008475</t>
-  </si>
-  <si>
-    <t>Polaribacter vadi</t>
-  </si>
-  <si>
-    <t>Muricauda sp002452975</t>
-  </si>
-  <si>
-    <t>Bergeyella_A cardium</t>
-  </si>
-  <si>
-    <t>Arenibacter palladensis</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp001677955</t>
-  </si>
-  <si>
-    <t>Chryseobacterium lathyri</t>
-  </si>
-  <si>
-    <t>Capnocytophaga gingivalis</t>
-  </si>
-  <si>
-    <t>Wenyingzhuangia sp.</t>
-  </si>
-  <si>
-    <t>Flavobacterium rivuli</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp001456155</t>
-  </si>
-  <si>
-    <t>Gelidibacter algens</t>
-  </si>
-  <si>
-    <t>Olleya marilimosa</t>
-  </si>
-  <si>
-    <t>Salinimicrobium catena</t>
-  </si>
-  <si>
-    <t>Epilithonimonas caeni</t>
-  </si>
-  <si>
-    <t>Aequorivita lipolytica</t>
-  </si>
-  <si>
-    <t>HC6-5 sp.</t>
-  </si>
-  <si>
-    <t>Gillisia sp900104765</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp003096795</t>
-  </si>
-  <si>
-    <t>Flavobacterium circumlabens</t>
-  </si>
-  <si>
-    <t>Aequorivita sp002715485</t>
-  </si>
-  <si>
-    <t>Chryseobacterium hispalense</t>
-  </si>
-  <si>
-    <t>Aquimarina sp900299525</t>
-  </si>
-  <si>
-    <t>UBA11891 sp003533785</t>
-  </si>
-  <si>
-    <t>Pricia sp.</t>
-  </si>
-  <si>
-    <t>Chryseobacterium shigense</t>
-  </si>
-  <si>
-    <t>Flavobacterium flevense</t>
-  </si>
-  <si>
-    <t>Salegentibacter salinarum</t>
-  </si>
-  <si>
-    <t>Chryseobacterium nakagawai</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp000799255</t>
-  </si>
-  <si>
-    <t>Arenibacter sp002150785</t>
-  </si>
-  <si>
-    <t>Gramella echinicola</t>
-  </si>
-  <si>
-    <t>Muricauda sp001683915</t>
-  </si>
-  <si>
-    <t>Dokdonia sp000212355</t>
-  </si>
-  <si>
-    <t>Maribacter aurantiacus</t>
-  </si>
-  <si>
-    <t>Tenacibaculum litoreum</t>
-  </si>
-  <si>
-    <t>Marinirhabdus sp002707745</t>
-  </si>
-  <si>
-    <t>Chryseobacterium jejuense</t>
-  </si>
-  <si>
-    <t>GCA-002723295 sp002690805</t>
-  </si>
-  <si>
-    <t>Bergeyella_A sp002484105</t>
-  </si>
-  <si>
-    <t>Maribacter sedimenticola</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp004349145</t>
-  </si>
-  <si>
-    <t>Gillisia sp000424645</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp003385515</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002352205</t>
-  </si>
-  <si>
-    <t>Polaribacter glomeratus</t>
-  </si>
-  <si>
-    <t>UBA8316 sp002711215</t>
-  </si>
-  <si>
-    <t>Aquimarina sp900312735</t>
-  </si>
-  <si>
-    <t>Flavobacterium fryxellicola</t>
-  </si>
-  <si>
-    <t>Leeuwenhoekiella marinoflava</t>
-  </si>
-  <si>
-    <t>Maribacter litoralis</t>
-  </si>
-  <si>
-    <t>Flavobacterium akiainvivens</t>
-  </si>
-  <si>
-    <t>UBA724 sp002430545</t>
-  </si>
-  <si>
-    <t>Flavobacterium hydatis</t>
-  </si>
-  <si>
-    <t>Chryseobacterium culicis</t>
-  </si>
-  <si>
-    <t>TPBH4 sp001280435</t>
-  </si>
-  <si>
-    <t>Flavobacterium haoranii</t>
-  </si>
-  <si>
-    <t>UBA7446 sp002313325</t>
-  </si>
-  <si>
-    <t>Flavobacterium glaciei</t>
-  </si>
-  <si>
-    <t>Nonlabens ulvanivorans_A</t>
-  </si>
-  <si>
-    <t>Winogradskyella sediminis</t>
-  </si>
-  <si>
-    <t>Epilithonimonas halperniae</t>
-  </si>
-  <si>
-    <t>Hanstruepera crassostreae</t>
-  </si>
-  <si>
-    <t>Nonlabens xylanidelens</t>
-  </si>
-  <si>
-    <t>Tenacibaculum lutimaris</t>
-  </si>
-  <si>
-    <t>Maribacter sp001913155</t>
-  </si>
-  <si>
-    <t>Psychroflexus gondwanensis</t>
-  </si>
-  <si>
-    <t>Winogradskyella sp002722255</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp003688345</t>
-  </si>
-  <si>
-    <t>UBA3478 sp002381155</t>
-  </si>
-  <si>
-    <t>Myroides profundi</t>
-  </si>
-  <si>
-    <t>KYPW7 sp003852705</t>
-  </si>
-  <si>
-    <t>Marinirhabdus sp002337605</t>
-  </si>
-  <si>
-    <t>Gelidibacter sp003550275</t>
-  </si>
-  <si>
-    <t>Arenibacter sp.</t>
-  </si>
-  <si>
-    <t>Aequorivita viscosa</t>
-  </si>
-  <si>
-    <t>Flavobacterium cheniae</t>
-  </si>
-  <si>
-    <t>Apibacter sp004014855</t>
-  </si>
-  <si>
-    <t>Olleya namhaensis</t>
-  </si>
-  <si>
-    <t>Salegentibacter salegens</t>
-  </si>
-  <si>
-    <t>MAG-121220-bin8 sp002700465</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp003497625</t>
-  </si>
-  <si>
-    <t>Zhouia amylolytica</t>
-  </si>
-  <si>
-    <t>Formosa algae</t>
-  </si>
-  <si>
-    <t>Flavobacterium noncentrifugens</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002754315</t>
-  </si>
-  <si>
-    <t>Flavobacterium araucananum</t>
-  </si>
-  <si>
-    <t>Bizionia sp.</t>
-  </si>
-  <si>
-    <t>Flavobacterium subsaxonicum</t>
-  </si>
-  <si>
-    <t>Flavobacterium endophyticum</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp006491645</t>
-  </si>
-  <si>
-    <t>Chryseobacterium aquifrigidense</t>
-  </si>
-  <si>
-    <t>Chryseobacterium aquaticum</t>
-  </si>
-  <si>
-    <t>GCA-2733415 sp.</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp001429765</t>
-  </si>
-  <si>
-    <t>Elizabethkingia occulta</t>
-  </si>
-  <si>
-    <t>Psychroserpens burtonensis</t>
-  </si>
-  <si>
-    <t>Leeuwenhoekiella nanhaiensis</t>
-  </si>
-  <si>
-    <t>MAG-121220-bin8 sp002705485</t>
-  </si>
-  <si>
-    <t>Polaribacter sp002471825</t>
-  </si>
-  <si>
-    <t>Lutibacter sp003516285</t>
-  </si>
-  <si>
-    <t>Flavobacterium resistens</t>
-  </si>
-  <si>
-    <t>Flavobacterium granuli</t>
-  </si>
-  <si>
-    <t>UBA3537 sp002709185</t>
-  </si>
-  <si>
-    <t>Elizabethkingia sp003058195</t>
-  </si>
-  <si>
-    <t>Muricauda sp003973595</t>
-  </si>
-  <si>
-    <t>BACL21 sp002707025</t>
-  </si>
-  <si>
-    <t>Croceivirga radicis</t>
-  </si>
-  <si>
-    <t>Psychroflexus sp.</t>
-  </si>
-  <si>
-    <t>Flavobacterium crassostreae</t>
+    <t>Polaribacter sp003129485</t>
+  </si>
+  <si>
+    <t>Muricauda sp003058265</t>
+  </si>
+  <si>
+    <t>TPBH4 sp001280505</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp002737105</t>
+  </si>
+  <si>
+    <t>Arenibacter sp003426735</t>
+  </si>
+  <si>
+    <t>MS024-2A_A sp002457295</t>
+  </si>
+  <si>
+    <t>Flavobacterium filum</t>
+  </si>
+  <si>
+    <t>Cellulophaga sp002813425</t>
+  </si>
+  <si>
+    <t>Flavobacterium frigoris_A</t>
+  </si>
+  <si>
+    <t>Aequorivita aquimaris</t>
+  </si>
+  <si>
+    <t>Ichthyenterobacterium magnum</t>
+  </si>
+  <si>
+    <t>Salegentibacter sp000745315</t>
+  </si>
+  <si>
+    <t>Kaistella sp000023725</t>
+  </si>
+  <si>
+    <t>Oceanihabitans himadriensis</t>
+  </si>
+  <si>
+    <t>UBA6231 sp002441545</t>
+  </si>
+  <si>
+    <t>MED-G11 sp004214015</t>
+  </si>
+  <si>
+    <t>Gillisia sp002364325</t>
+  </si>
+  <si>
+    <t>Polaribacter filamentus</t>
+  </si>
+  <si>
+    <t>Aquimarina megaterium</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp000745535</t>
+  </si>
+  <si>
+    <t>Pseudozobellia sp002813285</t>
+  </si>
+  <si>
+    <t>Winogradskyella sp000171875</t>
+  </si>
+  <si>
+    <t>Myroides sp002286775</t>
+  </si>
+  <si>
+    <t>Flavobacterium weaverense</t>
+  </si>
+  <si>
+    <t>Flavobacterium segetis</t>
+  </si>
+  <si>
+    <t>MED-G14 sp003331875</t>
+  </si>
+  <si>
+    <t>Changchengzhania lutea</t>
+  </si>
+  <si>
+    <t>Zobellia sp.</t>
+  </si>
+  <si>
+    <t>Epilithonimonas sp003932955</t>
+  </si>
+  <si>
+    <t>Muricauda sp000745185</t>
+  </si>
+  <si>
+    <t>Robertkochia sp.</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp002979455</t>
+  </si>
+  <si>
+    <t>Flavivirga eckloniae</t>
+  </si>
+  <si>
+    <t>Muricauda aquimarina</t>
+  </si>
+  <si>
+    <t>Cellulophaga sp000799565</t>
+  </si>
+  <si>
+    <t>Epilithonimonas sp002383165</t>
+  </si>
+  <si>
+    <t>UBA8316 sp003538555</t>
+  </si>
+  <si>
+    <t>Gelidibacter gilvus</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp006829085</t>
+  </si>
+  <si>
+    <t>Mangrovimonas yunxiaonensis</t>
+  </si>
+  <si>
+    <t>Mesonia sp006546625</t>
+  </si>
+  <si>
+    <t>Chryseobacterium taeanense</t>
+  </si>
+  <si>
+    <t>Dokdonia sp000355805</t>
+  </si>
+  <si>
+    <t>Tenacibaculum sp900105455</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp000282055</t>
+  </si>
+  <si>
+    <t>Robiginitalea sp002198115</t>
+  </si>
+  <si>
+    <t>Flavobacterium caeni</t>
+  </si>
+  <si>
+    <t>Flavobacterium succinicans_A</t>
+  </si>
+  <si>
+    <t>Maribacter sp005771495</t>
+  </si>
+  <si>
+    <t>Chryseobacterium taiwanense</t>
+  </si>
+  <si>
+    <t>Epilithonimonas xixisoli</t>
+  </si>
+  <si>
+    <t>Capnocytophaga stomatis</t>
+  </si>
+  <si>
+    <t>UBA3537 sp002690085</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp003254745</t>
+  </si>
+  <si>
+    <t>Chryseobacterium daeguense</t>
+  </si>
+  <si>
+    <t>Kaistella sp001898255</t>
+  </si>
+  <si>
+    <t>Kordia zhangzhouensis</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp004119495</t>
+  </si>
+  <si>
+    <t>Tenacibaculum sp004762155</t>
+  </si>
+  <si>
+    <t>CAU-1491 sp.</t>
+  </si>
+  <si>
+    <t>Maribacter_A sp000153165</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp001800945</t>
+  </si>
+  <si>
+    <t>Epilithonimonas sp001643375</t>
+  </si>
+  <si>
+    <t>Psychroflexus salarius</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp004368785</t>
+  </si>
+  <si>
+    <t>Lacinutrix jangbogonensis</t>
+  </si>
+  <si>
+    <t>UBA3537_A sp002721175</t>
+  </si>
+  <si>
+    <t>MAG-121220-bin8 sp003331265</t>
+  </si>
+  <si>
+    <t>Algibacter_D aestuarii</t>
+  </si>
+  <si>
+    <t>Confluentibacter sp002280395</t>
+  </si>
+  <si>
+    <t>Flavobacterium psychrolimnae</t>
+  </si>
+  <si>
+    <t>Cellulophaga sp.</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp005792865</t>
+  </si>
+  <si>
+    <t>Pseudozobellia thermophila</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp000333355</t>
+  </si>
+  <si>
+    <t>Nonlabens sp001413925</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp004349085</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp001425355</t>
+  </si>
+  <si>
+    <t>MAR-2010-188 sp006494535</t>
+  </si>
+  <si>
+    <t>Dokdonia sp003095655</t>
+  </si>
+  <si>
+    <t>MED-G14 sp003331885</t>
+  </si>
+  <si>
+    <t>Maribacter sp005885635</t>
+  </si>
+  <si>
+    <t>Aquimarina brevivitae</t>
+  </si>
+  <si>
+    <t>Leeuwenhoekiella polynyae</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp002150205</t>
+  </si>
+  <si>
+    <t>Flavobacterium beibuense</t>
+  </si>
+  <si>
+    <t>Lutibacter sp003260195</t>
+  </si>
+  <si>
+    <t>Lutibacter sp004121075</t>
+  </si>
+  <si>
+    <t>Aequorivita sp002733915</t>
+  </si>
+  <si>
+    <t>Elizabethkingia sp003852805</t>
+  </si>
+  <si>
+    <t>Oceanihabitans sp.</t>
+  </si>
+  <si>
+    <t>Confluentibacter sp003258355</t>
+  </si>
+  <si>
+    <t>Arenibacter latericius</t>
+  </si>
+  <si>
+    <t>GCA-002723295 sp002711185</t>
+  </si>
+  <si>
+    <t>UBA2674 sp002693605</t>
+  </si>
+  <si>
+    <t>GCA-002728855 sp002702405</t>
+  </si>
+  <si>
+    <t>Epilithonimonas hispanicum</t>
+  </si>
+  <si>
+    <t>Flavobacterium defluvii</t>
+  </si>
+  <si>
+    <t>PTET01 sp004359435</t>
+  </si>
+  <si>
+    <t>Epilithonimonas molle</t>
+  </si>
+  <si>
+    <t>Chryseobacterium oncorhynchi</t>
+  </si>
+  <si>
+    <t>Tenacibaculum skagerrakense</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp002754245</t>
+  </si>
+  <si>
+    <t>Flavobacterium haoranii_A</t>
+  </si>
+  <si>
+    <t>Kaistella sp002197835</t>
+  </si>
+  <si>
+    <t>Myroides guanonis</t>
+  </si>
+  <si>
+    <t>Algorimicrobium sp.</t>
+  </si>
+  <si>
+    <t>Psychroserpens mesophilus</t>
+  </si>
+  <si>
+    <t>Algibacter_C aquaticus</t>
+  </si>
+  <si>
+    <t>Tenacibaculum jejuense</t>
+  </si>
+  <si>
+    <t>Marixanthomonas sp002364245</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp900169075</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp000799515</t>
+  </si>
+  <si>
+    <t>GCA-002401385 sp002401385</t>
+  </si>
+  <si>
+    <t>Maribacter forsetii</t>
+  </si>
+  <si>
+    <t>Flavobacterium frigidarium</t>
+  </si>
+  <si>
+    <t>Muricauda sp002813125</t>
+  </si>
+  <si>
+    <t>Mesoflavibacter sp.</t>
+  </si>
+  <si>
+    <t>Flavobacterium johnsoniae_A</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp003097635</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp003312915</t>
+  </si>
+  <si>
+    <t>GCA-002723295 sp002723295</t>
+  </si>
+  <si>
+    <t>Flavivirga sp004791695</t>
+  </si>
+  <si>
+    <t>Tenacibaculum_A todarodis</t>
+  </si>
+  <si>
+    <t>Jejuia sp004310325</t>
+  </si>
+  <si>
+    <t>Marixanthomonas sp002631855</t>
+  </si>
+  <si>
+    <t>Maribacter ulvicola</t>
+  </si>
+  <si>
+    <t>Kaistella sp001403755</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp002482975</t>
+  </si>
+  <si>
+    <t>Flavobacterium tistrianum</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp002382495</t>
+  </si>
+  <si>
+    <t>Galbibacter marinus</t>
+  </si>
+  <si>
+    <t>Aquimarina sp006443095</t>
+  </si>
+  <si>
+    <t>Kaistella sp002415135</t>
+  </si>
+  <si>
+    <t>Ulvibacter_A alkanivorans</t>
+  </si>
+  <si>
+    <t>Sinomicrobium sp003285545</t>
+  </si>
+  <si>
+    <t>Mariniflexile fucanivorans</t>
+  </si>
+  <si>
+    <t>Capnocytophaga sp000192225</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp002899825</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp002216065</t>
+  </si>
+  <si>
+    <t>Salinimicrobium terrae</t>
+  </si>
+  <si>
+    <t>Algibacter_A alginicilyticus</t>
+  </si>
+  <si>
+    <t>Aquimarina sp900312815</t>
+  </si>
+  <si>
+    <t>Myroides sp003858535</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp003963025</t>
+  </si>
+  <si>
+    <t>Robiginitalea myxolifaciens</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp004362055</t>
+  </si>
+  <si>
+    <t>Maribacter thermophilus</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp003403075</t>
+  </si>
+  <si>
+    <t>Algorimicrobium sp002414705</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp002428305</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp000426145</t>
+  </si>
+  <si>
+    <t>Marixanthomonas ophiurae</t>
+  </si>
+  <si>
+    <t>Psychroserpens sp000688335</t>
+  </si>
+  <si>
+    <t>Myroides sp004151275</t>
+  </si>
+  <si>
+    <t>YIM-102668 sp.</t>
+  </si>
+  <si>
+    <t>Chishuiella sp002430925</t>
+  </si>
+  <si>
+    <t>Cloacibacterium sp002337005</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp003946915</t>
+  </si>
+  <si>
+    <t>GCA-2700405 sp002700405</t>
+  </si>
+  <si>
+    <t>Chryseobacterium defluvii</t>
+  </si>
+  <si>
+    <t>Aquimarina sp002697475</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp001427905</t>
+  </si>
+  <si>
+    <t>Gillisia mitskevichiae</t>
+  </si>
+  <si>
+    <t>MS024-2A sp002167945</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp001422725</t>
+  </si>
+  <si>
+    <t>SGZJ01 sp004213995</t>
+  </si>
+  <si>
+    <t>Zeaxanthinibacter enoshimensis</t>
+  </si>
+  <si>
+    <t>Altibacter sp002813135</t>
+  </si>
+  <si>
+    <t>Flavobacterium cyanobacteriorum</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp007097145</t>
+  </si>
+  <si>
+    <t>Tamlana_A sp006265225</t>
+  </si>
+  <si>
+    <t>Epilithonimonas sp000735135</t>
+  </si>
+  <si>
+    <t>Polaribacter atrinae</t>
+  </si>
+  <si>
+    <t>Formosa agariphila</t>
+  </si>
+  <si>
+    <t>QNYL01 sp003973375</t>
+  </si>
+  <si>
+    <t>Xanthomarina sp003144015</t>
+  </si>
+  <si>
+    <t>Lacinutrix sp002831665</t>
+  </si>
+  <si>
+    <t>UBA7428 sp002708445</t>
+  </si>
+  <si>
+    <t>Mesonia sp003233725</t>
+  </si>
+  <si>
+    <t>Empedobacter sp.</t>
+  </si>
+  <si>
+    <t>Gillisia limnaea</t>
+  </si>
+  <si>
+    <t>GCA-002401385 sp002400885</t>
+  </si>
+  <si>
+    <t>Winogradskyella sp005869935</t>
+  </si>
+  <si>
+    <t>Aquimarina amphilecti</t>
+  </si>
+  <si>
+    <t>Maribacter cobaltidurans</t>
+  </si>
+  <si>
+    <t>Myroides marinum</t>
+  </si>
+  <si>
+    <t>Flavobacterium cutihirudinis</t>
+  </si>
+  <si>
+    <t>GCA-2747105 sp002747105</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp003815655</t>
+  </si>
+  <si>
+    <t>GCA-002723295 sp002721275</t>
+  </si>
+  <si>
+    <t>Muricauda eckloniae</t>
+  </si>
+  <si>
+    <t>Maribacter aquivivus</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp002399805</t>
+  </si>
+  <si>
+    <t>UBA7428 sp002477625</t>
+  </si>
+  <si>
+    <t>Sediminicola sp001430825</t>
+  </si>
+  <si>
+    <t>Jejuia pacifica</t>
+  </si>
+  <si>
+    <t>Olleya aquimaris</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp002835665</t>
+  </si>
+  <si>
+    <t>Chryseobacterium camelliae</t>
+  </si>
+  <si>
+    <t>CG2-30-34-30 sp.</t>
+  </si>
+  <si>
+    <t>Gramella gaetbulicola</t>
+  </si>
+  <si>
+    <t>Zunongwangia mangrovi</t>
+  </si>
+  <si>
+    <t>Sinomicrobium pectinilyticum</t>
+  </si>
+  <si>
+    <t>Winogradskyella wandonensis</t>
+  </si>
+  <si>
+    <t>Psychroflexus aestuariivivens</t>
+  </si>
+  <si>
+    <t>UBA3478 sp.</t>
+  </si>
+  <si>
+    <t>GCA-2747695 sp.</t>
+  </si>
+  <si>
+    <t>Formosa haliotis</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp003663845</t>
+  </si>
+  <si>
+    <t>Winogradskyella sp002364335</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp003347605</t>
+  </si>
+  <si>
+    <t>MED-G14 sp002693085</t>
+  </si>
+  <si>
+    <t>LPB0138 sp002733665</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp003729935</t>
+  </si>
+  <si>
+    <t>Chryseobacterium gregarium</t>
+  </si>
+  <si>
+    <t>Maribacter sp002742265</t>
+  </si>
+  <si>
+    <t>Ulvibacter antarcticus</t>
+  </si>
+  <si>
+    <t>Epilithonimonas sp001898785</t>
+  </si>
+  <si>
+    <t>Tenacibaculum gallaicum</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp002304005</t>
+  </si>
+  <si>
+    <t>Psychroflexus sp007116535</t>
+  </si>
+  <si>
+    <t>YIM-102668 sp003687725</t>
+  </si>
+  <si>
+    <t>GCA-2733415 sp002733415</t>
+  </si>
+  <si>
+    <t>Polaribacter sp003537695</t>
+  </si>
+  <si>
+    <t>UBA7949 sp003449015</t>
+  </si>
+  <si>
+    <t>Muriicola sp004139715</t>
+  </si>
+  <si>
+    <t>Gramella salexigens</t>
+  </si>
+  <si>
+    <t>Epilithonimonas sp002297505</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp000799335</t>
+  </si>
+  <si>
+    <t>Tenacibaculum sp002954385</t>
+  </si>
+  <si>
+    <t>Polaribacter sp002163675</t>
+  </si>
+  <si>
+    <t>TMED96 sp002728075</t>
+  </si>
+  <si>
+    <t>Tamlana_A sp004804355</t>
+  </si>
+  <si>
+    <t>Psychroflexus sp006120725</t>
+  </si>
+  <si>
+    <t>Elizabethkingia sp006088815</t>
+  </si>
+  <si>
+    <t>Chryseobacterium soldanellicola</t>
+  </si>
+  <si>
+    <t>Flavicella sp.</t>
+  </si>
+  <si>
+    <t>Chryseobacterium indologenes_A</t>
+  </si>
+  <si>
+    <t>Kordia algicida</t>
+  </si>
+  <si>
+    <t>Gilvibacter sp.</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp004797125</t>
+  </si>
+  <si>
+    <t>Lutibacter maritimus</t>
+  </si>
+  <si>
+    <t>Tenacibaculum agarivorans</t>
+  </si>
+  <si>
+    <t>Flavobacterium xueshanense</t>
+  </si>
+  <si>
+    <t>Arenibacter sp003201775</t>
+  </si>
+  <si>
+    <t>Weeksella massiliensis</t>
+  </si>
+  <si>
+    <t>Flavobacterium pallidum</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp001045445</t>
+  </si>
+  <si>
+    <t>Polaribacter sp900105145</t>
+  </si>
+  <si>
+    <t>MS024-2A sp002714815</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp003634825</t>
+  </si>
+  <si>
+    <t>Wenyingzhuangia marina</t>
+  </si>
+  <si>
+    <t>Winogradskyella sp000828715</t>
+  </si>
+  <si>
+    <t>Xanthomarina sp002366675</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp002715085</t>
+  </si>
+  <si>
+    <t>Maribacter sp003232155</t>
+  </si>
+  <si>
+    <t>Leeuwenhoekiella aequorea</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp002483285</t>
+  </si>
+  <si>
+    <t>Chryseobacterium wanjuense</t>
+  </si>
+  <si>
+    <t>MED-G13 sp002702745</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp002483315</t>
+  </si>
+  <si>
+    <t>Chryseobacterium artocarpi</t>
+  </si>
+  <si>
+    <t>UBA724 sp002171575</t>
+  </si>
+  <si>
+    <t>Seonamhaeicola sp001971785</t>
+  </si>
+  <si>
+    <t>Chryseobacterium angstadtii</t>
+  </si>
+  <si>
+    <t>Aquimarina agarilytica</t>
+  </si>
+  <si>
+    <t>Arenibacter troitsensis</t>
+  </si>
+  <si>
+    <t>Flavobacterium cucumis</t>
+  </si>
+  <si>
+    <t>GCA-002733185 sp002713705</t>
+  </si>
+  <si>
+    <t>Kordia jejudonensis</t>
+  </si>
+  <si>
+    <t>Kordia sp006383075</t>
+  </si>
+  <si>
+    <t>Cellulophaga sp001999725</t>
+  </si>
+  <si>
+    <t>Flavobacterium beibuense_A</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp001464475</t>
+  </si>
+  <si>
+    <t>GCA-2700405 sp004213965</t>
+  </si>
+  <si>
+    <t>UBA7949 sp002352665</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp002862755</t>
+  </si>
+  <si>
+    <t>Lacinutrix sp000934685</t>
+  </si>
+  <si>
+    <t>Nonlabens sp003865345</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp002836475</t>
+  </si>
+  <si>
+    <t>Riemerella columbipharyngis</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp001975985</t>
+  </si>
+  <si>
+    <t>Flavobacterium fluvii</t>
+  </si>
+  <si>
+    <t>Lutibacter sp001800975</t>
+  </si>
+  <si>
+    <t>Gramella portivictoriae</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp001424145</t>
+  </si>
+  <si>
+    <t>Zeaxanthinibacter sp001683825</t>
+  </si>
+  <si>
+    <t>Bin25 sp002238525</t>
+  </si>
+  <si>
+    <t>Flavobacterium soli</t>
+  </si>
+  <si>
+    <t>Psychroflexus torquis</t>
+  </si>
+  <si>
+    <t>Nonlabens sp000153385</t>
+  </si>
+  <si>
+    <t>Polaribacter butkevichii</t>
+  </si>
+  <si>
+    <t>Seonamhaeicola sp004358095</t>
+  </si>
+  <si>
+    <t>Flavobacterium hercynium</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp000744835</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp001507425</t>
+  </si>
+  <si>
+    <t>Epilithonimonas sp002476905</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp003815715</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp003669035</t>
+  </si>
+  <si>
+    <t>Polaribacter gangjinensis</t>
+  </si>
+  <si>
+    <t>Chryseobacterium limigenitum</t>
+  </si>
+  <si>
+    <t>TMED220 sp002169155</t>
+  </si>
+  <si>
+    <t>Gramella sp007050985</t>
+  </si>
+  <si>
+    <t>Polaribacter sp000687935</t>
+  </si>
+  <si>
+    <t>Marinirhabdus gelatinilytica</t>
+  </si>
+  <si>
+    <t>Ichthyenterobacterium sp002162765</t>
+  </si>
+  <si>
+    <t>Confluentibacter citreus</t>
+  </si>
+  <si>
+    <t>Flavobacterium saccharophilum</t>
+  </si>
+  <si>
+    <t>Lacinutrix mariniflava</t>
+  </si>
+  <si>
+    <t>Flavobacterium magnum</t>
+  </si>
+  <si>
+    <t>Nonlabens sp900101765</t>
+  </si>
+  <si>
+    <t>Pricia antarctica</t>
+  </si>
+  <si>
+    <t>Tamlana_B sedimentorum</t>
+  </si>
+  <si>
+    <t>Muricauda flava</t>
+  </si>
+  <si>
+    <t>Capnocytophaga sp000318275</t>
+  </si>
+  <si>
+    <t>GCA-002728855 sp002728855</t>
+  </si>
+  <si>
+    <t>Chryseobacterium ureilyticum</t>
+  </si>
+  <si>
+    <t>MS024-2A sp002169865</t>
+  </si>
+  <si>
+    <t>Flavobacterium aquicola</t>
+  </si>
+  <si>
+    <t>Chryseobacterium taichungense</t>
+  </si>
+  <si>
+    <t>Muricauda sp002167435</t>
+  </si>
+  <si>
+    <t>Algibacter_B pectinivorans</t>
+  </si>
+  <si>
+    <t>MS024-2A sp002705385</t>
+  </si>
+  <si>
+    <t>Confluentibacter sp002843175</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp001424105</t>
+  </si>
+  <si>
+    <t>LPB0005 sp001637325</t>
+  </si>
+  <si>
+    <t>Chryseobacterium luteum</t>
+  </si>
+  <si>
+    <t>Formosa sp007197735</t>
+  </si>
+  <si>
+    <t>Lacinutrix sp000211855</t>
+  </si>
+  <si>
+    <t>Maribacter sp003933245</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp003105115</t>
+  </si>
+  <si>
+    <t>Chryseobacterium greenlandense</t>
+  </si>
+  <si>
+    <t>Polaribacter sp003335085</t>
+  </si>
+  <si>
+    <t>Winogradskyella thalassocola</t>
+  </si>
+  <si>
+    <t>Salegentibacter echinorum</t>
+  </si>
+  <si>
+    <t>Flavobacterium_B sp002256385</t>
+  </si>
+  <si>
+    <t>Epilithonimonas tenax</t>
+  </si>
+  <si>
+    <t>Flavobacterium limnosediminis</t>
+  </si>
+  <si>
+    <t>Muricauda sp003382275</t>
+  </si>
+  <si>
+    <t>Muricauda sp004916895</t>
+  </si>
+  <si>
+    <t>Sediminicola_A luteus</t>
+  </si>
+  <si>
+    <t>Aquimarina sediminis</t>
+  </si>
+  <si>
+    <t>Aquimarina muelleri</t>
+  </si>
+  <si>
+    <t>GCA-002733185 sp004213605</t>
+  </si>
+  <si>
+    <t>Siansivirga zeaxanthinifaciens</t>
+  </si>
+  <si>
+    <t>Nonlabens sp002831625</t>
+  </si>
+  <si>
+    <t>GCA-2747695 sp002747695</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp001428525</t>
+  </si>
+  <si>
+    <t>Aquimarina sp002846555</t>
+  </si>
+  <si>
+    <t>Flavobacterium micromati</t>
+  </si>
+  <si>
+    <t>Epilithonimonas sp002345565</t>
+  </si>
+  <si>
+    <t>TMED220 sp002702875</t>
+  </si>
+  <si>
+    <t>Nonlabens agnitus</t>
+  </si>
+  <si>
+    <t>UBA8316 sp002695445</t>
+  </si>
+  <si>
+    <t>UBA8316 sp002336305</t>
+  </si>
+  <si>
+    <t>UBA6231 sp.</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp004293045</t>
+  </si>
+  <si>
+    <t>Nonlabens sp003966335</t>
+  </si>
+  <si>
+    <t>GCA-002401385 sp002401105</t>
+  </si>
+  <si>
+    <t>Flavobacterium xanthum</t>
+  </si>
+  <si>
+    <t>Arenibacter hampyeongensis</t>
+  </si>
+  <si>
+    <t>UBA7949 sp003813905</t>
+  </si>
+  <si>
+    <t>Polaribacter sp000981625</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp007109225</t>
+  </si>
+  <si>
+    <t>Eudoraea adriatica</t>
+  </si>
+  <si>
+    <t>Flavobacterium cupreum</t>
+  </si>
+  <si>
+    <t>Winogradskyella arenosi</t>
+  </si>
+  <si>
+    <t>Chryseobacterium indologenes_F</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp001421435</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp002280815</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp006175945</t>
+  </si>
+  <si>
+    <t>Leeuwenhoekiella sp000687915</t>
+  </si>
+  <si>
+    <t>Winogradskyella sp001971725</t>
+  </si>
+  <si>
+    <t>Aquimarina macrocephali</t>
+  </si>
+  <si>
+    <t>Gillisia sp000403785</t>
+  </si>
+  <si>
+    <t>Wenyingzhuangia fucanilytica</t>
+  </si>
+  <si>
+    <t>Flavobacterium album</t>
+  </si>
+  <si>
+    <t>Flavobacterium ginsenosidimutans</t>
+  </si>
+  <si>
+    <t>Winogradskyella sp002682935</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp004122105</t>
+  </si>
+  <si>
+    <t>UBA7446 sp002698745</t>
+  </si>
+  <si>
+    <t>Myroides indicus</t>
+  </si>
+  <si>
+    <t>Gillisia marina</t>
+  </si>
+  <si>
+    <t>Ornithobacterium rhinotracheale_A</t>
+  </si>
+  <si>
+    <t>Gramella sp900105135</t>
+  </si>
+  <si>
+    <t>GCA-2700405 sp.</t>
+  </si>
+  <si>
+    <t>Capnocytophaga sp002999135</t>
+  </si>
+  <si>
+    <t>Psychroserpens damuponensis</t>
+  </si>
+  <si>
+    <t>Polaribacter tangerinus</t>
+  </si>
+  <si>
+    <t>UBA3376 sp002359055</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp001297705</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp002454195</t>
+  </si>
+  <si>
+    <t>Moheibacter sediminis</t>
+  </si>
+  <si>
+    <t>Flavobacterium jejuense</t>
+  </si>
+  <si>
+    <t>Vaginella massiliensis</t>
+  </si>
+  <si>
+    <t>Flavobacterium sasangense</t>
+  </si>
+  <si>
+    <t>Marixanthomonas sp003095375</t>
+  </si>
+  <si>
+    <t>Polaribacter porphyrae</t>
+  </si>
+  <si>
+    <t>Muricauda sp004296335</t>
+  </si>
+  <si>
+    <t>Muricauda sp003385855</t>
+  </si>
+  <si>
+    <t>Psychroflexus sp003564185</t>
+  </si>
+  <si>
+    <t>UBA3537 sp001735715</t>
+  </si>
+  <si>
+    <t>Formosa sp.</t>
+  </si>
+  <si>
+    <t>Muricauda pacifica_A</t>
+  </si>
+  <si>
+    <t>Olleya sp004843725</t>
+  </si>
+  <si>
+    <t>Flavivirga sp.</t>
+  </si>
+  <si>
+    <t>Lutibacter jeungdoensis</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp004211145</t>
+  </si>
+  <si>
+    <t>Tamlana_B nanhaiensis</t>
+  </si>
+  <si>
+    <t>Croceitalea dokdonensis</t>
+  </si>
+  <si>
+    <t>UBA7446 sp.</t>
+  </si>
+  <si>
+    <t>Flavobacterium fontis</t>
+  </si>
+  <si>
+    <t>LPB0138 sp002401215</t>
+  </si>
+  <si>
+    <t>Flavobacterium urocaniciphilum</t>
+  </si>
+  <si>
+    <t>Gramella sp003024155</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp002862805</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp002303885</t>
+  </si>
+  <si>
+    <t>CCMM003 sp003626755</t>
+  </si>
+  <si>
+    <t>Kaistella solincola</t>
+  </si>
+  <si>
+    <t>Joostella sp.</t>
+  </si>
+  <si>
+    <t>CG1-02-35-72 sp.</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp000967805</t>
+  </si>
+  <si>
+    <t>Winogradskyella tangerina</t>
+  </si>
+  <si>
+    <t>Altibacter lentus</t>
+  </si>
+  <si>
+    <t>Arenibacter echinorum</t>
+  </si>
+  <si>
+    <t>GCA-2719315 sp002719315</t>
+  </si>
+  <si>
+    <t>MED-G14 sp002703065</t>
+  </si>
+  <si>
+    <t>Aequorivita sp900489465</t>
+  </si>
+  <si>
+    <t>Chryseobacterium indologenes_E</t>
+  </si>
+  <si>
+    <t>Confluentibacter lentus</t>
+  </si>
+  <si>
+    <t>Flavobacterium psychrophilum_B</t>
+  </si>
+  <si>
+    <t>Flavobacterium croceum</t>
+  </si>
+  <si>
+    <t>Flavobacterium tegetincola</t>
+  </si>
+  <si>
+    <t>Epilithonimonas sp003248755</t>
+  </si>
+  <si>
+    <t>Kriegella aquimaris</t>
+  </si>
+  <si>
+    <t>Flavobacterium lacus</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp002813295</t>
+  </si>
+  <si>
+    <t>Joostella marina</t>
+  </si>
+  <si>
+    <t>Gelidibacter mesophilus</t>
+  </si>
+  <si>
+    <t>Nonlabens arenilitoris</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp004295795</t>
+  </si>
+  <si>
+    <t>Lutibacter sp002390165</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp003865365</t>
+  </si>
+  <si>
+    <t>Tenacibaculum sp002836595</t>
+  </si>
+  <si>
+    <t>Epilithonimonas zeae</t>
+  </si>
+  <si>
+    <t>Chishuiella sp002484335</t>
+  </si>
+  <si>
+    <t>Lutibacter profundi</t>
+  </si>
+  <si>
+    <t>Kaistella humi</t>
+  </si>
+  <si>
+    <t>Gilvibacter sp002163875</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp003350375</t>
+  </si>
+  <si>
+    <t>Algorimicrobium argentinensis</t>
+  </si>
+  <si>
+    <t>Psychroflexus sediminis</t>
+  </si>
+  <si>
+    <t>Polaribacter haliotis</t>
+  </si>
+  <si>
+    <t>Kaistella sp003692615</t>
+  </si>
+  <si>
+    <t>Flavobacterium limicola</t>
+  </si>
+  <si>
+    <t>Myroides sp002320285</t>
+  </si>
+  <si>
+    <t>Dokdonia sp003688895</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp000745775</t>
+  </si>
+  <si>
+    <t>GCA-002733185 sp002733185</t>
+  </si>
+  <si>
+    <t>Nonlabens spongiae</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp003254585</t>
+  </si>
+  <si>
+    <t>Soonwooa buanensis</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp001529295</t>
+  </si>
+  <si>
+    <t>MED-G14 sp002691165</t>
+  </si>
+  <si>
+    <t>Aquimarina longa</t>
+  </si>
+  <si>
+    <t>Arenibacter nanhaiticus</t>
+  </si>
+  <si>
+    <t>Aequorivita capsosiphonis</t>
+  </si>
+  <si>
+    <t>MAG-121220-bin8 sp002702895</t>
+  </si>
+  <si>
+    <t>Winogradskyella sp003335675</t>
+  </si>
+  <si>
+    <t>Flavobacterium xinjiangense</t>
+  </si>
+  <si>
+    <t>Xanthomarina spongicola</t>
+  </si>
+  <si>
+    <t>Jejuia sp.</t>
+  </si>
+  <si>
+    <t>SZUA-72 sp.</t>
+  </si>
+  <si>
+    <t>Maribacter arcticus</t>
+  </si>
+  <si>
+    <t>Gelidibacter sp002426755</t>
+  </si>
+  <si>
+    <t>Tenacibaculum sp900239505</t>
+  </si>
+  <si>
+    <t>Hanstruepera neustonica</t>
+  </si>
+  <si>
+    <t>RR4-38 sp002966125</t>
+  </si>
+  <si>
+    <t>Seonamhaeicola aphaedonensis</t>
+  </si>
+  <si>
+    <t>Zobellia uliginosa</t>
+  </si>
+  <si>
+    <t>Flavobacterium daejeonense</t>
+  </si>
+  <si>
+    <t>Arenibacter certesii</t>
+  </si>
+  <si>
+    <t>Psychroflexus sp003565575</t>
+  </si>
+  <si>
+    <t>Flaviramulus basaltis</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp002001005</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp004122165</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp002754195</t>
+  </si>
+  <si>
+    <t>Maribacter antarcticus</t>
+  </si>
+  <si>
+    <t>UBA3537 sp.</t>
+  </si>
+  <si>
+    <t>UBA3478 sp002691685</t>
+  </si>
+  <si>
+    <t>Kordia sp003352465</t>
+  </si>
+  <si>
+    <t>Xanthomarina sp.</t>
+  </si>
+  <si>
+    <t>Flavobacterium denitrificans</t>
+  </si>
+  <si>
+    <t>Polaribacter sp000766795</t>
+  </si>
+  <si>
+    <t>Flavobacterium phragmitis</t>
   </si>
   <si>
     <t>Flavobacterium sp004349135</t>
   </si>
   <si>
-    <t>Arenibacter sp003201775</t>
+    <t>UBA7446 sp002862645</t>
+  </si>
+  <si>
+    <t>Salegentibacter sp004362395</t>
+  </si>
+  <si>
+    <t>Salinimicrobium sediminis</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp001027725</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp004016525</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp000737715</t>
+  </si>
+  <si>
+    <t>Gramella forsetii</t>
+  </si>
+  <si>
+    <t>Winogradskyella aurantiaca</t>
+  </si>
+  <si>
+    <t>Kaistella palustre</t>
+  </si>
+  <si>
+    <t>Pustulibacterium marinum</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp000829375</t>
+  </si>
+  <si>
+    <t>GCA-2862715 sp002862715</t>
+  </si>
+  <si>
+    <t>Flavobacterium aquidurense_B</t>
+  </si>
+  <si>
+    <t>Lutibacter agarilyticus</t>
+  </si>
+  <si>
+    <t>Flavobacterium aciduliphilum</t>
+  </si>
+  <si>
+    <t>Lutibacter flavus</t>
+  </si>
+  <si>
+    <t>Flavobacterium faecale</t>
+  </si>
+  <si>
+    <t>Flavobacterium aquaticum</t>
+  </si>
+  <si>
+    <t>Zeaxanthinibacter sp.</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp004349195</t>
+  </si>
+  <si>
+    <t>Cellulophaga fucicola</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp002455915</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp004293165</t>
+  </si>
+  <si>
+    <t>Mesonia phycicola</t>
+  </si>
+  <si>
+    <t>Kaistella treverense</t>
+  </si>
+  <si>
+    <t>Aequorivita sublithincola</t>
+  </si>
+  <si>
+    <t>Elizabethkingia sp.</t>
+  </si>
+  <si>
+    <t>Muricauda pacifica</t>
+  </si>
+  <si>
+    <t>Flavobacterium crocinum</t>
+  </si>
+  <si>
+    <t>Flavobacterium anhuiense_A</t>
+  </si>
+  <si>
+    <t>Chryseobacterium oleae</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp004362015</t>
+  </si>
+  <si>
+    <t>Flavobacterium daejeonense_A</t>
+  </si>
+  <si>
+    <t>Flavobacterium omnivorum</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp002296885</t>
+  </si>
+  <si>
+    <t>UM-FILTER-40-17 sp002790195</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp002714575</t>
+  </si>
+  <si>
+    <t>Flavobacterium gillisiae</t>
+  </si>
+  <si>
+    <t>Salegentibacter flavus</t>
+  </si>
+  <si>
+    <t>Winogradskyella epiphytica</t>
+  </si>
+  <si>
+    <t>MED-G14 sp002457715</t>
+  </si>
+  <si>
+    <t>Maribacter_A polysiphoniae</t>
+  </si>
+  <si>
+    <t>Robiginitalea biformata</t>
+  </si>
+  <si>
+    <t>Psychroserpens sp900104785</t>
+  </si>
+  <si>
+    <t>Flavicella sp002477565</t>
+  </si>
+  <si>
+    <t>Gelidibacter sp002426015</t>
+  </si>
+  <si>
+    <t>Riemerella columbina</t>
+  </si>
+  <si>
+    <t>Capnocytophaga sp000466425</t>
+  </si>
+  <si>
+    <t>Myroides odoratus_A</t>
+  </si>
+  <si>
+    <t>Leeuwenhoekiella sp002710685</t>
+  </si>
+  <si>
+    <t>UBA3537 sp002698705</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp004028155</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp004352915</t>
+  </si>
+  <si>
+    <t>Planobacterium sp002319955</t>
+  </si>
+  <si>
+    <t>Salegentibacter sediminis</t>
+  </si>
+  <si>
+    <t>Bizionia paragorgiae</t>
+  </si>
+  <si>
+    <t>Ochrovirga pacifica</t>
+  </si>
+  <si>
+    <t>Salinimicrobium sp.</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp000799455</t>
+  </si>
+  <si>
+    <t>Flavobacterium seoulense</t>
+  </si>
+  <si>
+    <t>Muricauda ruestringensis</t>
+  </si>
+  <si>
+    <t>Soonwooa sp.</t>
+  </si>
+  <si>
+    <t>Robiginitalea sp.</t>
+  </si>
+  <si>
+    <t>Flavobacterium degerlachei</t>
+  </si>
+  <si>
+    <t>Psychroflexus sp003931895</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp003202405</t>
+  </si>
+  <si>
+    <t>UBA8316 sp002687665</t>
+  </si>
+  <si>
+    <t>GCA-002723295 sp002713495</t>
+  </si>
+  <si>
+    <t>Aurantibacter aestuarii</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp004801375</t>
+  </si>
+  <si>
+    <t>Maribacter orientalis</t>
+  </si>
+  <si>
+    <t>UBA7949 sp006065315</t>
+  </si>
+  <si>
+    <t>Kordia periserrulae</t>
+  </si>
+  <si>
+    <t>Muricauda_A sp003712125</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp000799195</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp004329815</t>
+  </si>
+  <si>
+    <t>Tenacibaculum caenipelagi</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp900078205</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp000708595</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp003097655</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp003815675</t>
+  </si>
+  <si>
+    <t>Aquimarina sp900299505</t>
+  </si>
+  <si>
+    <t>Chryseobacterium aurantiacum</t>
+  </si>
+  <si>
+    <t>Jejuia jejuensis</t>
+  </si>
+  <si>
+    <t>Tenacibaculum sp004337695</t>
+  </si>
+  <si>
+    <t>Flavicella sediminum</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp900156075</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp000799235</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp002434285</t>
+  </si>
+  <si>
+    <t>Flavobacterium alvei</t>
+  </si>
+  <si>
+    <t>MED-G11 sp004213645</t>
+  </si>
+  <si>
+    <t>Flavobacterium frigoris</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp003525665</t>
+  </si>
+  <si>
+    <t>Flavobacterium foetidum</t>
+  </si>
+  <si>
+    <t>Psychroserpens jangbogonensis</t>
+  </si>
+  <si>
+    <t>Salegentibacter holothuriorum</t>
+  </si>
+  <si>
+    <t>Muricauda lutimaris</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp002797935</t>
+  </si>
+  <si>
+    <t>Imtechella halotolerans</t>
+  </si>
+  <si>
+    <t>Psychroflexus sp002836055</t>
+  </si>
+  <si>
+    <t>Flaviramulus sp.</t>
+  </si>
+  <si>
+    <t>Marinirhabdus sp.</t>
+  </si>
+  <si>
+    <t>Dokdonia sp002712765</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp004303025</t>
+  </si>
+  <si>
+    <t>Myroides injenensis</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp004959765</t>
+  </si>
+  <si>
+    <t>Muricauda koreensis</t>
+  </si>
+  <si>
+    <t>Cruoricaptor ignavus</t>
+  </si>
+  <si>
+    <t>Hel1-33-131 sp001735745</t>
+  </si>
+  <si>
+    <t>Tamlana_A sp002893765</t>
+  </si>
+  <si>
+    <t>Mangrovimonas sp003944795</t>
+  </si>
+  <si>
+    <t>MED-G13 sp002697255</t>
+  </si>
+  <si>
+    <t>Flavobacterium terrigena</t>
+  </si>
+  <si>
+    <t>Algibacter_B sp003143755</t>
+  </si>
+  <si>
+    <t>Lutibacter sp004195315</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp003971235</t>
+  </si>
+  <si>
+    <t>UBA8316 sp002716845</t>
+  </si>
+  <si>
+    <t>Epilithonimonas arachidiradicis</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp007097385</t>
+  </si>
+  <si>
+    <t>Psychroflexus tropicus</t>
+  </si>
+  <si>
+    <t>Winogradskyella jejuensis</t>
+  </si>
+  <si>
+    <t>Sinomicrobium oceani</t>
+  </si>
+  <si>
+    <t>MED-G14 sp002702385</t>
+  </si>
+  <si>
+    <t>Flaviramulus_A ichthyoenteri</t>
+  </si>
+  <si>
+    <t>Maribacter sp005943945</t>
+  </si>
+  <si>
+    <t>Tenacibaculum soleae</t>
+  </si>
+  <si>
+    <t>Winogradskyella sp003712105</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp000264055</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp001045455</t>
+  </si>
+  <si>
+    <t>Tenacibaculum sp002813915</t>
+  </si>
+  <si>
+    <t>Myroides phaeus</t>
+  </si>
+  <si>
+    <t>UBA7684 sp002482885</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp001874325</t>
+  </si>
+  <si>
+    <t>Psychroserpens sp002162685</t>
+  </si>
+  <si>
+    <t>GCA-2746415 sp.</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp007097245</t>
+  </si>
+  <si>
+    <t>Muricauda sp004804315</t>
+  </si>
+  <si>
+    <t>Myroides ummariense</t>
+  </si>
+  <si>
+    <t>Psychroserpens sp000799465</t>
+  </si>
+  <si>
+    <t>Empedobacter sp004785645</t>
+  </si>
+  <si>
+    <t>Tamlana_A sp.</t>
+  </si>
+  <si>
+    <t>SZUA-72 sp003232435</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp003384725</t>
+  </si>
+  <si>
+    <t>Chryseobacterium soli</t>
+  </si>
+  <si>
+    <t>Maribacter spongiicola</t>
+  </si>
+  <si>
+    <t>GCA-2746415 sp002746415</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp004119445</t>
+  </si>
+  <si>
+    <t>Aquimarina spongiae</t>
+  </si>
+  <si>
+    <t>Muricauda sp005937185</t>
+  </si>
+  <si>
+    <t>Zunongwangia atlantica</t>
+  </si>
+  <si>
+    <t>Kaistella sp004359195</t>
+  </si>
+  <si>
+    <t>UBA3478 sp002691645</t>
+  </si>
+  <si>
+    <t>Muricauda beolgyonensis</t>
+  </si>
+  <si>
+    <t>Lacinutrix algicola</t>
+  </si>
+  <si>
+    <t>Arenibacter catalasegens</t>
+  </si>
+  <si>
+    <t>Aquimarina pacifica</t>
+  </si>
+  <si>
+    <t>Olleya sp002831645</t>
+  </si>
+  <si>
+    <t>MS024-2A sp002167525</t>
+  </si>
+  <si>
+    <t>Chryseobacterium kwangjuense</t>
+  </si>
+  <si>
+    <t>Winogradskyella sp004211785</t>
+  </si>
+  <si>
+    <t>Salinimicrobium xinjiangense</t>
+  </si>
+  <si>
+    <t>Flavobacterium pectinovorum_A</t>
+  </si>
+  <si>
+    <t>Dokdonia pacifica</t>
+  </si>
+  <si>
+    <t>PRS1 sp003709165</t>
+  </si>
+  <si>
+    <t>LPB0138 sp001761325</t>
+  </si>
+  <si>
+    <t>Lutibacter oricola</t>
+  </si>
+  <si>
+    <t>Flaviramulus_A sp.</t>
+  </si>
+  <si>
+    <t>Chryseobacterium elymi</t>
+  </si>
+  <si>
+    <t>Cellulophaga tyrosinoxydans</t>
+  </si>
+  <si>
+    <t>Winogradskyella sp002706045</t>
+  </si>
+  <si>
+    <t>Chryseobacterium arachidis</t>
+  </si>
+  <si>
+    <t>Gilvibacter sp003229235</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp002421645</t>
+  </si>
+  <si>
+    <t>Flavobacterium gelidilacus</t>
+  </si>
+  <si>
+    <t>Muricauda sp003269425</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp000812945</t>
+  </si>
+  <si>
+    <t>Winogradskyella eximia</t>
+  </si>
+  <si>
+    <t>Mesonia aquimarina</t>
+  </si>
+  <si>
+    <t>Nonlabens marinus</t>
+  </si>
+  <si>
+    <t>Myroides sp002807015</t>
+  </si>
+  <si>
+    <t>Kaistella chaponense</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp002422095</t>
+  </si>
+  <si>
+    <t>Tenacibaculum holothuriorum</t>
+  </si>
+  <si>
+    <t>Flavobacterium aurantiibacter</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp004349355</t>
+  </si>
+  <si>
+    <t>Aequorivita sp004022485</t>
+  </si>
+  <si>
+    <t>UBA8316 sp002171295</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp003202435</t>
+  </si>
+  <si>
+    <t>Flavobacterium sediminis</t>
+  </si>
+  <si>
+    <t>Gramella sp006714895</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp000745795</t>
+  </si>
+  <si>
+    <t>Gelidibacter sediminis</t>
+  </si>
+  <si>
+    <t>Chryseobacterium glaciei</t>
+  </si>
+  <si>
+    <t>Nonlabens dokdonensis_B</t>
+  </si>
+  <si>
+    <t>Dokdonia sp.</t>
   </si>
   <si>
     <t>Winogradskyella aurantia</t>
   </si>
   <si>
-    <t>Aquimarina sediminis</t>
-  </si>
-  <si>
-    <t>Psychroflexus sp003931895</t>
-  </si>
-  <si>
-    <t>UBA7428 sp002708445</t>
-  </si>
-  <si>
-    <t>UBA8316 sp002695445</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp003403075</t>
+    <t>Myroides sp002360925</t>
+  </si>
+  <si>
+    <t>Maribacter_A sp002749285</t>
+  </si>
+  <si>
+    <t>Mesonia mobilis</t>
+  </si>
+  <si>
+    <t>Gramella sp004332155</t>
+  </si>
+  <si>
+    <t>Leeuwenhoekiella sp000733945</t>
+  </si>
+  <si>
+    <t>Aquimarina atlantica</t>
   </si>
   <si>
     <t>Jejuia sp002428965</t>
   </si>
   <si>
-    <t>Winogradskyella sp002706045</t>
-  </si>
-  <si>
-    <t>Jejuia jejuensis</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp000799235</t>
-  </si>
-  <si>
-    <t>Soonwooa sp.</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp001027725</t>
-  </si>
-  <si>
-    <t>Myroides sp002286775</t>
-  </si>
-  <si>
-    <t>Winogradskyella thalassocola</t>
-  </si>
-  <si>
-    <t>Tenacibaculum sp900239505</t>
-  </si>
-  <si>
-    <t>Tamlana_A sp004804355</t>
-  </si>
-  <si>
-    <t>Lutibacter sp004121075</t>
-  </si>
-  <si>
-    <t>Polaribacter butkevichii</t>
-  </si>
-  <si>
-    <t>Myroides sp004151275</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp004349085</t>
-  </si>
-  <si>
-    <t>Flavobacterium soli</t>
-  </si>
-  <si>
-    <t>GCA-2747695 sp.</t>
+    <t>Polaribacter sp002163835</t>
+  </si>
+  <si>
+    <t>MED-G13 sp.</t>
+  </si>
+  <si>
+    <t>HC6-5 sp003450155</t>
+  </si>
+  <si>
+    <t>Maribacter caenipelagi</t>
+  </si>
+  <si>
+    <t>Nonlabens sp.</t>
+  </si>
+  <si>
+    <t>Kaistella frigidisoli</t>
+  </si>
+  <si>
+    <t>Polaribacter irgensii</t>
+  </si>
+  <si>
+    <t>Flavobacterium tibetense</t>
+  </si>
+  <si>
+    <t>Aureicoccus marinus</t>
+  </si>
+  <si>
+    <t>Antarcticibacterium flavum</t>
+  </si>
+  <si>
+    <t>Chryseobacterium sp001424585</t>
+  </si>
+  <si>
+    <t>Chryseobacterium polytrichastri</t>
+  </si>
+  <si>
+    <t>Polaribacter sp005885675</t>
+  </si>
+  <si>
+    <t>GCA-002733185 sp004214175</t>
+  </si>
+  <si>
+    <t>Polaribacter sp002831685</t>
+  </si>
+  <si>
+    <t>SCGC-AAA160-P02 sp000383355</t>
+  </si>
+  <si>
+    <t>Aquimarina agarivorans</t>
+  </si>
+  <si>
+    <t>Myroides sp003865405</t>
+  </si>
+  <si>
+    <t>Leeuwenhoekiella sp.</t>
+  </si>
+  <si>
+    <t>Maribacter vaceletii</t>
+  </si>
+  <si>
+    <t>Polaribacter sp000152945</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp002256285</t>
+  </si>
+  <si>
+    <t>MAR-2010-188 sp900104375</t>
+  </si>
+  <si>
+    <t>Flavobacterium indicum</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp003668995</t>
+  </si>
+  <si>
+    <t>Lacinutrix sp001874145</t>
+  </si>
+  <si>
+    <t>Gaetbulibacter saemankumensis</t>
+  </si>
+  <si>
+    <t>Chryseobacterium takakiae</t>
+  </si>
+  <si>
+    <t>Winogradskyella psychrotolerans</t>
+  </si>
+  <si>
+    <t>Flavobacterium terrae</t>
+  </si>
+  <si>
+    <t>Ulvibacter litoralis</t>
+  </si>
+  <si>
+    <t>Flavobacterium sinopsychrotolerans</t>
+  </si>
+  <si>
+    <t>Flavobacterium urumqiense</t>
+  </si>
+  <si>
+    <t>Flaviramulus_A sp002741945</t>
+  </si>
+  <si>
+    <t>Flavobacterium kingsejongi</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp004745595</t>
+  </si>
+  <si>
+    <t>Flavobacterium antarcticum</t>
+  </si>
+  <si>
+    <t>Chishuiella changwenlii</t>
+  </si>
+  <si>
+    <t>Flavobacterium sp004355225</t>
   </si>
   <si>
     <t>Flavobacterium dankookense</t>
   </si>
   <si>
-    <t>Chryseobacterium soli</t>
-  </si>
-  <si>
-    <t>Chryseobacterium angstadtii</t>
-  </si>
-  <si>
-    <t>Epilithonimonas tenax</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp000737715</t>
-  </si>
-  <si>
-    <t>Salegentibacter holothuriorum</t>
-  </si>
-  <si>
-    <t>GCA-2746415 sp.</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp006829085</t>
-  </si>
-  <si>
-    <t>Gillisia mitskevichiae</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp001874325</t>
-  </si>
-  <si>
-    <t>Psychroflexus sp007116535</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp000799335</t>
-  </si>
-  <si>
-    <t>Marixanthomonas ophiurae</t>
-  </si>
-  <si>
-    <t>Flavobacterium alvei</t>
-  </si>
-  <si>
-    <t>Aquimarina atlantica</t>
-  </si>
-  <si>
-    <t>Gramella sp006714895</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002797935</t>
-  </si>
-  <si>
-    <t>Aquimarina sp002697475</t>
-  </si>
-  <si>
-    <t>Planobacterium sp002319955</t>
-  </si>
-  <si>
-    <t>Myroides ummariense</t>
-  </si>
-  <si>
-    <t>LPB0138 sp001761325</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp006175945</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002482975</t>
-  </si>
-  <si>
-    <t>Flavobacterium psychrophilum_B</t>
-  </si>
-  <si>
-    <t>Flavobacterium foetidum</t>
-  </si>
-  <si>
-    <t>Aureicoccus marinus</t>
-  </si>
-  <si>
-    <t>Pseudozobellia thermophila</t>
-  </si>
-  <si>
-    <t>Polaribacter gangjinensis</t>
-  </si>
-  <si>
-    <t>Salegentibacter sp004362395</t>
-  </si>
-  <si>
-    <t>Epilithonimonas sp002383165</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp003815715</t>
-  </si>
-  <si>
-    <t>Zunongwangia atlantica</t>
-  </si>
-  <si>
-    <t>Tenacibaculum caenipelagi</t>
-  </si>
-  <si>
-    <t>Robiginitalea myxolifaciens</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp004119495</t>
-  </si>
-  <si>
-    <t>Gillisia marina</t>
-  </si>
-  <si>
-    <t>Antarcticibacterium flavum</t>
-  </si>
-  <si>
-    <t>LPB0138 sp002733665</t>
-  </si>
-  <si>
-    <t>Formosa haliotis</t>
-  </si>
-  <si>
-    <t>GCA-2746415 sp002746415</t>
-  </si>
-  <si>
-    <t>Epilithonimonas molle</t>
-  </si>
-  <si>
-    <t>Flaviramulus_A sp002741945</t>
-  </si>
-  <si>
-    <t>Maribacter sp005943945</t>
-  </si>
-  <si>
-    <t>Gramella gaetbulicola</t>
-  </si>
-  <si>
-    <t>Cellulophaga sp000799565</t>
-  </si>
-  <si>
-    <t>UBA8316 sp003538555</t>
-  </si>
-  <si>
-    <t>Chryseobacterium artocarpi</t>
-  </si>
-  <si>
-    <t>Flavobacterium frigoris</t>
-  </si>
-  <si>
-    <t>Algibacter_B pectinivorans</t>
-  </si>
-  <si>
-    <t>Maribacter vaceletii</t>
+    <t>Arenibacter sp003957295</t>
+  </si>
+  <si>
+    <t>Aureitalea marina</t>
+  </si>
+  <si>
+    <t>CAU-1491 sp005047595</t>
   </si>
   <si>
     <t>PDQE01 sp002747735</t>
   </si>
   <si>
-    <t>Flavobacterium fontis</t>
-  </si>
-  <si>
-    <t>Polaribacter sp000766795</t>
-  </si>
-  <si>
-    <t>Myroides sp003858535</t>
-  </si>
-  <si>
-    <t>Flavobacterium terrigena</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp007109225</t>
-  </si>
-  <si>
-    <t>UBA7949 sp002352665</t>
-  </si>
-  <si>
-    <t>YIM-102668 sp003687725</t>
-  </si>
-  <si>
-    <t>Zeaxanthinibacter enoshimensis</t>
-  </si>
-  <si>
-    <t>Capnocytophaga stomatis</t>
-  </si>
-  <si>
-    <t>UBA3537 sp002690085</t>
-  </si>
-  <si>
-    <t>Polaribacter sp002163835</t>
-  </si>
-  <si>
-    <t>Maribacter caenipelagi</t>
-  </si>
-  <si>
-    <t>Chryseobacterium taichungense</t>
-  </si>
-  <si>
-    <t>Flavobacterium jejuense</t>
-  </si>
-  <si>
-    <t>Flavobacterium succinicans_A</t>
-  </si>
-  <si>
-    <t>Muricauda sp004804315</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp000426145</t>
-  </si>
-  <si>
-    <t>Tenacibaculum sp900105455</t>
-  </si>
-  <si>
-    <t>GCA-2747695 sp002747695</t>
-  </si>
-  <si>
-    <t>Flavobacterium album</t>
-  </si>
-  <si>
-    <t>Flavobacterium filum</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp003312915</t>
-  </si>
-  <si>
-    <t>Flavobacterium urumqiense</t>
-  </si>
-  <si>
-    <t>Muricauda sp002813125</t>
-  </si>
-  <si>
-    <t>Gelidibacter sediminis</t>
-  </si>
-  <si>
-    <t>Flavobacterium aurantiibacter</t>
-  </si>
-  <si>
-    <t>TMED220 sp002702875</t>
-  </si>
-  <si>
-    <t>MED-G13 sp002702745</t>
-  </si>
-  <si>
-    <t>Jejuia pacifica</t>
-  </si>
-  <si>
-    <t>Myroides injenensis</t>
-  </si>
-  <si>
-    <t>Polaribacter sp000981625</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002001005</t>
-  </si>
-  <si>
-    <t>Flavicella sp.</t>
-  </si>
-  <si>
-    <t>Epilithonimonas xixisoli</t>
-  </si>
-  <si>
-    <t>Cellulophaga fucicola</t>
-  </si>
-  <si>
-    <t>Polaribacter sp900105145</t>
-  </si>
-  <si>
-    <t>Dokdonia pacifica</t>
-  </si>
-  <si>
-    <t>Chryseobacterium glaciei</t>
-  </si>
-  <si>
-    <t>Lutibacter sp003260195</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002836475</t>
-  </si>
-  <si>
-    <t>PRS1 sp003709165</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp004028155</t>
-  </si>
-  <si>
-    <t>Flavobacterium tistrianum</t>
-  </si>
-  <si>
-    <t>Cruoricaptor ignavus</t>
-  </si>
-  <si>
-    <t>UBA7428 sp002477625</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp004801375</t>
-  </si>
-  <si>
-    <t>Algibacter_A alginicilyticus</t>
-  </si>
-  <si>
-    <t>Capnocytophaga sp002999135</t>
-  </si>
-  <si>
-    <t>UBA7446 sp002698745</t>
-  </si>
-  <si>
-    <t>Psychroserpens sp002162685</t>
-  </si>
-  <si>
-    <t>Confluentibacter sp002280395</t>
-  </si>
-  <si>
-    <t>Dokdonia sp000355805</t>
-  </si>
-  <si>
-    <t>Riemerella columbipharyngis</t>
-  </si>
-  <si>
-    <t>Lacinutrix sp000211855</t>
-  </si>
-  <si>
-    <t>Ochrovirga pacifica</t>
-  </si>
-  <si>
-    <t>Psychroserpens jangbogonensis</t>
-  </si>
-  <si>
-    <t>UM-FILTER-40-17 sp002790195</t>
-  </si>
-  <si>
-    <t>Nonlabens sp003966335</t>
-  </si>
-  <si>
-    <t>Muricauda aquimarina</t>
-  </si>
-  <si>
-    <t>GCA-002733185 sp002713705</t>
-  </si>
-  <si>
-    <t>Flavobacterium seoulense</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp004293165</t>
-  </si>
-  <si>
-    <t>Chryseobacterium gregarium</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp001425355</t>
-  </si>
-  <si>
-    <t>Maribacter_A polysiphoniae</t>
-  </si>
-  <si>
-    <t>Flavobacterium haoranii_A</t>
-  </si>
-  <si>
-    <t>Marixanthomonas sp002631855</t>
-  </si>
-  <si>
-    <t>CAU-1491 sp.</t>
-  </si>
-  <si>
-    <t>Seonamhaeicola sp004358095</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp000745535</t>
-  </si>
-  <si>
-    <t>Arenibacter troitsensis</t>
-  </si>
-  <si>
-    <t>MED-G14 sp002703065</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp000264055</t>
-  </si>
-  <si>
-    <t>Bin25 sp002238525</t>
-  </si>
-  <si>
-    <t>Kaistella sp003692615</t>
-  </si>
-  <si>
-    <t>Imtechella halotolerans</t>
-  </si>
-  <si>
-    <t>Polaribacter sp003129485</t>
-  </si>
-  <si>
-    <t>GCA-2700405 sp004213965</t>
-  </si>
-  <si>
-    <t>Algibacter_D aestuarii</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002754195</t>
-  </si>
-  <si>
-    <t>UBA6231 sp.</t>
-  </si>
-  <si>
-    <t>Kriegella aquimaris</t>
-  </si>
-  <si>
-    <t>Mariniflexile fucanivorans</t>
-  </si>
-  <si>
-    <t>Seonamhaeicola sp001971785</t>
-  </si>
-  <si>
-    <t>Polaribacter tangerinus</t>
-  </si>
-  <si>
-    <t>Salinimicrobium xinjiangense</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp004211145</t>
-  </si>
-  <si>
-    <t>Chryseobacterium defluvii</t>
-  </si>
-  <si>
-    <t>GCA-002723295 sp002723295</t>
-  </si>
-  <si>
-    <t>Myroides sp002807015</t>
-  </si>
-  <si>
-    <t>Flavobacterium aciduliphilum</t>
-  </si>
-  <si>
-    <t>QNYL01 sp003973375</t>
-  </si>
-  <si>
-    <t>Chryseobacterium ureilyticum</t>
-  </si>
-  <si>
-    <t>Lacinutrix sp001874145</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp002754245</t>
-  </si>
-  <si>
-    <t>Aquimarina longa</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002150205</t>
-  </si>
-  <si>
-    <t>Dokdonia sp003688895</t>
-  </si>
-  <si>
-    <t>Formosa sp007197735</t>
-  </si>
-  <si>
-    <t>Tamlana_B sedimentorum</t>
-  </si>
-  <si>
-    <t>Confluentibacter lentus</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp004119445</t>
-  </si>
-  <si>
-    <t>UBA3376 sp002359055</t>
-  </si>
-  <si>
-    <t>Jejuia sp004310325</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp001421435</t>
-  </si>
-  <si>
-    <t>GCA-002401385 sp002401105</t>
-  </si>
-  <si>
-    <t>Maribacter spongiicola</t>
-  </si>
-  <si>
-    <t>Aquimarina spongiae</t>
-  </si>
-  <si>
-    <t>Epilithonimonas sp001898785</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp001045455</t>
-  </si>
-  <si>
-    <t>Robiginitalea sp.</t>
-  </si>
-  <si>
-    <t>Empedobacter sp004785645</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp002455915</t>
-  </si>
-  <si>
-    <t>UBA724 sp002171575</t>
-  </si>
-  <si>
-    <t>Tenacibaculum sp002954385</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp000708595</t>
-  </si>
-  <si>
-    <t>Lutibacter maritimus</t>
-  </si>
-  <si>
-    <t>MS024-2A_A sp002457295</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp003729935</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002715085</t>
-  </si>
-  <si>
-    <t>Chryseobacterium aurantiacum</t>
-  </si>
-  <si>
-    <t>Winogradskyella epiphytica</t>
-  </si>
-  <si>
-    <t>Aquimarina megaterium</t>
-  </si>
-  <si>
-    <t>Pustulibacterium marinum</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp004959765</t>
-  </si>
-  <si>
-    <t>Nonlabens arenilitoris</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp001424585</t>
-  </si>
-  <si>
-    <t>Tenacibaculum_A todarodis</t>
-  </si>
-  <si>
-    <t>Xanthomarina spongicola</t>
-  </si>
-  <si>
-    <t>Muriicola sp004139715</t>
-  </si>
-  <si>
-    <t>Flavobacterium pectinovorum_A</t>
-  </si>
-  <si>
-    <t>Zeaxanthinibacter sp.</t>
-  </si>
-  <si>
-    <t>Flavobacterium antarcticum</t>
-  </si>
-  <si>
-    <t>Flavobacterium psychrolimnae</t>
-  </si>
-  <si>
-    <t>Mesonia mobilis</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002714575</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp003634825</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp003663845</t>
-  </si>
-  <si>
-    <t>UBA3537 sp.</t>
-  </si>
-  <si>
-    <t>Muricauda flava</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp900078205</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp004122165</t>
-  </si>
-  <si>
-    <t>UBA3537 sp002698705</t>
-  </si>
-  <si>
-    <t>Nonlabens marinus</t>
-  </si>
-  <si>
-    <t>Tenacibaculum sp002836595</t>
-  </si>
-  <si>
-    <t>Aequorivita sublithincola</t>
-  </si>
-  <si>
-    <t>PTET01 sp004359435</t>
-  </si>
-  <si>
-    <t>Flavobacterium johnsoniae_A</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp003669035</t>
-  </si>
-  <si>
-    <t>Chryseobacterium indologenes_E</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002737105</t>
-  </si>
-  <si>
-    <t>Flaviramulus basaltis</t>
-  </si>
-  <si>
-    <t>Sinomicrobium oceani</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp001529295</t>
-  </si>
-  <si>
-    <t>Chryseobacterium takakiae</t>
-  </si>
-  <si>
-    <t>Gilvibacter sp.</t>
-  </si>
-  <si>
-    <t>GCA-002723295 sp002713495</t>
-  </si>
-  <si>
-    <t>Gramella portivictoriae</t>
-  </si>
-  <si>
-    <t>Flavobacterium sediminis</t>
-  </si>
-  <si>
-    <t>Pseudozobellia sp002813285</t>
-  </si>
-  <si>
-    <t>Nonlabens spongiae</t>
-  </si>
-  <si>
-    <t>Jejuia sp.</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp000744835</t>
-  </si>
-  <si>
-    <t>Aurantibacter aestuarii</t>
-  </si>
-  <si>
-    <t>CG1-02-35-72 sp.</t>
-  </si>
-  <si>
-    <t>Lutibacter sp002390165</t>
-  </si>
-  <si>
-    <t>Kordia jejudonensis</t>
-  </si>
-  <si>
-    <t>Tamlana_A sp002893765</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002399805</t>
-  </si>
-  <si>
-    <t>Epilithonimonas hispanicum</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp000745795</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002280815</t>
-  </si>
-  <si>
-    <t>Flavobacterium crocinum</t>
-  </si>
-  <si>
-    <t>Winogradskyella sp001971725</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp005792865</t>
-  </si>
-  <si>
-    <t>Flavobacterium hercynium</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp004329815</t>
-  </si>
-  <si>
-    <t>Flavobacterium xueshanense</t>
-  </si>
-  <si>
-    <t>Chryseobacterium soldanellicola</t>
-  </si>
-  <si>
-    <t>Chryseobacterium indologenes_A</t>
-  </si>
-  <si>
-    <t>Tamlana_A sp.</t>
-  </si>
-  <si>
-    <t>Lutibacter flavus</t>
-  </si>
-  <si>
-    <t>Tenacibaculum holothuriorum</t>
-  </si>
-  <si>
-    <t>Aquimarina sp006443095</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp004362015</t>
-  </si>
-  <si>
-    <t>Tamlana_B nanhaiensis</t>
-  </si>
-  <si>
-    <t>Maribacter thermophilus</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002428305</t>
-  </si>
-  <si>
-    <t>Sinomicrobium sp003285545</t>
-  </si>
-  <si>
-    <t>Ulvibacter antarcticus</t>
-  </si>
-  <si>
-    <t>Salegentibacter flavus</t>
-  </si>
-  <si>
-    <t>Arenibacter sp003426735</t>
-  </si>
-  <si>
-    <t>Maribacter arcticus</t>
-  </si>
-  <si>
-    <t>CG2-30-34-30 sp.</t>
-  </si>
-  <si>
-    <t>Capnocytophaga sp000192225</t>
-  </si>
-  <si>
-    <t>Chishuiella changwenlii</t>
-  </si>
-  <si>
-    <t>Flavobacterium daejeonense_A</t>
-  </si>
-  <si>
-    <t>Psychroflexus salarius</t>
-  </si>
-  <si>
-    <t>Bizionia paragorgiae</t>
-  </si>
-  <si>
-    <t>UBA2674 sp002693605</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002813295</t>
-  </si>
-  <si>
-    <t>Lacinutrix algicola</t>
-  </si>
-  <si>
-    <t>Epilithonimonas sp001643375</t>
-  </si>
-  <si>
-    <t>Chishuiella sp002484335</t>
-  </si>
-  <si>
-    <t>Polaribacter irgensii</t>
-  </si>
-  <si>
-    <t>Oceanihabitans sp.</t>
-  </si>
-  <si>
-    <t>Chryseobacterium polytrichastri</t>
-  </si>
-  <si>
-    <t>Gramella sp004332155</t>
-  </si>
-  <si>
-    <t>Zobellia sp.</t>
-  </si>
-  <si>
-    <t>GCA-002733185 sp002733185</t>
-  </si>
-  <si>
-    <t>Hel1-33-131 sp001735745</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp000829375</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002862805</t>
-  </si>
-  <si>
-    <t>Winogradskyella sp003335675</t>
-  </si>
-  <si>
-    <t>Polaribacter sp000687935</t>
-  </si>
-  <si>
-    <t>Zeaxanthinibacter sp001683825</t>
-  </si>
-  <si>
-    <t>Psychroserpens mesophilus</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp003350375</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp004352915</t>
-  </si>
-  <si>
-    <t>Psychroserpens sp000799465</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp004293045</t>
-  </si>
-  <si>
-    <t>Robiginitalea biformata</t>
-  </si>
-  <si>
-    <t>TPBH4 sp001280505</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp001428525</t>
-  </si>
-  <si>
-    <t>Flavobacterium faecale</t>
-  </si>
-  <si>
-    <t>Lacinutrix mariniflava</t>
-  </si>
-  <si>
-    <t>Chryseobacterium arachidis</t>
-  </si>
-  <si>
-    <t>Lutibacter jeungdoensis</t>
-  </si>
-  <si>
-    <t>Kaistella solincola</t>
-  </si>
-  <si>
-    <t>Polaribacter sp003335085</t>
-  </si>
-  <si>
-    <t>UBA7684 sp002482885</t>
-  </si>
-  <si>
-    <t>Changchengzhania lutea</t>
-  </si>
-  <si>
-    <t>MED-G14 sp003331875</t>
-  </si>
-  <si>
-    <t>MED-G13 sp002697255</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp004122105</t>
-  </si>
-  <si>
-    <t>Elizabethkingia sp003852805</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp007097145</t>
-  </si>
-  <si>
-    <t>Psychroflexus tropicus</t>
-  </si>
-  <si>
-    <t>Ulvibacter_A alkanivorans</t>
-  </si>
-  <si>
-    <t>Gramella sp900105135</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp003097655</t>
-  </si>
-  <si>
-    <t>MED-G11 sp004213645</t>
-  </si>
-  <si>
-    <t>Flavobacterium phragmitis</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002483285</t>
-  </si>
-  <si>
-    <t>Gilvibacter sp003229235</t>
-  </si>
-  <si>
-    <t>Leeuwenhoekiella aequorea</t>
-  </si>
-  <si>
-    <t>Gramella forsetii</t>
-  </si>
-  <si>
-    <t>Nonlabens sp001413925</t>
-  </si>
-  <si>
-    <t>Kaistella frigidisoli</t>
+    <t>Altibacter sp.</t>
   </si>
   <si>
     <t>Flavobacterium lindanitolerans_A</t>
   </si>
   <si>
-    <t>Maribacter_A sp002749285</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp004349195</t>
-  </si>
-  <si>
-    <t>Algibacter_C aquaticus</t>
-  </si>
-  <si>
-    <t>Mesoflavibacter sp.</t>
-  </si>
-  <si>
-    <t>Muricauda pacifica_A</t>
-  </si>
-  <si>
-    <t>Sediminicola_A luteus</t>
-  </si>
-  <si>
-    <t>GCA-002728855 sp002728855</t>
-  </si>
-  <si>
-    <t>Tenacibaculum skagerrakense</t>
-  </si>
-  <si>
-    <t>Cellulophaga sp.</t>
-  </si>
-  <si>
-    <t>Gilvibacter sp002163875</t>
-  </si>
-  <si>
-    <t>GCA-002733185 sp004214175</t>
-  </si>
-  <si>
-    <t>Marinirhabdus gelatinilytica</t>
-  </si>
-  <si>
-    <t>Mesonia phycicola</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp004745595</t>
-  </si>
-  <si>
-    <t>GCA-002723295 sp002721275</t>
-  </si>
-  <si>
-    <t>Gillisia limnaea</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002256285</t>
-  </si>
-  <si>
-    <t>Polaribacter porphyrae</t>
-  </si>
-  <si>
-    <t>Lacinutrix sp002831665</t>
-  </si>
-  <si>
-    <t>Kaistella treverense</t>
-  </si>
-  <si>
-    <t>Kaistella sp004359195</t>
-  </si>
-  <si>
-    <t>Confluentibacter sp003258355</t>
-  </si>
-  <si>
-    <t>Muricauda sp003382275</t>
-  </si>
-  <si>
-    <t>Salegentibacter sediminis</t>
-  </si>
-  <si>
-    <t>Muricauda sp003385855</t>
-  </si>
-  <si>
-    <t>Muricauda_A sp003712125</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp001975985</t>
-  </si>
-  <si>
-    <t>UBA7949 sp003813905</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp001424105</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp001422725</t>
-  </si>
-  <si>
-    <t>Lacinutrix sp000934685</t>
-  </si>
-  <si>
-    <t>Flavobacterium fluvii</t>
-  </si>
-  <si>
-    <t>Flavobacterium defluvii</t>
-  </si>
-  <si>
-    <t>Cloacibacterium sp002337005</t>
-  </si>
-  <si>
-    <t>Kaistella sp002415135</t>
-  </si>
-  <si>
-    <t>Muricauda sp004916895</t>
-  </si>
-  <si>
-    <t>Muricauda sp005937185</t>
-  </si>
-  <si>
-    <t>Tenacibaculum gallaicum</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp001427905</t>
-  </si>
-  <si>
-    <t>Chryseobacterium camelliae</t>
-  </si>
-  <si>
-    <t>Chryseobacterium taeanense</t>
-  </si>
-  <si>
-    <t>Gillisia sp002364325</t>
-  </si>
-  <si>
-    <t>UBA7446 sp002862645</t>
-  </si>
-  <si>
-    <t>TMED96 sp002728075</t>
-  </si>
-  <si>
-    <t>Maribacter ulvicola</t>
-  </si>
-  <si>
-    <t>Kaistella sp000023725</t>
-  </si>
-  <si>
-    <t>Winogradskyella sp003712105</t>
-  </si>
-  <si>
-    <t>Psychroflexus sediminis</t>
-  </si>
-  <si>
-    <t>Olleya sp004843725</t>
-  </si>
-  <si>
-    <t>Psychroserpens sp000688335</t>
-  </si>
-  <si>
-    <t>Dokdonia sp002712765</t>
-  </si>
-  <si>
-    <t>UBA8316 sp002336305</t>
-  </si>
-  <si>
-    <t>Kordia periserrulae</t>
-  </si>
-  <si>
-    <t>Salinimicrobium sp.</t>
-  </si>
-  <si>
-    <t>Chryseobacterium taiwanense</t>
-  </si>
-  <si>
-    <t>GCA-002728855 sp002702405</t>
-  </si>
-  <si>
-    <t>GCA-2747105 sp002747105</t>
-  </si>
-  <si>
-    <t>MED-G14 sp002693085</t>
-  </si>
-  <si>
-    <t>MED-G14 sp002457715</t>
-  </si>
-  <si>
-    <t>Formosa sp.</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp003097635</t>
-  </si>
-  <si>
-    <t>Epilithonimonas sp002297505</t>
-  </si>
-  <si>
-    <t>Psychroflexus aestuariivivens</t>
-  </si>
-  <si>
-    <t>GCA-002733185 sp004213605</t>
-  </si>
-  <si>
-    <t>SCGC-AAA160-P02 sp000383355</t>
-  </si>
-  <si>
-    <t>Flavobacterium pallidum</t>
-  </si>
-  <si>
-    <t>Winogradskyella eximia</t>
-  </si>
-  <si>
-    <t>Flaviramulus_A ichthyoenteri</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp003668995</t>
-  </si>
-  <si>
-    <t>Ornithobacterium rhinotracheale_A</t>
-  </si>
-  <si>
-    <t>Marixanthomonas sp003095375</t>
-  </si>
-  <si>
     <t>Flavobacterium swingsii</t>
   </si>
   <si>
-    <t>Flavobacterium frigidarium</t>
-  </si>
-  <si>
-    <t>Capnocytophaga sp000466425</t>
-  </si>
-  <si>
-    <t>SGZJ01 sp004213995</t>
-  </si>
-  <si>
-    <t>Mangrovimonas yunxiaonensis</t>
-  </si>
-  <si>
-    <t>Kordia sp006383075</t>
-  </si>
-  <si>
-    <t>Wenyingzhuangia marina</t>
-  </si>
-  <si>
-    <t>UBA3537_A sp002721175</t>
-  </si>
-  <si>
-    <t>Aequorivita sp002733915</t>
-  </si>
-  <si>
-    <t>Aequorivita sp004022485</t>
-  </si>
-  <si>
-    <t>MS024-2A sp002167525</t>
-  </si>
-  <si>
-    <t>Flavobacterium tegetincola</t>
-  </si>
-  <si>
-    <t>CAU-1491 sp005047595</t>
-  </si>
-  <si>
-    <t>HC6-5 sp003450155</t>
-  </si>
-  <si>
-    <t>Maribacter sp002742265</t>
-  </si>
-  <si>
-    <t>Algorimicrobium sp002414705</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp004797125</t>
-  </si>
-  <si>
-    <t>Flavobacterium frigoris_A</t>
-  </si>
-  <si>
-    <t>Flavobacterium daejeonense</t>
-  </si>
-  <si>
-    <t>Tenacibaculum agarivorans</t>
-  </si>
-  <si>
-    <t>Chryseobacterium limigenitum</t>
-  </si>
-  <si>
-    <t>Muricauda ruestringensis</t>
-  </si>
-  <si>
-    <t>Flavobacterium degerlachei</t>
-  </si>
-  <si>
-    <t>Gramella salexigens</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp001297705</t>
-  </si>
-  <si>
-    <t>Aequorivita aquimaris</t>
-  </si>
-  <si>
-    <t>Flavobacterium limicola</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp003971235</t>
-  </si>
-  <si>
-    <t>MS024-2A sp002714815</t>
-  </si>
-  <si>
-    <t>Moheibacter sediminis</t>
-  </si>
-  <si>
-    <t>Leeuwenhoekiella sp000687915</t>
-  </si>
-  <si>
-    <t>Flavobacterium lacus</t>
-  </si>
-  <si>
-    <t>Arenibacter certesii</t>
-  </si>
-  <si>
-    <t>Muricauda sp002167435</t>
-  </si>
-  <si>
-    <t>Formosa agariphila</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp004362055</t>
-  </si>
-  <si>
-    <t>Arenibacter nanhaiticus</t>
-  </si>
-  <si>
-    <t>Flavobacterium ginsenosidimutans</t>
-  </si>
-  <si>
-    <t>Flavobacterium sasangense</t>
-  </si>
-  <si>
-    <t>Chryseobacterium kwangjuense</t>
-  </si>
-  <si>
-    <t>Flavobacterium sinopsychrotolerans</t>
-  </si>
-  <si>
-    <t>Winogradskyella jejuensis</t>
-  </si>
-  <si>
-    <t>Aquimarina agarivorans</t>
-  </si>
-  <si>
-    <t>Aquimarina muelleri</t>
-  </si>
-  <si>
-    <t>Tamlana_A sp006265225</t>
-  </si>
-  <si>
-    <t>Xanthomarina sp.</t>
-  </si>
-  <si>
-    <t>GCA-002401385 sp002400885</t>
-  </si>
-  <si>
-    <t>Muricauda koreensis</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002454195</t>
-  </si>
-  <si>
-    <t>Muricauda sp003269425</t>
-  </si>
-  <si>
-    <t>Myroides guanonis</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp003254745</t>
-  </si>
-  <si>
-    <t>UBA8316 sp002171295</t>
-  </si>
-  <si>
-    <t>Aureitalea marina</t>
-  </si>
-  <si>
-    <t>Flavobacterium aquaticum</t>
-  </si>
-  <si>
-    <t>Flavicella sediminum</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp003865365</t>
-  </si>
-  <si>
-    <t>UBA8316 sp002687665</t>
-  </si>
-  <si>
-    <t>MED-G14 sp003331885</t>
-  </si>
-  <si>
-    <t>Aquimarina macrocephali</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp900156075</t>
-  </si>
-  <si>
-    <t>Maribacter sp003933245</t>
-  </si>
-  <si>
-    <t>Myroides odoratus_A</t>
-  </si>
-  <si>
-    <t>Myroides phaeus</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp002979455</t>
-  </si>
-  <si>
-    <t>Elizabethkingia sp006088815</t>
-  </si>
-  <si>
-    <t>Nonlabens agnitus</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp003815655</t>
-  </si>
-  <si>
-    <t>Arenibacter latericius</t>
-  </si>
-  <si>
-    <t>GCA-002401385 sp002401385</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp004303025</t>
-  </si>
-  <si>
-    <t>Chryseobacterium greenlandense</t>
-  </si>
-  <si>
-    <t>Gramella sp007050985</t>
-  </si>
-  <si>
-    <t>Sediminicola sp001430825</t>
-  </si>
-  <si>
-    <t>Flavobacterium omnivorum</t>
-  </si>
-  <si>
-    <t>Polaribacter sp002831685</t>
-  </si>
-  <si>
-    <t>Polaribacter filamentus</t>
-  </si>
-  <si>
-    <t>Tenacibaculum sp004337695</t>
-  </si>
-  <si>
-    <t>Flavobacterium cyanobacteriorum</t>
-  </si>
-  <si>
-    <t>Croceitalea dokdonensis</t>
-  </si>
-  <si>
-    <t>Flavobacterium_B sp002256385</t>
-  </si>
-  <si>
-    <t>Lacinutrix jangbogonensis</t>
-  </si>
-  <si>
-    <t>Arenibacter hampyeongensis</t>
-  </si>
-  <si>
-    <t>Psychroflexus sp002836055</t>
-  </si>
-  <si>
-    <t>Epilithonimonas sp002476905</t>
-  </si>
-  <si>
-    <t>Seonamhaeicola aphaedonensis</t>
-  </si>
-  <si>
-    <t>CCMM003 sp003626755</t>
-  </si>
-  <si>
-    <t>MS024-2A sp002169865</t>
-  </si>
-  <si>
-    <t>Flaviramulus_A sp.</t>
-  </si>
-  <si>
-    <t>Ichthyenterobacterium sp002162765</t>
-  </si>
-  <si>
-    <t>Psychroflexus sp003564185</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp003202405</t>
-  </si>
-  <si>
-    <t>GCA-2733415 sp002733415</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp001424145</t>
-  </si>
-  <si>
-    <t>Mesonia sp003233725</t>
-  </si>
-  <si>
-    <t>Kaistella sp002197835</t>
-  </si>
-  <si>
-    <t>Lutibacter oricola</t>
-  </si>
-  <si>
-    <t>Polaribacter sp002163675</t>
-  </si>
-  <si>
-    <t>Gelidibacter mesophilus</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp002216065</t>
-  </si>
-  <si>
-    <t>Nonlabens sp002831625</t>
-  </si>
-  <si>
-    <t>Leeuwenhoekiella sp002710685</t>
-  </si>
-  <si>
-    <t>Psychroflexus torquis</t>
-  </si>
-  <si>
-    <t>Arenibacter catalasegens</t>
-  </si>
-  <si>
-    <t>Cellulophaga sp002813425</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002382495</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp900169075</t>
-  </si>
-  <si>
-    <t>Flavobacterium segetis</t>
-  </si>
-  <si>
-    <t>Maribacter sp003232155</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002483315</t>
-  </si>
-  <si>
-    <t>YIM-102668 sp.</t>
-  </si>
-  <si>
-    <t>Maribacter aquivivus</t>
-  </si>
-  <si>
-    <t>MAG-121220-bin8 sp003331265</t>
-  </si>
-  <si>
-    <t>Winogradskyella wandonensis</t>
-  </si>
-  <si>
-    <t>Tenacibaculum sp002813915</t>
-  </si>
-  <si>
-    <t>MAR-2010-188 sp006494535</t>
-  </si>
-  <si>
-    <t>Myroides marinum</t>
-  </si>
-  <si>
-    <t>Myroides sp002320285</t>
-  </si>
-  <si>
-    <t>Flavivirga sp.</t>
-  </si>
-  <si>
-    <t>LPB0138 sp002401215</t>
-  </si>
-  <si>
-    <t>Maribacter sp005771495</t>
-  </si>
-  <si>
-    <t>Kordia sp003352465</t>
-  </si>
-  <si>
-    <t>Hanstruepera neustonica</t>
-  </si>
-  <si>
-    <t>Flavobacterium gillisiae</t>
-  </si>
-  <si>
-    <t>Winogradskyella aurantiaca</t>
-  </si>
-  <si>
-    <t>Myroides sp002360925</t>
-  </si>
-  <si>
-    <t>Xanthomarina sp002366675</t>
-  </si>
-  <si>
-    <t>Muricauda sp004296335</t>
-  </si>
-  <si>
-    <t>Maribacter forsetii</t>
-  </si>
-  <si>
-    <t>Maribacter antarcticus</t>
-  </si>
-  <si>
-    <t>Soonwooa buanensis</t>
-  </si>
-  <si>
-    <t>Kaistella chaponense</t>
-  </si>
-  <si>
-    <t>Salegentibacter sp000745315</t>
-  </si>
-  <si>
-    <t>Flavobacterium micromati</t>
-  </si>
-  <si>
-    <t>Muricauda pacifica</t>
-  </si>
-  <si>
-    <t>Winogradskyella psychrotolerans</t>
-  </si>
-  <si>
-    <t>Maribacter sp005885635</t>
-  </si>
-  <si>
-    <t>Nonlabens dokdonensis_B</t>
-  </si>
-  <si>
-    <t>Algorimicrobium argentinensis</t>
-  </si>
-  <si>
-    <t>Winogradskyella sp000828715</t>
-  </si>
-  <si>
-    <t>Aequorivita capsosiphonis</t>
-  </si>
-  <si>
-    <t>Myroides indicus</t>
-  </si>
-  <si>
-    <t>Kordia algicida</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp003105115</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp000799195</t>
-  </si>
-  <si>
-    <t>Tenacibaculum soleae</t>
-  </si>
-  <si>
-    <t>Vaginella massiliensis</t>
-  </si>
-  <si>
-    <t>MED-G13 sp.</t>
-  </si>
-  <si>
-    <t>Salinimicrobium sediminis</t>
-  </si>
-  <si>
-    <t>Muricauda sp000745185</t>
-  </si>
-  <si>
-    <t>Psychroserpens sp900104785</t>
-  </si>
-  <si>
-    <t>UBA3478 sp.</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002296885</t>
-  </si>
-  <si>
-    <t>Chryseobacterium luteum</t>
-  </si>
-  <si>
-    <t>Flavivirga eckloniae</t>
-  </si>
-  <si>
-    <t>Siansivirga zeaxanthinifaciens</t>
-  </si>
-  <si>
-    <t>Flavicella sp002477565</t>
-  </si>
-  <si>
-    <t>Aquimarina amphilecti</t>
-  </si>
-  <si>
-    <t>Chryseobacterium oncorhynchi</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp002434285</t>
-  </si>
-  <si>
-    <t>Epilithonimonas arachidiradicis</t>
-  </si>
-  <si>
-    <t>Kaistella sp001403755</t>
-  </si>
-  <si>
-    <t>Polaribacter atrinae</t>
-  </si>
-  <si>
-    <t>Marinirhabdus sp.</t>
-  </si>
-  <si>
-    <t>Flavivirga sp004791695</t>
-  </si>
-  <si>
-    <t>Epilithonimonas sp003248755</t>
-  </si>
-  <si>
-    <t>Olleya sp002831645</t>
-  </si>
-  <si>
-    <t>Marixanthomonas sp002364245</t>
-  </si>
-  <si>
-    <t>Nonlabens sp.</t>
-  </si>
-  <si>
-    <t>Lutibacter profundi</t>
-  </si>
-  <si>
-    <t>Epilithonimonas sp003932955</t>
-  </si>
-  <si>
-    <t>Kaistella sp001898255</t>
-  </si>
-  <si>
-    <t>Lutibacter agarilyticus</t>
-  </si>
-  <si>
-    <t>Lutibacter sp001800975</t>
-  </si>
-  <si>
-    <t>Arenibacter echinorum</t>
-  </si>
-  <si>
-    <t>Flavobacterium urocaniciphilum</t>
-  </si>
-  <si>
-    <t>Muricauda sp003058265</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002421645</t>
-  </si>
-  <si>
-    <t>Salegentibacter echinorum</t>
-  </si>
-  <si>
-    <t>Arenibacter sp003957295</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp000799515</t>
-  </si>
-  <si>
-    <t>UBA3478 sp002691685</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp004016525</t>
-  </si>
-  <si>
-    <t>Winogradskyella arenosi</t>
-  </si>
-  <si>
-    <t>MED-G14 sp002691165</t>
-  </si>
-  <si>
-    <t>Maribacter cobaltidurans</t>
-  </si>
-  <si>
-    <t>SZUA-72 sp.</t>
-  </si>
-  <si>
-    <t>Oceanihabitans himadriensis</t>
-  </si>
-  <si>
-    <t>MS024-2A sp002167945</t>
-  </si>
-  <si>
-    <t>Maribacter orientalis</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp007097385</t>
-  </si>
-  <si>
-    <t>Flavobacterium cupreum</t>
-  </si>
-  <si>
-    <t>TMED220 sp002169155</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp000967805</t>
-  </si>
-  <si>
-    <t>Cellulophaga sp001999725</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp001800945</t>
-  </si>
-  <si>
-    <t>Ulvibacter litoralis</t>
-  </si>
-  <si>
-    <t>Winogradskyella sp000171875</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp004295795</t>
-  </si>
-  <si>
-    <t>Flavobacterium saccharophilum</t>
-  </si>
-  <si>
-    <t>Nonlabens sp900101765</t>
-  </si>
-  <si>
-    <t>Mangrovimonas sp003944795</t>
-  </si>
-  <si>
-    <t>Epilithonimonas sp002345565</t>
-  </si>
-  <si>
-    <t>Chryseobacterium daeguense</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002422095</t>
-  </si>
-  <si>
-    <t>Eudoraea adriatica</t>
-  </si>
-  <si>
-    <t>Algibacter_B sp003143755</t>
-  </si>
-  <si>
-    <t>RR4-38 sp002966125</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp002899825</t>
-  </si>
-  <si>
-    <t>GCA-2719315 sp002719315</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp004355225</t>
-  </si>
-  <si>
-    <t>Winogradskyella sp002682935</t>
-  </si>
-  <si>
-    <t>Flavobacterium cucumis</t>
-  </si>
-  <si>
-    <t>Tenacibaculum sp004762155</t>
-  </si>
-  <si>
-    <t>Capnocytophaga sp000318275</t>
-  </si>
-  <si>
-    <t>Flavobacterium caeni</t>
-  </si>
-  <si>
-    <t>Empedobacter sp.</t>
-  </si>
-  <si>
-    <t>MED-G11 sp004214015</t>
-  </si>
-  <si>
-    <t>Altibacter sp002813135</t>
-  </si>
-  <si>
-    <t>Xanthomarina sp003144015</t>
-  </si>
-  <si>
-    <t>UBA7949 sp003449015</t>
-  </si>
-  <si>
-    <t>UBA3478 sp002691645</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp003202435</t>
-  </si>
-  <si>
-    <t>Gelidibacter sp002426755</t>
-  </si>
-  <si>
-    <t>Epilithonimonas zeae</t>
-  </si>
-  <si>
-    <t>GCA-2862715 sp002862715</t>
-  </si>
-  <si>
-    <t>Altibacter lentus</t>
-  </si>
-  <si>
-    <t>Ichthyenterobacterium magnum</t>
-  </si>
-  <si>
-    <t>UBA7949 sp006065315</t>
-  </si>
-  <si>
-    <t>Algorimicrobium sp.</t>
-  </si>
-  <si>
-    <t>Elizabethkingia sp.</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp000333355</t>
-  </si>
-  <si>
-    <t>Muricauda lutimaris</t>
-  </si>
-  <si>
-    <t>Leeuwenhoekiella sp000733945</t>
-  </si>
-  <si>
-    <t>Mesonia aquimarina</t>
-  </si>
-  <si>
-    <t>Polaribacter sp003537695</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp003946915</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002303885</t>
-  </si>
-  <si>
-    <t>GCA-002723295 sp002711185</t>
-  </si>
-  <si>
-    <t>Flavobacterium indicum</t>
-  </si>
-  <si>
-    <t>UBA7446 sp.</t>
-  </si>
-  <si>
-    <t>Robertkochia sp.</t>
-  </si>
-  <si>
-    <t>Flavobacterium croceum</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp000812945</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp003254585</t>
-  </si>
-  <si>
-    <t>Confluentibacter citreus</t>
-  </si>
-  <si>
-    <t>Aequorivita sp900489465</t>
-  </si>
-  <si>
-    <t>Flavobacterium denitrificans</t>
-  </si>
-  <si>
-    <t>SZUA-72 sp003232435</t>
-  </si>
-  <si>
-    <t>Salinimicrobium terrae</t>
-  </si>
-  <si>
-    <t>Kaistella palustre</t>
-  </si>
-  <si>
-    <t>Sinomicrobium pectinilyticum</t>
-  </si>
-  <si>
-    <t>Epilithonimonas sp000735135</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp003525665</t>
-  </si>
-  <si>
-    <t>MED-G14 sp002702385</t>
-  </si>
-  <si>
-    <t>GCA-2700405 sp002700405</t>
-  </si>
-  <si>
-    <t>Lutibacter sp004195315</t>
-  </si>
-  <si>
-    <t>Flavobacterium limnosediminis</t>
-  </si>
-  <si>
-    <t>Flavobacterium xinjiangense</t>
-  </si>
-  <si>
-    <t>Aquimarina agarilytica</t>
-  </si>
-  <si>
-    <t>Aquimarina pacifica</t>
-  </si>
-  <si>
-    <t>Polaribacter sp005885675</t>
-  </si>
-  <si>
-    <t>Aquimarina brevivitae</t>
-  </si>
-  <si>
-    <t>UBA6231 sp002441545</t>
-  </si>
-  <si>
-    <t>Leeuwenhoekiella sp.</t>
-  </si>
-  <si>
-    <t>Chryseobacterium oleae</t>
-  </si>
-  <si>
-    <t>Flavobacterium anhuiense_A</t>
-  </si>
-  <si>
-    <t>MAR-2010-188 sp900104375</t>
-  </si>
-  <si>
-    <t>Flavobacterium beibuense_A</t>
-  </si>
-  <si>
-    <t>Winogradskyella tangerina</t>
-  </si>
-  <si>
-    <t>Zunongwangia mangrovi</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp002835665</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp003963025</t>
-  </si>
-  <si>
-    <t>Galbibacter marinus</t>
-  </si>
-  <si>
-    <t>Winogradskyella sp004211785</t>
-  </si>
-  <si>
-    <t>Aquimarina sp002846555</t>
-  </si>
-  <si>
-    <t>GCA-2700405 sp.</t>
-  </si>
-  <si>
-    <t>Gramella sp003024155</t>
-  </si>
-  <si>
-    <t>UBA8316 sp002716845</t>
-  </si>
-  <si>
-    <t>Flavobacterium aquidurense_B</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp003384725</t>
-  </si>
-  <si>
-    <t>Tenacibaculum jejuense</t>
-  </si>
-  <si>
-    <t>Chryseobacterium wanjuense</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp001507425</t>
-  </si>
-  <si>
-    <t>Pricia antarctica</t>
-  </si>
-  <si>
-    <t>Nonlabens sp003865345</t>
-  </si>
-  <si>
-    <t>Dokdonia sp003095655</t>
-  </si>
-  <si>
-    <t>Polaribacter haliotis</t>
-  </si>
-  <si>
-    <t>Winogradskyella sp002364335</t>
-  </si>
-  <si>
-    <t>Chryseobacterium elymi</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002304005</t>
-  </si>
-  <si>
-    <t>Zobellia uliginosa</t>
-  </si>
-  <si>
-    <t>Psychroflexus sp003565575</t>
-  </si>
-  <si>
-    <t>Maribacter_A sp000153165</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp004349355</t>
-  </si>
-  <si>
-    <t>Flavobacterium beibuense</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp000745775</t>
-  </si>
-  <si>
-    <t>Altibacter sp.</t>
-  </si>
-  <si>
-    <t>Weeksella massiliensis</t>
-  </si>
-  <si>
-    <t>Myroides sp003865405</t>
-  </si>
-  <si>
-    <t>Gaetbulibacter saemankumensis</t>
-  </si>
-  <si>
-    <t>Dokdonia sp.</t>
-  </si>
-  <si>
-    <t>Chishuiella sp002430925</t>
-  </si>
-  <si>
-    <t>UBA3537 sp001735715</t>
-  </si>
-  <si>
-    <t>Leeuwenhoekiella polynyae</t>
-  </si>
-  <si>
-    <t>Wenyingzhuangia fucanilytica</t>
-  </si>
-  <si>
-    <t>Olleya aquimaris</t>
-  </si>
-  <si>
-    <t>Flavobacterium cutihirudinis</t>
-  </si>
-  <si>
-    <t>Gelidibacter gilvus</t>
-  </si>
-  <si>
-    <t>MS024-2A sp002705385</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp001464475</t>
-  </si>
-  <si>
-    <t>Polaribacter sp000152945</t>
-  </si>
-  <si>
-    <t>Kaistella humi</t>
-  </si>
-  <si>
-    <t>Aquimarina sp900312815</t>
-  </si>
-  <si>
-    <t>Muricauda beolgyonensis</t>
-  </si>
-  <si>
-    <t>Robiginitalea sp002198115</t>
-  </si>
-  <si>
-    <t>MAG-121220-bin8 sp002702895</t>
-  </si>
-  <si>
-    <t>Psychroflexus sp006120725</t>
-  </si>
-  <si>
-    <t>Kordia zhangzhouensis</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp002862755</t>
-  </si>
-  <si>
-    <t>Flavobacterium kingsejongi</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp001045445</t>
-  </si>
-  <si>
-    <t>Riemerella columbina</t>
-  </si>
-  <si>
-    <t>Gillisia sp000403785</t>
-  </si>
-  <si>
-    <t>Flavobacterium terrae</t>
-  </si>
-  <si>
-    <t>Winogradskyella sp005869935</t>
-  </si>
-  <si>
-    <t>Confluentibacter sp002843175</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp000282055</t>
-  </si>
-  <si>
-    <t>Flaviramulus sp.</t>
-  </si>
-  <si>
-    <t>Muricauda eckloniae</t>
-  </si>
-  <si>
-    <t>Mesonia sp006546625</t>
-  </si>
-  <si>
-    <t>Gelidibacter sp002426015</t>
-  </si>
-  <si>
-    <t>Cellulophaga tyrosinoxydans</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp000799455</t>
-  </si>
-  <si>
-    <t>Flavobacterium tibetense</t>
-  </si>
-  <si>
-    <t>Nonlabens sp000153385</t>
-  </si>
-  <si>
-    <t>Psychroserpens damuponensis</t>
-  </si>
-  <si>
-    <t>Aquimarina sp900299505</t>
-  </si>
-  <si>
-    <t>Flavobacterium gelidilacus</t>
-  </si>
-  <si>
-    <t>Joostella sp.</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp007097245</t>
-  </si>
-  <si>
-    <t>Joostella marina</t>
-  </si>
-  <si>
-    <t>Flavobacterium sp004368785</t>
-  </si>
-  <si>
-    <t>Flavobacterium aquicola</t>
-  </si>
-  <si>
-    <t>Chryseobacterium indologenes_F</t>
-  </si>
-  <si>
-    <t>LPB0005 sp001637325</t>
-  </si>
-  <si>
-    <t>Flavobacterium weaverense</t>
-  </si>
-  <si>
-    <t>Flavobacterium xanthum</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp003347605</t>
-  </si>
-  <si>
-    <t>Chryseobacterium sp003815675</t>
-  </si>
-  <si>
-    <t>Flavobacterium magnum</t>
-  </si>
-  <si>
     <t>Genus</t>
   </si>
   <si>
@@ -3558,27 +3558,27 @@
     <t>Arenibacter</t>
   </si>
   <si>
+    <t>Cellulophaga</t>
+  </si>
+  <si>
+    <t>Lutibacter</t>
+  </si>
+  <si>
+    <t>Apibacter</t>
+  </si>
+  <si>
     <t>Uncl. Flavobacteriaceae</t>
   </si>
   <si>
-    <t>Lutibacter</t>
-  </si>
-  <si>
-    <t>Apibacter</t>
-  </si>
-  <si>
-    <t>Cellulophaga</t>
-  </si>
-  <si>
     <t>MS024-2A</t>
   </si>
   <si>
+    <t>Mesonia</t>
+  </si>
+  <si>
     <t>Salegentibacter</t>
   </si>
   <si>
-    <t>Mesonia</t>
-  </si>
-  <si>
     <t>Psychroflexus</t>
   </si>
   <si>
@@ -3591,436 +3591,436 @@
     <t>Marinirhabdus</t>
   </si>
   <si>
+    <t>UBA6231</t>
+  </si>
+  <si>
+    <t>Olleya</t>
+  </si>
+  <si>
     <t>Zunongwangia</t>
   </si>
   <si>
-    <t>UBA6231</t>
-  </si>
-  <si>
-    <t>Olleya</t>
-  </si>
-  <si>
     <t>UBA8316</t>
   </si>
   <si>
+    <t>MED-G14</t>
+  </si>
+  <si>
+    <t>UBA7446</t>
+  </si>
+  <si>
+    <t>SHLJ01</t>
+  </si>
+  <si>
+    <t>Psychroserpens</t>
+  </si>
+  <si>
+    <t>Gelidibacter</t>
+  </si>
+  <si>
     <t>UBA3537</t>
   </si>
   <si>
-    <t>UBA7446</t>
-  </si>
-  <si>
-    <t>Gelidibacter</t>
-  </si>
-  <si>
-    <t>MED-G14</t>
-  </si>
-  <si>
-    <t>Psychroserpens</t>
-  </si>
-  <si>
-    <t>SHLJ01</t>
+    <t>Gillisia</t>
+  </si>
+  <si>
+    <t>Dokdonia</t>
+  </si>
+  <si>
+    <t>Xanthomarina</t>
+  </si>
+  <si>
+    <t>Planobacterium</t>
   </si>
   <si>
     <t>MAG-121220-bin8</t>
   </si>
   <si>
-    <t>Gillisia</t>
-  </si>
-  <si>
-    <t>Planobacterium</t>
-  </si>
-  <si>
-    <t>Dokdonia</t>
-  </si>
-  <si>
-    <t>Xanthomarina</t>
+    <t>Ornithobacterium</t>
   </si>
   <si>
     <t>Jejuia</t>
   </si>
   <si>
-    <t>Ornithobacterium</t>
+    <t>Marixanthomonas</t>
+  </si>
+  <si>
+    <t>Euzebyella</t>
   </si>
   <si>
     <t>Lacinutrix</t>
   </si>
   <si>
-    <t>Marixanthomonas</t>
-  </si>
-  <si>
-    <t>Euzebyella</t>
+    <t>UBA724</t>
   </si>
   <si>
     <t>Algibacter</t>
   </si>
   <si>
-    <t>UBA724</t>
+    <t>CG2-30-34-30</t>
+  </si>
+  <si>
+    <t>UBA11891</t>
+  </si>
+  <si>
+    <t>MED-G11</t>
+  </si>
+  <si>
+    <t>Kordia</t>
   </si>
   <si>
     <t>CG1-02-35-72</t>
   </si>
   <si>
+    <t>Muriicola</t>
+  </si>
+  <si>
     <t>Croceivirga</t>
   </si>
   <si>
-    <t>UBA11891</t>
-  </si>
-  <si>
-    <t>CG2-30-34-30</t>
-  </si>
-  <si>
-    <t>MED-G11</t>
-  </si>
-  <si>
-    <t>Muriicola</t>
-  </si>
-  <si>
-    <t>Kordia</t>
-  </si>
-  <si>
     <t>Cloacibacterium</t>
   </si>
   <si>
     <t>Algorimicrobium</t>
   </si>
   <si>
+    <t>Croceibacter</t>
+  </si>
+  <si>
     <t>Zobellia</t>
   </si>
   <si>
-    <t>Croceibacter</t>
+    <t>Maribacter_A</t>
+  </si>
+  <si>
+    <t>Muricauda_A</t>
+  </si>
+  <si>
+    <t>GCA-002723295</t>
+  </si>
+  <si>
+    <t>RR4-38</t>
   </si>
   <si>
     <t>Mesoflavibacter</t>
   </si>
   <si>
+    <t>UBA7428</t>
+  </si>
+  <si>
+    <t>Tamlana_A</t>
+  </si>
+  <si>
     <t>Formosa</t>
   </si>
   <si>
-    <t>Muricauda_A</t>
-  </si>
-  <si>
     <t>Salinimicrobium</t>
   </si>
   <si>
-    <t>UBA7428</t>
-  </si>
-  <si>
-    <t>Maribacter_A</t>
-  </si>
-  <si>
-    <t>GCA-002723295</t>
-  </si>
-  <si>
-    <t>RR4-38</t>
-  </si>
-  <si>
     <t>UBA7949</t>
   </si>
   <si>
-    <t>Tamlana_A</t>
+    <t>MED-G13</t>
+  </si>
+  <si>
+    <t>Weeksella</t>
+  </si>
+  <si>
+    <t>Algibacter_B</t>
+  </si>
+  <si>
+    <t>Seonamhaeicola</t>
+  </si>
+  <si>
+    <t>Altibacter</t>
+  </si>
+  <si>
+    <t>UBA3478</t>
+  </si>
+  <si>
+    <t>Bergeyella</t>
+  </si>
+  <si>
+    <t>Uncl. Weeksellaceae</t>
+  </si>
+  <si>
+    <t>Confluentibacter</t>
   </si>
   <si>
     <t>Mariniflexile</t>
   </si>
   <si>
-    <t>Seonamhaeicola</t>
-  </si>
-  <si>
-    <t>Confluentibacter</t>
-  </si>
-  <si>
-    <t>Altibacter</t>
-  </si>
-  <si>
-    <t>Bergeyella</t>
-  </si>
-  <si>
-    <t>UBA3478</t>
-  </si>
-  <si>
-    <t>Weeksella</t>
-  </si>
-  <si>
-    <t>MED-G13</t>
-  </si>
-  <si>
-    <t>Uncl. Weeksellaceae</t>
-  </si>
-  <si>
-    <t>Algibacter_B</t>
+    <t>Bergeyella_A</t>
+  </si>
+  <si>
+    <t>SCGC-AAA160-P02</t>
+  </si>
+  <si>
+    <t>UBA4166</t>
+  </si>
+  <si>
+    <t>Robiginitalea</t>
+  </si>
+  <si>
+    <t>Mangrovimonas</t>
+  </si>
+  <si>
+    <t>Croceitalea</t>
+  </si>
+  <si>
+    <t>Wenyingzhuangia</t>
+  </si>
+  <si>
+    <t>Oceanihabitans</t>
+  </si>
+  <si>
+    <t>Eudoraea</t>
   </si>
   <si>
     <t>GCA-002733185</t>
   </si>
   <si>
-    <t>Oceanihabitans</t>
-  </si>
-  <si>
-    <t>UBA4166</t>
-  </si>
-  <si>
-    <t>SCGC-AAA160-P02</t>
-  </si>
-  <si>
-    <t>Croceitalea</t>
-  </si>
-  <si>
-    <t>Bergeyella_A</t>
-  </si>
-  <si>
-    <t>Eudoraea</t>
-  </si>
-  <si>
-    <t>Mangrovimonas</t>
-  </si>
-  <si>
-    <t>Robiginitalea</t>
-  </si>
-  <si>
-    <t>Wenyingzhuangia</t>
+    <t>LPB0138</t>
+  </si>
+  <si>
+    <t>HC6-5</t>
+  </si>
+  <si>
+    <t>Flavicella</t>
+  </si>
+  <si>
+    <t>GCA-002401385</t>
+  </si>
+  <si>
+    <t>Meridianimaribacter</t>
   </si>
   <si>
     <t>Flavivirga</t>
   </si>
   <si>
+    <t>Flaviramulus_A</t>
+  </si>
+  <si>
+    <t>SMXJ01</t>
+  </si>
+  <si>
+    <t>Sinomicrobium</t>
+  </si>
+  <si>
+    <t>Gilvibacter</t>
+  </si>
+  <si>
+    <t>Zeaxanthinibacter</t>
+  </si>
+  <si>
+    <t>Moheibacter</t>
+  </si>
+  <si>
+    <t>Hanstruepera</t>
+  </si>
+  <si>
+    <t>TMED96</t>
+  </si>
+  <si>
+    <t>Bizionia</t>
+  </si>
+  <si>
+    <t>TPBH4</t>
+  </si>
+  <si>
+    <t>GCA-2700405</t>
+  </si>
+  <si>
+    <t>GCA-2747105</t>
+  </si>
+  <si>
+    <t>GCA-2733415</t>
+  </si>
+  <si>
+    <t>Robertkochia</t>
+  </si>
+  <si>
     <t>Pricia</t>
   </si>
   <si>
-    <t>Flavicella</t>
-  </si>
-  <si>
-    <t>SMXJ01</t>
-  </si>
-  <si>
-    <t>HC6-5</t>
-  </si>
-  <si>
-    <t>Moheibacter</t>
-  </si>
-  <si>
-    <t>GCA-2733415</t>
-  </si>
-  <si>
-    <t>Flaviramulus_A</t>
-  </si>
-  <si>
-    <t>Hanstruepera</t>
-  </si>
-  <si>
-    <t>GCA-2700405</t>
-  </si>
-  <si>
-    <t>Bizionia</t>
-  </si>
-  <si>
-    <t>GCA-002401385</t>
-  </si>
-  <si>
     <t>Chishuiella</t>
   </si>
   <si>
-    <t>GCA-2747105</t>
-  </si>
-  <si>
-    <t>Zeaxanthinibacter</t>
-  </si>
-  <si>
-    <t>Gilvibacter</t>
-  </si>
-  <si>
-    <t>LPB0138</t>
-  </si>
-  <si>
-    <t>TMED96</t>
-  </si>
-  <si>
-    <t>Sinomicrobium</t>
-  </si>
-  <si>
-    <t>TPBH4</t>
-  </si>
-  <si>
-    <t>Meridianimaribacter</t>
-  </si>
-  <si>
-    <t>Robertkochia</t>
+    <t>Soonwooa</t>
+  </si>
+  <si>
+    <t>GCA-002728855</t>
+  </si>
+  <si>
+    <t>Ulvibacter</t>
+  </si>
+  <si>
+    <t>Flaviramulus</t>
+  </si>
+  <si>
+    <t>GCA-2747695</t>
+  </si>
+  <si>
+    <t>Tamlana_B</t>
+  </si>
+  <si>
+    <t>Zhouia</t>
+  </si>
+  <si>
+    <t>TMED220</t>
+  </si>
+  <si>
+    <t>Joostella</t>
+  </si>
+  <si>
+    <t>Arenitalea</t>
+  </si>
+  <si>
+    <t>GCA-2746415</t>
+  </si>
+  <si>
+    <t>Pseudozobellia</t>
+  </si>
+  <si>
+    <t>MAR-2010-188</t>
   </si>
   <si>
     <t>AU392</t>
   </si>
   <si>
-    <t>TMED220</t>
-  </si>
-  <si>
-    <t>Soonwooa</t>
+    <t>Algoriella</t>
   </si>
   <si>
     <t>CAU-1491</t>
   </si>
   <si>
-    <t>GCA-002728855</t>
-  </si>
-  <si>
-    <t>Zhouia</t>
-  </si>
-  <si>
-    <t>Ulvibacter</t>
+    <t>Ichthyenterobacterium</t>
+  </si>
+  <si>
+    <t>YIM-102668</t>
+  </si>
+  <si>
+    <t>KYPW7</t>
   </si>
   <si>
     <t>SZUA-72</t>
   </si>
   <si>
-    <t>Flaviramulus</t>
-  </si>
-  <si>
-    <t>GCA-2747695</t>
-  </si>
-  <si>
-    <t>Algoriella</t>
-  </si>
-  <si>
-    <t>Ichthyenterobacterium</t>
-  </si>
-  <si>
-    <t>YIM-102668</t>
-  </si>
-  <si>
-    <t>Tamlana_B</t>
-  </si>
-  <si>
-    <t>MAR-2010-188</t>
-  </si>
-  <si>
-    <t>Pseudozobellia</t>
-  </si>
-  <si>
-    <t>Arenitalea</t>
-  </si>
-  <si>
-    <t>KYPW7</t>
-  </si>
-  <si>
-    <t>Joostella</t>
-  </si>
-  <si>
-    <t>GCA-2746415</t>
+    <t>GCA-2719315</t>
+  </si>
+  <si>
+    <t>Ulvibacter_A</t>
+  </si>
+  <si>
+    <t>Aureicoccus</t>
+  </si>
+  <si>
+    <t>GCA-2862715</t>
+  </si>
+  <si>
+    <t>Cruoricaptor</t>
+  </si>
+  <si>
+    <t>Algibacter_A</t>
+  </si>
+  <si>
+    <t>Sediminicola</t>
+  </si>
+  <si>
+    <t>PRS1</t>
   </si>
   <si>
     <t>UBA7684</t>
   </si>
   <si>
-    <t>GCA-2862715</t>
+    <t>Siansivirga</t>
+  </si>
+  <si>
+    <t>Galbibacter</t>
+  </si>
+  <si>
+    <t>Antarcticibacterium</t>
+  </si>
+  <si>
+    <t>Ochrovirga</t>
+  </si>
+  <si>
+    <t>SGZJ01</t>
+  </si>
+  <si>
+    <t>Aurantibacter</t>
+  </si>
+  <si>
+    <t>Vaginella</t>
   </si>
   <si>
     <t>MS024-2A_A</t>
   </si>
   <si>
+    <t>QNYL01</t>
+  </si>
+  <si>
+    <t>Aureitalea</t>
+  </si>
+  <si>
+    <t>Tenacibaculum_A</t>
+  </si>
+  <si>
+    <t>UBA2674</t>
+  </si>
+  <si>
+    <t>UM-FILTER-40-17</t>
+  </si>
+  <si>
+    <t>PDQE01</t>
+  </si>
+  <si>
+    <t>CCMM003</t>
+  </si>
+  <si>
+    <t>UBA3376</t>
+  </si>
+  <si>
+    <t>Changchengzhania</t>
+  </si>
+  <si>
+    <t>Imtechella</t>
+  </si>
+  <si>
+    <t>Algibacter_C</t>
+  </si>
+  <si>
+    <t>Algibacter_D</t>
+  </si>
+  <si>
     <t>LPB0005</t>
   </si>
   <si>
-    <t>Siansivirga</t>
-  </si>
-  <si>
-    <t>GCA-2719315</t>
+    <t>Sediminicola_A</t>
+  </si>
+  <si>
+    <t>Pustulibacterium</t>
+  </si>
+  <si>
+    <t>Kriegella</t>
+  </si>
+  <si>
+    <t>Gaetbulibacter</t>
   </si>
   <si>
     <t>Flavobacterium_B</t>
   </si>
   <si>
-    <t>CCMM003</t>
-  </si>
-  <si>
-    <t>QNYL01</t>
-  </si>
-  <si>
-    <t>Gaetbulibacter</t>
-  </si>
-  <si>
-    <t>UBA3376</t>
-  </si>
-  <si>
-    <t>Cruoricaptor</t>
-  </si>
-  <si>
-    <t>Kriegella</t>
-  </si>
-  <si>
     <t>UBA3537_A</t>
   </si>
   <si>
-    <t>Aureitalea</t>
-  </si>
-  <si>
-    <t>SGZJ01</t>
+    <t>Hel1-33-131</t>
+  </si>
+  <si>
+    <t>Bin25</t>
   </si>
   <si>
     <t>PTET01</t>
-  </si>
-  <si>
-    <t>Bin25</t>
-  </si>
-  <si>
-    <t>Tenacibaculum_A</t>
-  </si>
-  <si>
-    <t>Hel1-33-131</t>
-  </si>
-  <si>
-    <t>Changchengzhania</t>
-  </si>
-  <si>
-    <t>Pustulibacterium</t>
-  </si>
-  <si>
-    <t>UBA2674</t>
-  </si>
-  <si>
-    <t>Sediminicola</t>
-  </si>
-  <si>
-    <t>Aureicoccus</t>
-  </si>
-  <si>
-    <t>Aurantibacter</t>
-  </si>
-  <si>
-    <t>Sediminicola_A</t>
-  </si>
-  <si>
-    <t>Algibacter_D</t>
-  </si>
-  <si>
-    <t>Algibacter_C</t>
-  </si>
-  <si>
-    <t>PDQE01</t>
-  </si>
-  <si>
-    <t>Ulvibacter_A</t>
-  </si>
-  <si>
-    <t>Ochrovirga</t>
-  </si>
-  <si>
-    <t>UM-FILTER-40-17</t>
-  </si>
-  <si>
-    <t>Galbibacter</t>
-  </si>
-  <si>
-    <t>Imtechella</t>
-  </si>
-  <si>
-    <t>Antarcticibacterium</t>
-  </si>
-  <si>
-    <t>PRS1</t>
-  </si>
-  <si>
-    <t>Vaginella</t>
-  </si>
-  <si>
-    <t>Algibacter_A</t>
   </si>
   <si>
     <t>Family</t>
